--- a/Översikt KINDA.xlsx
+++ b/Översikt KINDA.xlsx
@@ -572,7 +572,7 @@
         <v>43345</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>44826</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44872</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         <v>44575</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44575</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>44939</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>44088</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44484</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>44974</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44958</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43315</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43987</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>44478</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>43353</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>43474</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43475</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>43523</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43524</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>43531</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43585</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43807</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43809</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43879</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43990</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>44092</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>44235</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>44342</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>44418</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>44419</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         <v>44435</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>44483</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>44636</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         <v>44642</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44690</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44706</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>44754</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>44801</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>44866</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>44960</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>44974</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>45049</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>45093</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>45093</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>45093</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43320</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43321</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43321</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43325</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43328</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43335</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43336</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43336</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43340</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43341</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43346</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43348</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43355</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43356</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>43356</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43357</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43368</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>43375</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43376</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>43383</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>43385</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>43388</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43395</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43395</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43402</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43402</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43402</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>43402</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>43402</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>43406</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>43411</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>43412</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43414</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43419</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43423</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43423</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         <v>43424</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43426</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43438</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43440</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>43441</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43441</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43441</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>43441</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43441</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43445</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>43445</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>43446</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43446</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43454</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43454</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43467</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43467</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43468</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43468</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>43473</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>43474</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>43475</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>43475</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43481</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43481</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>43482</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>43487</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>43487</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>43487</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>43488</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>43489</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>43493</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>43494</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>43496</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>43496</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>43501</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>43506</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>43508</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>43511</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>43514</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>43515</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>43517</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>43528</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43528</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>43530</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>43533</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>43542</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>43542</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>43543</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>43557</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>43558</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>43563</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>43563</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>43573</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>43578</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>43579</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>43579</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>43580</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>43584</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>43584</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>43588</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>43589</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>43593</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>43594</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>43595</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>43599</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>43600</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10600,7 +10600,7 @@
         <v>43602</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10657,7 +10657,7 @@
         <v>43608</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10714,7 +10714,7 @@
         <v>43612</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>43612</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>43619</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>43619</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>43621</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>43621</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>43626</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>43626</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>43634</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>43634</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>43636</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>43644</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>43647</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>43647</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>43649</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>43649</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43651</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>43657</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>43657</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11797,7 +11797,7 @@
         <v>43657</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         <v>43661</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11911,7 +11911,7 @@
         <v>43672</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11968,7 +11968,7 @@
         <v>43679</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43682</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>43683</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12139,7 +12139,7 @@
         <v>43685</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         <v>43689</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         <v>43689</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>43689</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>43691</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12424,7 +12424,7 @@
         <v>43696</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12481,7 +12481,7 @@
         <v>43696</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>43696</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>43698</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>43698</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>43698</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>43699</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         <v>43702</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12880,7 +12880,7 @@
         <v>43703</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
         <v>43705</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12994,7 +12994,7 @@
         <v>43706</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>43707</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>43707</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>43710</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13222,7 +13222,7 @@
         <v>43711</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>43712</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>43714</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43714</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43717</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43719</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43719</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43721</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>43725</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13745,7 +13745,7 @@
         <v>43727</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>43727</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>43727</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>43731</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>43735</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14030,7 +14030,7 @@
         <v>43740</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14087,7 +14087,7 @@
         <v>43742</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>43748</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         <v>43748</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>43756</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>43762</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>43762</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14429,7 +14429,7 @@
         <v>43765</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>43766</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>43767</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>43767</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>43767</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>43767</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>43773</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>43773</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14890,7 +14890,7 @@
         <v>43773</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14947,7 +14947,7 @@
         <v>43775</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         <v>43781</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>43782</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>43782</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>43787</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>43795</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>43795</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>43796</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15403,7 +15403,7 @@
         <v>43796</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15460,7 +15460,7 @@
         <v>43796</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
         <v>43803</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>43809</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15631,7 +15631,7 @@
         <v>43811</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15688,7 +15688,7 @@
         <v>43840</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>43843</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15802,7 +15802,7 @@
         <v>43850</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         <v>43852</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>43858</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>43858</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         <v>43858</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>43858</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>43860</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>43860</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>43860</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>43860</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>43865</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>43866</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>43868</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>43868</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>43868</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>43868</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>43871</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>43871</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>43871</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>43871</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>43879</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17024,7 +17024,7 @@
         <v>43882</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17081,7 +17081,7 @@
         <v>43885</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
         <v>43886</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>43892</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>43893</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>43893</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>43910</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17423,7 +17423,7 @@
         <v>43914</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17480,7 +17480,7 @@
         <v>43915</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17537,7 +17537,7 @@
         <v>43917</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17594,7 +17594,7 @@
         <v>43923</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17651,7 +17651,7 @@
         <v>43924</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17708,7 +17708,7 @@
         <v>43930</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>43936</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17827,7 +17827,7 @@
         <v>43936</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17889,7 +17889,7 @@
         <v>43937</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>43938</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>43941</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>43956</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18127,7 +18127,7 @@
         <v>43956</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18184,7 +18184,7 @@
         <v>43956</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18241,7 +18241,7 @@
         <v>43956</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>43956</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>43957</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>43957</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>43976</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>43977</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18593,7 +18593,7 @@
         <v>43977</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18650,7 +18650,7 @@
         <v>43980</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>43980</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>43980</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18821,7 +18821,7 @@
         <v>43990</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         <v>44000</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18945,7 +18945,7 @@
         <v>44007</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>44008</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>44011</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>44015</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>44026</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19240,7 +19240,7 @@
         <v>44029</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19297,7 +19297,7 @@
         <v>44034</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19354,7 +19354,7 @@
         <v>44039</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>44039</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         <v>44047</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44049</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44053</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44057</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44063</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44063</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44063</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44067</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44068</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44069</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44076</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44077</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>44078</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>44084</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>44084</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20333,7 +20333,7 @@
         <v>44088</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         <v>44089</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20457,7 +20457,7 @@
         <v>44090</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20514,7 +20514,7 @@
         <v>44092</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20571,7 +20571,7 @@
         <v>44095</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20628,7 +20628,7 @@
         <v>44099</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>44100</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20752,7 +20752,7 @@
         <v>44104</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
         <v>44105</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         <v>44112</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20923,7 +20923,7 @@
         <v>44112</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20980,7 +20980,7 @@
         <v>44112</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>44112</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>44112</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>44113</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>44120</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>44123</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         <v>44123</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21379,7 +21379,7 @@
         <v>44124</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
         <v>44125</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21493,7 +21493,7 @@
         <v>44130</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>44140</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21607,7 +21607,7 @@
         <v>44144</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         <v>44160</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>44161</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21778,7 +21778,7 @@
         <v>44164</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>44165</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21892,7 +21892,7 @@
         <v>44167</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
         <v>44168</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44168</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44171</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44171</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44187</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>44203</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>44203</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44203</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44207</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44215</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44216</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44218</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
         <v>44221</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44223</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44223</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44236</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44239</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44242</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44243</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44244</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44249</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44249</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44252</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44258</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44266</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44267</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44272</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44274</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44278</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23607,7 +23607,7 @@
         <v>44284</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23664,7 +23664,7 @@
         <v>44294</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23721,7 +23721,7 @@
         <v>44308</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23778,7 +23778,7 @@
         <v>44309</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>44309</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>44314</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>44316</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24006,7 +24006,7 @@
         <v>44319</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
         <v>44319</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24120,7 +24120,7 @@
         <v>44322</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24177,7 +24177,7 @@
         <v>44323</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24234,7 +24234,7 @@
         <v>44326</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24291,7 +24291,7 @@
         <v>44334</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>44335</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>44337</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>44337</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>44354</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>44357</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>44357</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>44362</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>44375</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>44379</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>44379</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24938,7 +24938,7 @@
         <v>44379</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24995,7 +24995,7 @@
         <v>44379</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25052,7 +25052,7 @@
         <v>44379</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25109,7 +25109,7 @@
         <v>44382</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25166,7 +25166,7 @@
         <v>44392</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25223,7 +25223,7 @@
         <v>44411</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44411</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44416</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44418</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44419</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44419</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44425</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25627,7 +25627,7 @@
         <v>44425</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25684,7 +25684,7 @@
         <v>44425</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25741,7 +25741,7 @@
         <v>44433</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25798,7 +25798,7 @@
         <v>44433</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25855,7 +25855,7 @@
         <v>44434</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25917,7 +25917,7 @@
         <v>44435</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25974,7 +25974,7 @@
         <v>44439</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26031,7 +26031,7 @@
         <v>44445</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26088,7 +26088,7 @@
         <v>44446</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26145,7 +26145,7 @@
         <v>44446</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26202,7 +26202,7 @@
         <v>44447</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26259,7 +26259,7 @@
         <v>44452</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26321,7 +26321,7 @@
         <v>44454</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26378,7 +26378,7 @@
         <v>44456</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26435,7 +26435,7 @@
         <v>44460</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26492,7 +26492,7 @@
         <v>44462</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26554,7 +26554,7 @@
         <v>44463</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26611,7 +26611,7 @@
         <v>44463</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26668,7 +26668,7 @@
         <v>44465</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26725,7 +26725,7 @@
         <v>44469</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26782,7 +26782,7 @@
         <v>44469</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26839,7 +26839,7 @@
         <v>44481</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26896,7 +26896,7 @@
         <v>44483</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26953,7 +26953,7 @@
         <v>44483</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27010,7 +27010,7 @@
         <v>44484</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27067,7 +27067,7 @@
         <v>44484</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27124,7 +27124,7 @@
         <v>44484</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27181,7 +27181,7 @@
         <v>44486</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27238,7 +27238,7 @@
         <v>44497</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27295,7 +27295,7 @@
         <v>44500</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27352,7 +27352,7 @@
         <v>44501</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27409,7 +27409,7 @@
         <v>44502</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27466,7 +27466,7 @@
         <v>44505</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         <v>44517</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27580,7 +27580,7 @@
         <v>44525</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27637,7 +27637,7 @@
         <v>44560</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27694,7 +27694,7 @@
         <v>44575</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27751,7 +27751,7 @@
         <v>44578</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27808,7 +27808,7 @@
         <v>44585</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27865,7 +27865,7 @@
         <v>44587</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27922,7 +27922,7 @@
         <v>44587</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27979,7 +27979,7 @@
         <v>44587</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28036,7 +28036,7 @@
         <v>44589</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28093,7 +28093,7 @@
         <v>44594</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28150,7 +28150,7 @@
         <v>44599</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28207,7 +28207,7 @@
         <v>44600</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28264,7 +28264,7 @@
         <v>44627</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28321,7 +28321,7 @@
         <v>44644</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28378,7 +28378,7 @@
         <v>44645</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28435,7 +28435,7 @@
         <v>44657</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28492,7 +28492,7 @@
         <v>44677</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28549,7 +28549,7 @@
         <v>44677</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28606,7 +28606,7 @@
         <v>44687</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28663,7 +28663,7 @@
         <v>44697</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28720,7 +28720,7 @@
         <v>44699</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28777,7 +28777,7 @@
         <v>44701</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28834,7 +28834,7 @@
         <v>44720</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         <v>44729</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28948,7 +28948,7 @@
         <v>44732</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29005,7 +29005,7 @@
         <v>44742</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29062,7 +29062,7 @@
         <v>44776</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29119,7 +29119,7 @@
         <v>44782</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29176,7 +29176,7 @@
         <v>44795</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29233,7 +29233,7 @@
         <v>44799</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29290,7 +29290,7 @@
         <v>44801</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29347,7 +29347,7 @@
         <v>44802</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29404,7 +29404,7 @@
         <v>44805</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29461,7 +29461,7 @@
         <v>44820</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29518,7 +29518,7 @@
         <v>44826</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29575,7 +29575,7 @@
         <v>44830</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29632,7 +29632,7 @@
         <v>44837</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29689,7 +29689,7 @@
         <v>44846</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         <v>44851</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29803,7 +29803,7 @@
         <v>44851</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29860,7 +29860,7 @@
         <v>44852</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29917,7 +29917,7 @@
         <v>44852</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29974,7 +29974,7 @@
         <v>44854</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30031,7 +30031,7 @@
         <v>44860</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30088,7 +30088,7 @@
         <v>44861</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30145,7 +30145,7 @@
         <v>44865</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30207,7 +30207,7 @@
         <v>44868</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30264,7 +30264,7 @@
         <v>44868</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30321,7 +30321,7 @@
         <v>44873</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30378,7 +30378,7 @@
         <v>44874</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30435,7 +30435,7 @@
         <v>44882</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30492,7 +30492,7 @@
         <v>44882</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30549,7 +30549,7 @@
         <v>44882</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30606,7 +30606,7 @@
         <v>44882</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30663,7 +30663,7 @@
         <v>44882</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30720,7 +30720,7 @@
         <v>44886</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30777,7 +30777,7 @@
         <v>44886</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30834,7 +30834,7 @@
         <v>44886</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30891,7 +30891,7 @@
         <v>44890</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30953,7 +30953,7 @@
         <v>44907</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31010,7 +31010,7 @@
         <v>44918</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31067,7 +31067,7 @@
         <v>44918</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31124,7 +31124,7 @@
         <v>44935</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31181,7 +31181,7 @@
         <v>44937</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31238,7 +31238,7 @@
         <v>44937</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31295,7 +31295,7 @@
         <v>44937</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31352,7 +31352,7 @@
         <v>44949</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31409,7 +31409,7 @@
         <v>44951</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31466,7 +31466,7 @@
         <v>44952</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31523,7 +31523,7 @@
         <v>44952</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31580,7 +31580,7 @@
         <v>44952</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31637,7 +31637,7 @@
         <v>44952</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31694,7 +31694,7 @@
         <v>44952</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31751,7 +31751,7 @@
         <v>44952</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31808,7 +31808,7 @@
         <v>44952</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31865,7 +31865,7 @@
         <v>44953</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31922,7 +31922,7 @@
         <v>44953</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31979,7 +31979,7 @@
         <v>44956</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32036,7 +32036,7 @@
         <v>44956</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32093,7 +32093,7 @@
         <v>44958</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32150,7 +32150,7 @@
         <v>44960</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32207,7 +32207,7 @@
         <v>44963</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32264,7 +32264,7 @@
         <v>44963</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32321,7 +32321,7 @@
         <v>44963</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32378,7 +32378,7 @@
         <v>44964</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32435,7 +32435,7 @@
         <v>44967</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32492,7 +32492,7 @@
         <v>44970</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32549,7 +32549,7 @@
         <v>44972</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32606,7 +32606,7 @@
         <v>44974</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32668,7 +32668,7 @@
         <v>44974</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32730,7 +32730,7 @@
         <v>44977</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32787,7 +32787,7 @@
         <v>44977</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32844,7 +32844,7 @@
         <v>44978</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32901,7 +32901,7 @@
         <v>44978</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32958,7 +32958,7 @@
         <v>44981</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33015,7 +33015,7 @@
         <v>44981</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33072,7 +33072,7 @@
         <v>44982</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33129,7 +33129,7 @@
         <v>44985</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         <v>44988</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33243,7 +33243,7 @@
         <v>44992</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33300,7 +33300,7 @@
         <v>44992</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33357,7 +33357,7 @@
         <v>44992</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33414,7 +33414,7 @@
         <v>44992</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33471,7 +33471,7 @@
         <v>44993</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33528,7 +33528,7 @@
         <v>44998</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33585,7 +33585,7 @@
         <v>45000</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33642,7 +33642,7 @@
         <v>45000</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33699,7 +33699,7 @@
         <v>45000</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33756,7 +33756,7 @@
         <v>45000</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33813,7 +33813,7 @@
         <v>45000</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33870,7 +33870,7 @@
         <v>45000</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33927,7 +33927,7 @@
         <v>45000</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33984,7 +33984,7 @@
         <v>45000</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34041,7 +34041,7 @@
         <v>45005</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34098,7 +34098,7 @@
         <v>45005</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34155,7 +34155,7 @@
         <v>45007</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34212,7 +34212,7 @@
         <v>45007</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34269,7 +34269,7 @@
         <v>45008</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34326,7 +34326,7 @@
         <v>45008</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34383,7 +34383,7 @@
         <v>45009</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34440,7 +34440,7 @@
         <v>45009</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34497,7 +34497,7 @@
         <v>45022</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34554,7 +34554,7 @@
         <v>45029</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34611,7 +34611,7 @@
         <v>45030</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34668,7 +34668,7 @@
         <v>45030</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34725,7 +34725,7 @@
         <v>45030</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34782,7 +34782,7 @@
         <v>45030</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34839,7 +34839,7 @@
         <v>45035</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34896,7 +34896,7 @@
         <v>45036</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34953,7 +34953,7 @@
         <v>45036</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35010,7 +35010,7 @@
         <v>45037</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35067,7 +35067,7 @@
         <v>45042</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35124,7 +35124,7 @@
         <v>45048</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35181,7 +35181,7 @@
         <v>45049</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35238,7 +35238,7 @@
         <v>45056</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35295,7 +35295,7 @@
         <v>45062</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35352,7 +35352,7 @@
         <v>45062</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35409,7 +35409,7 @@
         <v>45062</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35466,7 +35466,7 @@
         <v>45071</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35523,7 +35523,7 @@
         <v>45071</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35580,7 +35580,7 @@
         <v>45071</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35637,7 +35637,7 @@
         <v>45071</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35694,7 +35694,7 @@
         <v>45076</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35751,7 +35751,7 @@
         <v>45077</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35808,7 +35808,7 @@
         <v>45078</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35865,7 +35865,7 @@
         <v>45078</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35922,7 +35922,7 @@
         <v>45078</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35979,7 +35979,7 @@
         <v>45078</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36036,7 +36036,7 @@
         <v>45078</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36093,7 +36093,7 @@
         <v>45078</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36150,7 +36150,7 @@
         <v>45078</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36212,7 +36212,7 @@
         <v>45078</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36274,7 +36274,7 @@
         <v>45078</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36331,7 +36331,7 @@
         <v>45078</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36388,7 +36388,7 @@
         <v>45082</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36445,7 +36445,7 @@
         <v>45082</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36502,7 +36502,7 @@
         <v>45082</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36559,7 +36559,7 @@
         <v>45082</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36616,7 +36616,7 @@
         <v>45082</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36673,7 +36673,7 @@
         <v>45084</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36730,7 +36730,7 @@
         <v>45085</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36787,7 +36787,7 @@
         <v>45089</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36844,7 +36844,7 @@
         <v>45089</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36901,7 +36901,7 @@
         <v>45093</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36958,7 +36958,7 @@
         <v>45093</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37015,7 +37015,7 @@
         <v>45096</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37072,7 +37072,7 @@
         <v>45096</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37129,7 +37129,7 @@
         <v>45097</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         <v>45097</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         <v>45098</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37300,7 +37300,7 @@
         <v>45098</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37357,7 +37357,7 @@
         <v>45098</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37414,7 +37414,7 @@
         <v>45098</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37471,7 +37471,7 @@
         <v>45105</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37528,7 +37528,7 @@
         <v>45110</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37585,7 +37585,7 @@
         <v>45111</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37642,7 +37642,7 @@
         <v>45111</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37699,7 +37699,7 @@
         <v>45111</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37756,7 +37756,7 @@
         <v>45114</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37813,7 +37813,7 @@
         <v>45116</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37870,7 +37870,7 @@
         <v>45120</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37927,7 +37927,7 @@
         <v>45122</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37984,7 +37984,7 @@
         <v>45128</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38041,7 +38041,7 @@
         <v>45134</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38098,7 +38098,7 @@
         <v>45139</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38155,7 +38155,7 @@
         <v>45139</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38212,7 +38212,7 @@
         <v>45141</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38269,7 +38269,7 @@
         <v>45145</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38326,7 +38326,7 @@
         <v>45145</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38383,7 +38383,7 @@
         <v>45148</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38440,7 +38440,7 @@
         <v>45152</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38497,7 +38497,7 @@
         <v>45153</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38554,7 +38554,7 @@
         <v>45159</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         <v>45160</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38668,7 +38668,7 @@
         <v>45160</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38730,7 +38730,7 @@
         <v>45161</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38787,7 +38787,7 @@
         <v>45162</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38849,7 +38849,7 @@
         <v>45163</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38906,7 +38906,7 @@
         <v>45163</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38963,7 +38963,7 @@
         <v>45167</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>

--- a/Översikt KINDA.xlsx
+++ b/Översikt KINDA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y646"/>
+  <dimension ref="A1:Y647"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43345</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>44826</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44872</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         <v>44575</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44575</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>44939</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>44088</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44484</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>44974</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44958</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43315</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43987</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>44478</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>43353</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>43474</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43475</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>43523</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43524</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>43531</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43585</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43807</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43809</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43879</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43990</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>44092</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>44235</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>44342</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>44418</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>44419</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         <v>44435</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>44483</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>44636</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         <v>44642</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44690</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44706</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>44754</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>44801</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>44866</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>44960</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>44974</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>45049</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>45093</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>45093</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>45093</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43320</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43321</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43321</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43325</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43328</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43335</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43336</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43336</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43340</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43341</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43346</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43348</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43355</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43356</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>43356</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43357</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43368</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>43375</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43376</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>43383</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>43385</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>43388</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43395</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43395</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43402</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43402</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43402</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>43402</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>43402</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>43406</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>43411</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>43412</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43414</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43419</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43423</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43423</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         <v>43424</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43426</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43438</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43440</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>43441</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43441</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43441</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>43441</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43441</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43445</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>43445</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>43446</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43446</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43454</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43454</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43467</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43467</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43468</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43468</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>43473</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>43474</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>43475</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>43475</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43481</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43481</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>43482</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>43487</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>43487</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>43487</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>43488</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>43489</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>43493</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>43494</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>43496</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>43496</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>43501</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>43506</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>43508</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>43511</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>43514</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>43515</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>43517</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>43528</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43528</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>43530</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>43533</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>43542</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>43542</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>43543</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>43557</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>43558</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>43563</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>43563</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>43573</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>43578</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>43579</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>43579</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>43580</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>43584</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>43584</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>43588</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>43589</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>43593</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>43594</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>43595</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>43599</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>43600</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10600,7 +10600,7 @@
         <v>43602</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10657,7 +10657,7 @@
         <v>43608</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10714,7 +10714,7 @@
         <v>43612</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>43612</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>43619</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>43619</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>43621</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>43621</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>43626</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>43626</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>43634</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>43634</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>43636</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>43644</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>43647</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>43647</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>43649</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>43649</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43651</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>43657</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>43657</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11797,7 +11797,7 @@
         <v>43657</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         <v>43661</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11911,7 +11911,7 @@
         <v>43672</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11968,7 +11968,7 @@
         <v>43679</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43682</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>43683</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12139,7 +12139,7 @@
         <v>43685</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         <v>43689</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         <v>43689</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>43689</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>43691</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12424,7 +12424,7 @@
         <v>43696</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12481,7 +12481,7 @@
         <v>43696</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>43696</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>43698</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>43698</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>43698</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>43699</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         <v>43702</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12880,7 +12880,7 @@
         <v>43703</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
         <v>43705</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12994,7 +12994,7 @@
         <v>43706</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>43707</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>43707</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>43710</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13222,7 +13222,7 @@
         <v>43711</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>43712</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>43714</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43714</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43717</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43719</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43719</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43721</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>43725</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13745,7 +13745,7 @@
         <v>43727</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>43727</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>43727</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>43731</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>43735</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14030,7 +14030,7 @@
         <v>43740</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14087,7 +14087,7 @@
         <v>43742</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>43748</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         <v>43748</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>43756</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>43762</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>43762</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14429,7 +14429,7 @@
         <v>43765</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>43766</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>43767</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>43767</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>43767</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>43767</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>43773</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>43773</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14890,7 +14890,7 @@
         <v>43773</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14947,7 +14947,7 @@
         <v>43775</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         <v>43781</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>43782</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>43782</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>43787</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>43795</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>43795</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>43796</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15403,7 +15403,7 @@
         <v>43796</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15460,7 +15460,7 @@
         <v>43796</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
         <v>43803</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>43809</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15631,7 +15631,7 @@
         <v>43811</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15688,7 +15688,7 @@
         <v>43840</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>43843</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15802,7 +15802,7 @@
         <v>43850</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         <v>43852</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>43858</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>43858</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         <v>43858</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>43858</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>43860</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>43860</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>43860</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>43860</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>43865</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>43866</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>43868</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>43868</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>43868</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>43868</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>43871</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>43871</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>43871</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>43871</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>43879</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17024,7 +17024,7 @@
         <v>43882</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17081,7 +17081,7 @@
         <v>43885</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
         <v>43886</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>43892</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>43893</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>43893</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>43910</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17423,7 +17423,7 @@
         <v>43914</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17480,7 +17480,7 @@
         <v>43915</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17537,7 +17537,7 @@
         <v>43917</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17594,7 +17594,7 @@
         <v>43923</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17651,7 +17651,7 @@
         <v>43924</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17708,7 +17708,7 @@
         <v>43930</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>43936</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17827,7 +17827,7 @@
         <v>43936</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17889,7 +17889,7 @@
         <v>43937</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>43938</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>43941</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>43956</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18127,7 +18127,7 @@
         <v>43956</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18184,7 +18184,7 @@
         <v>43956</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18241,7 +18241,7 @@
         <v>43956</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>43956</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>43957</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>43957</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>43976</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>43977</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18593,7 +18593,7 @@
         <v>43977</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18650,7 +18650,7 @@
         <v>43980</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>43980</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>43980</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18821,7 +18821,7 @@
         <v>43990</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         <v>44000</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18945,7 +18945,7 @@
         <v>44007</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>44008</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>44011</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>44015</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>44026</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19240,7 +19240,7 @@
         <v>44029</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19297,7 +19297,7 @@
         <v>44034</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19354,7 +19354,7 @@
         <v>44039</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>44039</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         <v>44047</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44049</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44053</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44057</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44063</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44063</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44063</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44067</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44068</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44069</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44076</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44077</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>44078</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>44084</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>44084</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20333,7 +20333,7 @@
         <v>44088</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         <v>44089</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20457,7 +20457,7 @@
         <v>44090</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20514,7 +20514,7 @@
         <v>44092</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20571,7 +20571,7 @@
         <v>44095</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20628,7 +20628,7 @@
         <v>44099</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>44100</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20752,7 +20752,7 @@
         <v>44104</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
         <v>44105</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         <v>44112</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20923,7 +20923,7 @@
         <v>44112</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20980,7 +20980,7 @@
         <v>44112</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>44112</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>44112</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>44113</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>44120</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>44123</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         <v>44123</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21379,7 +21379,7 @@
         <v>44124</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
         <v>44125</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21493,7 +21493,7 @@
         <v>44130</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>44140</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21607,7 +21607,7 @@
         <v>44144</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         <v>44160</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>44161</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21778,7 +21778,7 @@
         <v>44164</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>44165</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21892,7 +21892,7 @@
         <v>44167</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
         <v>44168</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44168</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44171</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44171</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44187</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>44203</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>44203</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44203</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44207</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44215</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44216</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44218</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
         <v>44221</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44223</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44223</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44236</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44239</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44242</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44243</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44244</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44249</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44249</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44252</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44258</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44266</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44267</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44272</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44274</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44278</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23607,7 +23607,7 @@
         <v>44284</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23664,7 +23664,7 @@
         <v>44294</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23721,7 +23721,7 @@
         <v>44308</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23778,7 +23778,7 @@
         <v>44309</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>44309</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>44314</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>44316</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24006,7 +24006,7 @@
         <v>44319</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
         <v>44319</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24120,7 +24120,7 @@
         <v>44322</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24177,7 +24177,7 @@
         <v>44323</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24234,7 +24234,7 @@
         <v>44326</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24291,7 +24291,7 @@
         <v>44334</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>44335</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>44337</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>44337</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>44354</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>44357</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>44357</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>44362</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>44375</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>44379</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>44379</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24938,7 +24938,7 @@
         <v>44379</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24995,7 +24995,7 @@
         <v>44379</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25052,7 +25052,7 @@
         <v>44379</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25109,7 +25109,7 @@
         <v>44382</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25166,7 +25166,7 @@
         <v>44392</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25223,7 +25223,7 @@
         <v>44411</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44411</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44416</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44418</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44419</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44419</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44425</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25627,7 +25627,7 @@
         <v>44425</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25684,7 +25684,7 @@
         <v>44425</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25741,7 +25741,7 @@
         <v>44433</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25798,7 +25798,7 @@
         <v>44433</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25855,7 +25855,7 @@
         <v>44434</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25917,7 +25917,7 @@
         <v>44435</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25974,7 +25974,7 @@
         <v>44439</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26031,7 +26031,7 @@
         <v>44445</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26088,7 +26088,7 @@
         <v>44446</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26145,7 +26145,7 @@
         <v>44446</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26202,7 +26202,7 @@
         <v>44447</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26259,7 +26259,7 @@
         <v>44452</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26321,7 +26321,7 @@
         <v>44454</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26378,7 +26378,7 @@
         <v>44456</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26435,7 +26435,7 @@
         <v>44460</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26492,7 +26492,7 @@
         <v>44462</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26554,7 +26554,7 @@
         <v>44463</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26611,7 +26611,7 @@
         <v>44463</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26668,7 +26668,7 @@
         <v>44465</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26725,7 +26725,7 @@
         <v>44469</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26782,7 +26782,7 @@
         <v>44469</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26839,7 +26839,7 @@
         <v>44481</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26896,7 +26896,7 @@
         <v>44483</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26953,7 +26953,7 @@
         <v>44483</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27010,7 +27010,7 @@
         <v>44484</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27067,7 +27067,7 @@
         <v>44484</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27124,7 +27124,7 @@
         <v>44484</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27181,7 +27181,7 @@
         <v>44486</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27238,7 +27238,7 @@
         <v>44497</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27295,7 +27295,7 @@
         <v>44500</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27352,7 +27352,7 @@
         <v>44501</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27409,7 +27409,7 @@
         <v>44502</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27466,7 +27466,7 @@
         <v>44505</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         <v>44517</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27580,7 +27580,7 @@
         <v>44525</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27637,7 +27637,7 @@
         <v>44560</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27694,7 +27694,7 @@
         <v>44575</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27751,7 +27751,7 @@
         <v>44578</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27808,7 +27808,7 @@
         <v>44585</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27865,7 +27865,7 @@
         <v>44587</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27922,7 +27922,7 @@
         <v>44587</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27979,7 +27979,7 @@
         <v>44587</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28036,7 +28036,7 @@
         <v>44589</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28093,7 +28093,7 @@
         <v>44594</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28150,7 +28150,7 @@
         <v>44599</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28207,7 +28207,7 @@
         <v>44600</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28264,7 +28264,7 @@
         <v>44627</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28321,7 +28321,7 @@
         <v>44644</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28378,7 +28378,7 @@
         <v>44645</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28435,7 +28435,7 @@
         <v>44657</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28492,7 +28492,7 @@
         <v>44677</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28549,7 +28549,7 @@
         <v>44677</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28606,7 +28606,7 @@
         <v>44687</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28663,7 +28663,7 @@
         <v>44697</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28720,7 +28720,7 @@
         <v>44699</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28777,7 +28777,7 @@
         <v>44701</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28834,7 +28834,7 @@
         <v>44720</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         <v>44729</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28948,7 +28948,7 @@
         <v>44732</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29005,7 +29005,7 @@
         <v>44742</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29062,7 +29062,7 @@
         <v>44776</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29119,7 +29119,7 @@
         <v>44782</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29176,7 +29176,7 @@
         <v>44795</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29233,7 +29233,7 @@
         <v>44799</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29290,7 +29290,7 @@
         <v>44801</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29347,7 +29347,7 @@
         <v>44802</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29404,7 +29404,7 @@
         <v>44805</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29461,7 +29461,7 @@
         <v>44820</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29518,7 +29518,7 @@
         <v>44826</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29575,7 +29575,7 @@
         <v>44830</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29632,7 +29632,7 @@
         <v>44837</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29689,7 +29689,7 @@
         <v>44846</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         <v>44851</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29803,7 +29803,7 @@
         <v>44851</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29860,7 +29860,7 @@
         <v>44852</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29917,7 +29917,7 @@
         <v>44852</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29974,7 +29974,7 @@
         <v>44854</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30031,7 +30031,7 @@
         <v>44860</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30088,7 +30088,7 @@
         <v>44861</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30145,7 +30145,7 @@
         <v>44865</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30207,7 +30207,7 @@
         <v>44868</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30264,7 +30264,7 @@
         <v>44868</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30321,7 +30321,7 @@
         <v>44873</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30378,7 +30378,7 @@
         <v>44874</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30435,7 +30435,7 @@
         <v>44882</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30492,7 +30492,7 @@
         <v>44882</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30549,7 +30549,7 @@
         <v>44882</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30606,7 +30606,7 @@
         <v>44882</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30663,7 +30663,7 @@
         <v>44882</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30720,7 +30720,7 @@
         <v>44886</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30777,7 +30777,7 @@
         <v>44886</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30834,7 +30834,7 @@
         <v>44886</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30891,7 +30891,7 @@
         <v>44890</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30953,7 +30953,7 @@
         <v>44907</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31010,7 +31010,7 @@
         <v>44918</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31067,7 +31067,7 @@
         <v>44918</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31124,7 +31124,7 @@
         <v>44935</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31181,7 +31181,7 @@
         <v>44937</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31238,7 +31238,7 @@
         <v>44937</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31295,7 +31295,7 @@
         <v>44937</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31352,7 +31352,7 @@
         <v>44949</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31409,7 +31409,7 @@
         <v>44951</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31466,7 +31466,7 @@
         <v>44952</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31523,7 +31523,7 @@
         <v>44952</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31580,7 +31580,7 @@
         <v>44952</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31637,7 +31637,7 @@
         <v>44952</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31694,7 +31694,7 @@
         <v>44952</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31751,7 +31751,7 @@
         <v>44952</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31808,7 +31808,7 @@
         <v>44952</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31865,7 +31865,7 @@
         <v>44953</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31922,7 +31922,7 @@
         <v>44953</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31979,7 +31979,7 @@
         <v>44956</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32036,7 +32036,7 @@
         <v>44956</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32093,7 +32093,7 @@
         <v>44958</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32150,7 +32150,7 @@
         <v>44960</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32207,7 +32207,7 @@
         <v>44963</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32264,7 +32264,7 @@
         <v>44963</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32321,7 +32321,7 @@
         <v>44963</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32378,7 +32378,7 @@
         <v>44964</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32435,7 +32435,7 @@
         <v>44967</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32492,7 +32492,7 @@
         <v>44970</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32549,7 +32549,7 @@
         <v>44972</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32606,7 +32606,7 @@
         <v>44974</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32668,7 +32668,7 @@
         <v>44974</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32730,7 +32730,7 @@
         <v>44977</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32787,7 +32787,7 @@
         <v>44977</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32844,7 +32844,7 @@
         <v>44978</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32901,7 +32901,7 @@
         <v>44978</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32958,7 +32958,7 @@
         <v>44981</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33015,7 +33015,7 @@
         <v>44981</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33072,7 +33072,7 @@
         <v>44982</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33129,7 +33129,7 @@
         <v>44985</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         <v>44988</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33243,7 +33243,7 @@
         <v>44992</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33300,7 +33300,7 @@
         <v>44992</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33357,7 +33357,7 @@
         <v>44992</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33414,7 +33414,7 @@
         <v>44992</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33471,7 +33471,7 @@
         <v>44993</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33528,7 +33528,7 @@
         <v>44998</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33585,7 +33585,7 @@
         <v>45000</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33642,7 +33642,7 @@
         <v>45000</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33699,7 +33699,7 @@
         <v>45000</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33756,7 +33756,7 @@
         <v>45000</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33813,7 +33813,7 @@
         <v>45000</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33870,7 +33870,7 @@
         <v>45000</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33927,7 +33927,7 @@
         <v>45000</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33984,7 +33984,7 @@
         <v>45000</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34041,7 +34041,7 @@
         <v>45005</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34098,7 +34098,7 @@
         <v>45005</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34155,7 +34155,7 @@
         <v>45007</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34212,7 +34212,7 @@
         <v>45007</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34269,7 +34269,7 @@
         <v>45008</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34326,7 +34326,7 @@
         <v>45008</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34383,7 +34383,7 @@
         <v>45009</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34440,7 +34440,7 @@
         <v>45009</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34497,7 +34497,7 @@
         <v>45022</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34554,7 +34554,7 @@
         <v>45029</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34611,7 +34611,7 @@
         <v>45030</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34668,7 +34668,7 @@
         <v>45030</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34725,7 +34725,7 @@
         <v>45030</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34782,7 +34782,7 @@
         <v>45030</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34839,7 +34839,7 @@
         <v>45035</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34896,7 +34896,7 @@
         <v>45036</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34953,7 +34953,7 @@
         <v>45036</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35010,7 +35010,7 @@
         <v>45037</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35067,7 +35067,7 @@
         <v>45042</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35124,7 +35124,7 @@
         <v>45048</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35181,7 +35181,7 @@
         <v>45049</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35238,7 +35238,7 @@
         <v>45056</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35295,7 +35295,7 @@
         <v>45062</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35352,7 +35352,7 @@
         <v>45062</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35409,7 +35409,7 @@
         <v>45062</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35466,7 +35466,7 @@
         <v>45071</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35523,7 +35523,7 @@
         <v>45071</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35580,7 +35580,7 @@
         <v>45071</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35637,7 +35637,7 @@
         <v>45071</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35694,7 +35694,7 @@
         <v>45076</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35751,7 +35751,7 @@
         <v>45077</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35808,7 +35808,7 @@
         <v>45078</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35865,7 +35865,7 @@
         <v>45078</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35922,7 +35922,7 @@
         <v>45078</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35979,7 +35979,7 @@
         <v>45078</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36036,7 +36036,7 @@
         <v>45078</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36093,7 +36093,7 @@
         <v>45078</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36150,7 +36150,7 @@
         <v>45078</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36212,7 +36212,7 @@
         <v>45078</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36274,7 +36274,7 @@
         <v>45078</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36331,7 +36331,7 @@
         <v>45078</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36388,7 +36388,7 @@
         <v>45082</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36445,7 +36445,7 @@
         <v>45082</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36502,7 +36502,7 @@
         <v>45082</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36559,7 +36559,7 @@
         <v>45082</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36616,7 +36616,7 @@
         <v>45082</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36673,7 +36673,7 @@
         <v>45084</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36730,7 +36730,7 @@
         <v>45085</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36787,7 +36787,7 @@
         <v>45089</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36844,7 +36844,7 @@
         <v>45089</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36901,7 +36901,7 @@
         <v>45093</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36958,7 +36958,7 @@
         <v>45093</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37015,7 +37015,7 @@
         <v>45096</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37072,7 +37072,7 @@
         <v>45096</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37129,7 +37129,7 @@
         <v>45097</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         <v>45097</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         <v>45098</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37300,7 +37300,7 @@
         <v>45098</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37357,7 +37357,7 @@
         <v>45098</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37414,7 +37414,7 @@
         <v>45098</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37471,7 +37471,7 @@
         <v>45105</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37528,7 +37528,7 @@
         <v>45110</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37585,7 +37585,7 @@
         <v>45111</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37642,7 +37642,7 @@
         <v>45111</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37699,7 +37699,7 @@
         <v>45111</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37756,7 +37756,7 @@
         <v>45114</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37813,7 +37813,7 @@
         <v>45116</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37870,7 +37870,7 @@
         <v>45120</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37927,7 +37927,7 @@
         <v>45122</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37984,7 +37984,7 @@
         <v>45128</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38041,7 +38041,7 @@
         <v>45134</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38098,7 +38098,7 @@
         <v>45139</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38155,7 +38155,7 @@
         <v>45139</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38212,7 +38212,7 @@
         <v>45141</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38269,7 +38269,7 @@
         <v>45145</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38326,7 +38326,7 @@
         <v>45145</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38383,7 +38383,7 @@
         <v>45148</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38440,7 +38440,7 @@
         <v>45152</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38497,7 +38497,7 @@
         <v>45153</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38554,7 +38554,7 @@
         <v>45159</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         <v>45160</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38668,7 +38668,7 @@
         <v>45160</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38730,7 +38730,7 @@
         <v>45161</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38787,7 +38787,7 @@
         <v>45162</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38849,7 +38849,7 @@
         <v>45163</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38906,7 +38906,7 @@
         <v>45163</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38953,7 +38953,7 @@
       </c>
       <c r="R645" s="2" t="inlineStr"/>
     </row>
-    <row r="646">
+    <row r="646" ht="15" customHeight="1">
       <c r="A646" t="inlineStr">
         <is>
           <t>A 39774-2023</t>
@@ -38963,7 +38963,7 @@
         <v>45167</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39009,6 +39009,63 @@
         <v>0</v>
       </c>
       <c r="R646" s="2" t="inlineStr"/>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>A 41231-2023</t>
+        </is>
+      </c>
+      <c r="B647" s="1" t="n">
+        <v>45174</v>
+      </c>
+      <c r="C647" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>KINDA</t>
+        </is>
+      </c>
+      <c r="G647" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H647" t="n">
+        <v>0</v>
+      </c>
+      <c r="I647" t="n">
+        <v>0</v>
+      </c>
+      <c r="J647" t="n">
+        <v>0</v>
+      </c>
+      <c r="K647" t="n">
+        <v>0</v>
+      </c>
+      <c r="L647" t="n">
+        <v>0</v>
+      </c>
+      <c r="M647" t="n">
+        <v>0</v>
+      </c>
+      <c r="N647" t="n">
+        <v>0</v>
+      </c>
+      <c r="O647" t="n">
+        <v>0</v>
+      </c>
+      <c r="P647" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q647" t="n">
+        <v>0</v>
+      </c>
+      <c r="R647" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KINDA.xlsx
+++ b/Översikt KINDA.xlsx
@@ -572,7 +572,7 @@
         <v>43345</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>44826</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44872</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         <v>44575</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44575</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>44939</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>44088</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44484</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>44974</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44958</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43315</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43987</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>44478</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>43353</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>43474</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43475</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>43523</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43524</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>43531</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43585</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43807</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43809</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43879</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43990</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>44092</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>44235</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>44342</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>44418</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>44419</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         <v>44435</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>44483</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>44636</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         <v>44642</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44690</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44706</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>44754</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>44801</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>44866</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>44960</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>44974</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>45049</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>45093</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>45093</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>45093</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43320</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43321</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43321</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43325</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43328</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43335</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43336</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43336</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43340</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43341</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43346</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43348</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43355</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43356</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>43356</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43357</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43368</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>43375</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43376</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>43383</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>43385</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>43388</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43395</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43395</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43402</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43402</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43402</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>43402</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>43402</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>43406</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>43411</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>43412</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43414</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43419</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43423</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43423</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         <v>43424</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43426</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43438</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43440</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>43441</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43441</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43441</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>43441</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43441</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43445</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>43445</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>43446</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43446</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43454</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43454</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43467</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43467</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43468</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43468</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>43473</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>43474</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>43475</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>43475</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43481</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43481</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>43482</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>43487</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>43487</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>43487</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>43488</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>43489</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>43493</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>43494</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>43496</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>43496</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>43501</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>43506</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>43508</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>43511</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>43514</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>43515</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>43517</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>43528</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43528</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>43530</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>43533</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>43542</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>43542</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>43543</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>43557</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>43558</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>43563</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>43563</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>43573</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>43578</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>43579</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>43579</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>43580</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>43584</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>43584</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>43588</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>43589</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>43593</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>43594</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>43595</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>43599</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>43600</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10600,7 +10600,7 @@
         <v>43602</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10657,7 +10657,7 @@
         <v>43608</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10714,7 +10714,7 @@
         <v>43612</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>43612</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>43619</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>43619</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>43621</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>43621</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>43626</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>43626</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>43634</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>43634</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>43636</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>43644</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>43647</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>43647</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>43649</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>43649</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43651</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>43657</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>43657</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11797,7 +11797,7 @@
         <v>43657</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         <v>43661</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11911,7 +11911,7 @@
         <v>43672</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11968,7 +11968,7 @@
         <v>43679</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43682</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>43683</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12139,7 +12139,7 @@
         <v>43685</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         <v>43689</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         <v>43689</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>43689</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>43691</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12424,7 +12424,7 @@
         <v>43696</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12481,7 +12481,7 @@
         <v>43696</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>43696</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>43698</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>43698</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>43698</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>43699</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         <v>43702</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12880,7 +12880,7 @@
         <v>43703</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
         <v>43705</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12994,7 +12994,7 @@
         <v>43706</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>43707</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>43707</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>43710</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13222,7 +13222,7 @@
         <v>43711</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>43712</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>43714</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43714</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43717</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43719</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43719</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43721</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>43725</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13745,7 +13745,7 @@
         <v>43727</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>43727</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>43727</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>43731</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>43735</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14030,7 +14030,7 @@
         <v>43740</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14087,7 +14087,7 @@
         <v>43742</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>43748</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         <v>43748</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>43756</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>43762</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>43762</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14429,7 +14429,7 @@
         <v>43765</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>43766</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>43767</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>43767</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>43767</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>43767</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>43773</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>43773</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14890,7 +14890,7 @@
         <v>43773</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14947,7 +14947,7 @@
         <v>43775</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         <v>43781</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>43782</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>43782</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>43787</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>43795</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>43795</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>43796</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15403,7 +15403,7 @@
         <v>43796</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15460,7 +15460,7 @@
         <v>43796</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
         <v>43803</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>43809</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15631,7 +15631,7 @@
         <v>43811</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15688,7 +15688,7 @@
         <v>43840</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>43843</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15802,7 +15802,7 @@
         <v>43850</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         <v>43852</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>43858</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>43858</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         <v>43858</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>43858</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>43860</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>43860</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>43860</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>43860</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>43865</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>43866</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>43868</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>43868</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>43868</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>43868</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>43871</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>43871</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>43871</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>43871</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>43879</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17024,7 +17024,7 @@
         <v>43882</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17081,7 +17081,7 @@
         <v>43885</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
         <v>43886</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>43892</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>43893</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>43893</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>43910</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17423,7 +17423,7 @@
         <v>43914</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17480,7 +17480,7 @@
         <v>43915</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17537,7 +17537,7 @@
         <v>43917</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17594,7 +17594,7 @@
         <v>43923</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17651,7 +17651,7 @@
         <v>43924</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17708,7 +17708,7 @@
         <v>43930</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>43936</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17827,7 +17827,7 @@
         <v>43936</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17889,7 +17889,7 @@
         <v>43937</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>43938</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>43941</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>43956</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18127,7 +18127,7 @@
         <v>43956</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18184,7 +18184,7 @@
         <v>43956</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18241,7 +18241,7 @@
         <v>43956</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>43956</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>43957</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>43957</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>43976</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>43977</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18593,7 +18593,7 @@
         <v>43977</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18650,7 +18650,7 @@
         <v>43980</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>43980</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>43980</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18821,7 +18821,7 @@
         <v>43990</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         <v>44000</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18945,7 +18945,7 @@
         <v>44007</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>44008</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>44011</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>44015</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>44026</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19240,7 +19240,7 @@
         <v>44029</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19297,7 +19297,7 @@
         <v>44034</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19354,7 +19354,7 @@
         <v>44039</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>44039</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         <v>44047</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44049</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44053</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44057</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44063</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44063</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44063</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44067</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44068</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44069</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44076</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44077</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>44078</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>44084</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>44084</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20333,7 +20333,7 @@
         <v>44088</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         <v>44089</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20457,7 +20457,7 @@
         <v>44090</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20514,7 +20514,7 @@
         <v>44092</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20571,7 +20571,7 @@
         <v>44095</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20628,7 +20628,7 @@
         <v>44099</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>44100</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20752,7 +20752,7 @@
         <v>44104</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
         <v>44105</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         <v>44112</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20923,7 +20923,7 @@
         <v>44112</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20980,7 +20980,7 @@
         <v>44112</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>44112</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>44112</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>44113</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>44120</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>44123</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         <v>44123</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21379,7 +21379,7 @@
         <v>44124</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
         <v>44125</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21493,7 +21493,7 @@
         <v>44130</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>44140</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21607,7 +21607,7 @@
         <v>44144</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         <v>44160</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>44161</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21778,7 +21778,7 @@
         <v>44164</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>44165</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21892,7 +21892,7 @@
         <v>44167</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
         <v>44168</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44168</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44171</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44171</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44187</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>44203</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>44203</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44203</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44207</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44215</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44216</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44218</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
         <v>44221</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44223</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44223</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44236</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44239</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44242</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44243</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44244</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44249</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44249</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44252</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44258</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44266</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44267</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44272</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44274</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44278</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23607,7 +23607,7 @@
         <v>44284</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23664,7 +23664,7 @@
         <v>44294</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23721,7 +23721,7 @@
         <v>44308</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23778,7 +23778,7 @@
         <v>44309</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>44309</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>44314</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>44316</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24006,7 +24006,7 @@
         <v>44319</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
         <v>44319</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24120,7 +24120,7 @@
         <v>44322</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24177,7 +24177,7 @@
         <v>44323</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24234,7 +24234,7 @@
         <v>44326</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24291,7 +24291,7 @@
         <v>44334</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>44335</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>44337</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>44337</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>44354</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>44357</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>44357</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>44362</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>44375</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>44379</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>44379</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24938,7 +24938,7 @@
         <v>44379</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24995,7 +24995,7 @@
         <v>44379</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25052,7 +25052,7 @@
         <v>44379</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25109,7 +25109,7 @@
         <v>44382</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25166,7 +25166,7 @@
         <v>44392</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25223,7 +25223,7 @@
         <v>44411</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44411</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44416</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44418</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44419</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44419</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44425</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25627,7 +25627,7 @@
         <v>44425</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25684,7 +25684,7 @@
         <v>44425</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25741,7 +25741,7 @@
         <v>44433</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25798,7 +25798,7 @@
         <v>44433</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25855,7 +25855,7 @@
         <v>44434</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25917,7 +25917,7 @@
         <v>44435</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25974,7 +25974,7 @@
         <v>44439</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26031,7 +26031,7 @@
         <v>44445</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26088,7 +26088,7 @@
         <v>44446</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26145,7 +26145,7 @@
         <v>44446</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26202,7 +26202,7 @@
         <v>44447</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26259,7 +26259,7 @@
         <v>44452</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26321,7 +26321,7 @@
         <v>44454</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26378,7 +26378,7 @@
         <v>44456</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26435,7 +26435,7 @@
         <v>44460</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26492,7 +26492,7 @@
         <v>44462</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26554,7 +26554,7 @@
         <v>44463</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26611,7 +26611,7 @@
         <v>44463</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26668,7 +26668,7 @@
         <v>44465</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26725,7 +26725,7 @@
         <v>44469</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26782,7 +26782,7 @@
         <v>44469</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26839,7 +26839,7 @@
         <v>44481</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26896,7 +26896,7 @@
         <v>44483</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26953,7 +26953,7 @@
         <v>44483</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27010,7 +27010,7 @@
         <v>44484</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27067,7 +27067,7 @@
         <v>44484</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27124,7 +27124,7 @@
         <v>44484</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27181,7 +27181,7 @@
         <v>44486</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27238,7 +27238,7 @@
         <v>44497</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27295,7 +27295,7 @@
         <v>44500</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27352,7 +27352,7 @@
         <v>44501</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27409,7 +27409,7 @@
         <v>44502</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27466,7 +27466,7 @@
         <v>44505</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         <v>44517</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27580,7 +27580,7 @@
         <v>44525</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27637,7 +27637,7 @@
         <v>44560</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27694,7 +27694,7 @@
         <v>44575</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27751,7 +27751,7 @@
         <v>44578</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27808,7 +27808,7 @@
         <v>44585</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27865,7 +27865,7 @@
         <v>44587</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27922,7 +27922,7 @@
         <v>44587</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27979,7 +27979,7 @@
         <v>44587</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28036,7 +28036,7 @@
         <v>44589</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28093,7 +28093,7 @@
         <v>44594</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28150,7 +28150,7 @@
         <v>44599</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28207,7 +28207,7 @@
         <v>44600</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28264,7 +28264,7 @@
         <v>44627</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28321,7 +28321,7 @@
         <v>44644</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28378,7 +28378,7 @@
         <v>44645</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28435,7 +28435,7 @@
         <v>44657</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28492,7 +28492,7 @@
         <v>44677</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28549,7 +28549,7 @@
         <v>44677</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28606,7 +28606,7 @@
         <v>44687</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28663,7 +28663,7 @@
         <v>44697</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28720,7 +28720,7 @@
         <v>44699</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28777,7 +28777,7 @@
         <v>44701</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28834,7 +28834,7 @@
         <v>44720</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         <v>44729</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28948,7 +28948,7 @@
         <v>44732</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29005,7 +29005,7 @@
         <v>44742</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29062,7 +29062,7 @@
         <v>44776</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29119,7 +29119,7 @@
         <v>44782</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29176,7 +29176,7 @@
         <v>44795</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29233,7 +29233,7 @@
         <v>44799</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29290,7 +29290,7 @@
         <v>44801</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29347,7 +29347,7 @@
         <v>44802</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29404,7 +29404,7 @@
         <v>44805</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29461,7 +29461,7 @@
         <v>44820</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29518,7 +29518,7 @@
         <v>44826</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29575,7 +29575,7 @@
         <v>44830</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29632,7 +29632,7 @@
         <v>44837</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29689,7 +29689,7 @@
         <v>44846</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         <v>44851</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29803,7 +29803,7 @@
         <v>44851</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29860,7 +29860,7 @@
         <v>44852</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29917,7 +29917,7 @@
         <v>44852</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29974,7 +29974,7 @@
         <v>44854</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30031,7 +30031,7 @@
         <v>44860</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30088,7 +30088,7 @@
         <v>44861</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30145,7 +30145,7 @@
         <v>44865</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30207,7 +30207,7 @@
         <v>44868</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30264,7 +30264,7 @@
         <v>44868</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30321,7 +30321,7 @@
         <v>44873</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30378,7 +30378,7 @@
         <v>44874</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30435,7 +30435,7 @@
         <v>44882</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30492,7 +30492,7 @@
         <v>44882</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30549,7 +30549,7 @@
         <v>44882</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30606,7 +30606,7 @@
         <v>44882</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30663,7 +30663,7 @@
         <v>44882</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30720,7 +30720,7 @@
         <v>44886</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30777,7 +30777,7 @@
         <v>44886</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30834,7 +30834,7 @@
         <v>44886</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30891,7 +30891,7 @@
         <v>44890</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30953,7 +30953,7 @@
         <v>44907</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31010,7 +31010,7 @@
         <v>44918</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31067,7 +31067,7 @@
         <v>44918</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31124,7 +31124,7 @@
         <v>44935</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31181,7 +31181,7 @@
         <v>44937</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31238,7 +31238,7 @@
         <v>44937</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31295,7 +31295,7 @@
         <v>44937</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31352,7 +31352,7 @@
         <v>44949</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31409,7 +31409,7 @@
         <v>44951</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31466,7 +31466,7 @@
         <v>44952</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31523,7 +31523,7 @@
         <v>44952</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31580,7 +31580,7 @@
         <v>44952</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31637,7 +31637,7 @@
         <v>44952</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31694,7 +31694,7 @@
         <v>44952</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31751,7 +31751,7 @@
         <v>44952</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31808,7 +31808,7 @@
         <v>44952</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31865,7 +31865,7 @@
         <v>44953</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31922,7 +31922,7 @@
         <v>44953</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31979,7 +31979,7 @@
         <v>44956</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32036,7 +32036,7 @@
         <v>44956</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32093,7 +32093,7 @@
         <v>44958</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32150,7 +32150,7 @@
         <v>44960</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32207,7 +32207,7 @@
         <v>44963</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32264,7 +32264,7 @@
         <v>44963</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32321,7 +32321,7 @@
         <v>44963</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32378,7 +32378,7 @@
         <v>44964</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32435,7 +32435,7 @@
         <v>44967</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32492,7 +32492,7 @@
         <v>44970</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32549,7 +32549,7 @@
         <v>44972</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32606,7 +32606,7 @@
         <v>44974</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32668,7 +32668,7 @@
         <v>44974</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32730,7 +32730,7 @@
         <v>44977</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32787,7 +32787,7 @@
         <v>44977</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32844,7 +32844,7 @@
         <v>44978</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32901,7 +32901,7 @@
         <v>44978</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32958,7 +32958,7 @@
         <v>44981</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33015,7 +33015,7 @@
         <v>44981</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33072,7 +33072,7 @@
         <v>44982</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33129,7 +33129,7 @@
         <v>44985</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         <v>44988</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33243,7 +33243,7 @@
         <v>44992</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33300,7 +33300,7 @@
         <v>44992</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33357,7 +33357,7 @@
         <v>44992</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33414,7 +33414,7 @@
         <v>44992</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33471,7 +33471,7 @@
         <v>44993</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33528,7 +33528,7 @@
         <v>44998</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33585,7 +33585,7 @@
         <v>45000</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33642,7 +33642,7 @@
         <v>45000</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33699,7 +33699,7 @@
         <v>45000</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33756,7 +33756,7 @@
         <v>45000</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33813,7 +33813,7 @@
         <v>45000</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33870,7 +33870,7 @@
         <v>45000</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33927,7 +33927,7 @@
         <v>45000</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33984,7 +33984,7 @@
         <v>45000</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34041,7 +34041,7 @@
         <v>45005</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34098,7 +34098,7 @@
         <v>45005</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34155,7 +34155,7 @@
         <v>45007</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34212,7 +34212,7 @@
         <v>45007</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34269,7 +34269,7 @@
         <v>45008</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34326,7 +34326,7 @@
         <v>45008</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34383,7 +34383,7 @@
         <v>45009</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34440,7 +34440,7 @@
         <v>45009</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34497,7 +34497,7 @@
         <v>45022</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34554,7 +34554,7 @@
         <v>45029</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34611,7 +34611,7 @@
         <v>45030</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34668,7 +34668,7 @@
         <v>45030</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34725,7 +34725,7 @@
         <v>45030</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34782,7 +34782,7 @@
         <v>45030</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34839,7 +34839,7 @@
         <v>45035</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34896,7 +34896,7 @@
         <v>45036</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34953,7 +34953,7 @@
         <v>45036</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35010,7 +35010,7 @@
         <v>45037</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35067,7 +35067,7 @@
         <v>45042</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35124,7 +35124,7 @@
         <v>45048</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35181,7 +35181,7 @@
         <v>45049</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35238,7 +35238,7 @@
         <v>45056</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35295,7 +35295,7 @@
         <v>45062</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35352,7 +35352,7 @@
         <v>45062</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35409,7 +35409,7 @@
         <v>45062</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35466,7 +35466,7 @@
         <v>45071</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35523,7 +35523,7 @@
         <v>45071</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35580,7 +35580,7 @@
         <v>45071</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35637,7 +35637,7 @@
         <v>45071</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35694,7 +35694,7 @@
         <v>45076</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35751,7 +35751,7 @@
         <v>45077</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35808,7 +35808,7 @@
         <v>45078</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35865,7 +35865,7 @@
         <v>45078</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35922,7 +35922,7 @@
         <v>45078</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35979,7 +35979,7 @@
         <v>45078</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36036,7 +36036,7 @@
         <v>45078</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36093,7 +36093,7 @@
         <v>45078</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36150,7 +36150,7 @@
         <v>45078</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36212,7 +36212,7 @@
         <v>45078</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36274,7 +36274,7 @@
         <v>45078</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36331,7 +36331,7 @@
         <v>45078</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36388,7 +36388,7 @@
         <v>45082</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36445,7 +36445,7 @@
         <v>45082</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36502,7 +36502,7 @@
         <v>45082</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36559,7 +36559,7 @@
         <v>45082</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36616,7 +36616,7 @@
         <v>45082</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36673,7 +36673,7 @@
         <v>45084</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36730,7 +36730,7 @@
         <v>45085</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36787,7 +36787,7 @@
         <v>45089</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36844,7 +36844,7 @@
         <v>45089</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36901,7 +36901,7 @@
         <v>45093</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36958,7 +36958,7 @@
         <v>45093</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37015,7 +37015,7 @@
         <v>45096</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37072,7 +37072,7 @@
         <v>45096</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37129,7 +37129,7 @@
         <v>45097</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         <v>45097</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         <v>45098</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37300,7 +37300,7 @@
         <v>45098</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37357,7 +37357,7 @@
         <v>45098</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37414,7 +37414,7 @@
         <v>45098</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37471,7 +37471,7 @@
         <v>45105</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37528,7 +37528,7 @@
         <v>45110</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37585,7 +37585,7 @@
         <v>45111</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37642,7 +37642,7 @@
         <v>45111</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37699,7 +37699,7 @@
         <v>45111</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37756,7 +37756,7 @@
         <v>45114</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37813,7 +37813,7 @@
         <v>45116</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37870,7 +37870,7 @@
         <v>45120</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37927,7 +37927,7 @@
         <v>45122</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37984,7 +37984,7 @@
         <v>45128</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38041,7 +38041,7 @@
         <v>45134</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38098,7 +38098,7 @@
         <v>45139</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38155,7 +38155,7 @@
         <v>45139</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38212,7 +38212,7 @@
         <v>45141</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38269,7 +38269,7 @@
         <v>45145</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38326,7 +38326,7 @@
         <v>45145</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38383,7 +38383,7 @@
         <v>45148</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38440,7 +38440,7 @@
         <v>45152</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38497,7 +38497,7 @@
         <v>45153</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38554,7 +38554,7 @@
         <v>45159</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         <v>45160</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38668,7 +38668,7 @@
         <v>45160</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38730,7 +38730,7 @@
         <v>45161</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38787,7 +38787,7 @@
         <v>45162</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38849,7 +38849,7 @@
         <v>45163</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38906,7 +38906,7 @@
         <v>45163</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38963,7 +38963,7 @@
         <v>45167</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39020,7 +39020,7 @@
         <v>45174</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>

--- a/Översikt KINDA.xlsx
+++ b/Översikt KINDA.xlsx
@@ -572,7 +572,7 @@
         <v>43345</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>44826</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44872</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         <v>44575</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44575</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>44939</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>44088</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44484</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>44974</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44958</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43315</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43987</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>44478</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>43353</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>43474</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43475</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>43523</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43524</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>43531</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43585</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43807</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43809</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43879</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43990</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>44092</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>44235</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>44342</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>44418</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>44419</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         <v>44435</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>44483</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>44636</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         <v>44642</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44690</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44706</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>44754</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>44801</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>44866</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>44960</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>44974</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>45049</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>45093</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>45093</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>45093</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43320</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43321</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43321</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43325</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43328</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43335</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43336</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43336</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43340</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43341</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43346</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43348</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43355</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43356</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>43356</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43357</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43368</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>43375</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43376</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>43383</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>43385</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>43388</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43395</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43395</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43402</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43402</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43402</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>43402</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>43402</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>43406</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>43411</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>43412</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43414</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43419</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43423</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43423</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         <v>43424</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43426</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43438</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43440</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>43441</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43441</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43441</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>43441</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43441</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43445</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>43445</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>43446</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43446</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43454</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43454</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43467</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43467</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43468</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43468</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>43473</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>43474</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>43475</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>43475</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43481</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43481</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>43482</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>43487</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>43487</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>43487</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>43488</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>43489</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>43493</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>43494</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>43496</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>43496</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>43501</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>43506</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>43508</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>43511</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>43514</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>43515</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>43517</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>43528</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43528</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>43530</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>43533</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>43542</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>43542</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>43543</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>43557</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>43558</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>43563</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>43563</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>43573</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>43578</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>43579</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>43579</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>43580</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>43584</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>43584</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>43588</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>43589</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>43593</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>43594</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>43595</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>43599</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>43600</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10600,7 +10600,7 @@
         <v>43602</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10657,7 +10657,7 @@
         <v>43608</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10714,7 +10714,7 @@
         <v>43612</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>43612</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>43619</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>43619</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>43621</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>43621</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>43626</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>43626</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>43634</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>43634</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>43636</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>43644</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>43647</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>43647</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>43649</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>43649</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43651</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>43657</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>43657</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11797,7 +11797,7 @@
         <v>43657</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         <v>43661</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11911,7 +11911,7 @@
         <v>43672</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11968,7 +11968,7 @@
         <v>43679</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43682</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>43683</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12139,7 +12139,7 @@
         <v>43685</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         <v>43689</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         <v>43689</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>43689</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>43691</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12424,7 +12424,7 @@
         <v>43696</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12481,7 +12481,7 @@
         <v>43696</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>43696</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>43698</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>43698</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>43698</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>43699</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         <v>43702</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12880,7 +12880,7 @@
         <v>43703</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
         <v>43705</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12994,7 +12994,7 @@
         <v>43706</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>43707</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>43707</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>43710</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13222,7 +13222,7 @@
         <v>43711</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>43712</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>43714</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43714</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43717</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43719</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43719</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43721</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>43725</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13745,7 +13745,7 @@
         <v>43727</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>43727</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>43727</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>43731</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>43735</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14030,7 +14030,7 @@
         <v>43740</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14087,7 +14087,7 @@
         <v>43742</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>43748</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         <v>43748</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>43756</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>43762</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>43762</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14429,7 +14429,7 @@
         <v>43765</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>43766</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>43767</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>43767</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>43767</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>43767</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>43773</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>43773</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14890,7 +14890,7 @@
         <v>43773</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14947,7 +14947,7 @@
         <v>43775</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         <v>43781</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>43782</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>43782</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>43787</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>43795</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>43795</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>43796</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15403,7 +15403,7 @@
         <v>43796</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15460,7 +15460,7 @@
         <v>43796</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
         <v>43803</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>43809</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15631,7 +15631,7 @@
         <v>43811</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15688,7 +15688,7 @@
         <v>43840</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>43843</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15802,7 +15802,7 @@
         <v>43850</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         <v>43852</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>43858</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>43858</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         <v>43858</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>43858</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>43860</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>43860</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>43860</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>43860</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>43865</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>43866</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>43868</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>43868</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>43868</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>43868</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>43871</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>43871</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>43871</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>43871</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>43879</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17024,7 +17024,7 @@
         <v>43882</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17081,7 +17081,7 @@
         <v>43885</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
         <v>43886</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>43892</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>43893</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>43893</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>43910</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17423,7 +17423,7 @@
         <v>43914</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17480,7 +17480,7 @@
         <v>43915</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17537,7 +17537,7 @@
         <v>43917</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17594,7 +17594,7 @@
         <v>43923</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17651,7 +17651,7 @@
         <v>43924</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17708,7 +17708,7 @@
         <v>43930</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>43936</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17827,7 +17827,7 @@
         <v>43936</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17889,7 +17889,7 @@
         <v>43937</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>43938</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>43941</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>43956</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18127,7 +18127,7 @@
         <v>43956</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18184,7 +18184,7 @@
         <v>43956</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18241,7 +18241,7 @@
         <v>43956</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>43956</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>43957</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>43957</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>43976</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>43977</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18593,7 +18593,7 @@
         <v>43977</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18650,7 +18650,7 @@
         <v>43980</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>43980</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>43980</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18821,7 +18821,7 @@
         <v>43990</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         <v>44000</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18945,7 +18945,7 @@
         <v>44007</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>44008</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>44011</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>44015</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>44026</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19240,7 +19240,7 @@
         <v>44029</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19297,7 +19297,7 @@
         <v>44034</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19354,7 +19354,7 @@
         <v>44039</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>44039</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         <v>44047</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44049</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44053</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44057</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44063</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44063</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44063</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44067</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44068</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44069</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44076</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44077</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>44078</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>44084</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>44084</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20333,7 +20333,7 @@
         <v>44088</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         <v>44089</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20457,7 +20457,7 @@
         <v>44090</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20514,7 +20514,7 @@
         <v>44092</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20571,7 +20571,7 @@
         <v>44095</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20628,7 +20628,7 @@
         <v>44099</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>44100</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20752,7 +20752,7 @@
         <v>44104</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
         <v>44105</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         <v>44112</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20923,7 +20923,7 @@
         <v>44112</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20980,7 +20980,7 @@
         <v>44112</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>44112</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>44112</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>44113</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>44120</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>44123</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         <v>44123</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21379,7 +21379,7 @@
         <v>44124</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
         <v>44125</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21493,7 +21493,7 @@
         <v>44130</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>44140</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21607,7 +21607,7 @@
         <v>44144</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         <v>44160</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>44161</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21778,7 +21778,7 @@
         <v>44164</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>44165</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21892,7 +21892,7 @@
         <v>44167</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
         <v>44168</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44168</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44171</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44171</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44187</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>44203</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>44203</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44203</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44207</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44215</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44216</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44218</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
         <v>44221</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44223</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44223</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44236</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44239</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44242</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44243</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44244</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44249</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44249</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44252</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44258</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44266</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44267</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44272</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44274</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44278</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23607,7 +23607,7 @@
         <v>44284</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23664,7 +23664,7 @@
         <v>44294</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23721,7 +23721,7 @@
         <v>44308</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23778,7 +23778,7 @@
         <v>44309</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>44309</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>44314</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>44316</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24006,7 +24006,7 @@
         <v>44319</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
         <v>44319</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24120,7 +24120,7 @@
         <v>44322</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24177,7 +24177,7 @@
         <v>44323</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24234,7 +24234,7 @@
         <v>44326</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24291,7 +24291,7 @@
         <v>44334</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>44335</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>44337</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>44337</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>44354</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>44357</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>44357</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>44362</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>44375</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>44379</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>44379</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24938,7 +24938,7 @@
         <v>44379</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24995,7 +24995,7 @@
         <v>44379</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25052,7 +25052,7 @@
         <v>44379</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25109,7 +25109,7 @@
         <v>44382</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25166,7 +25166,7 @@
         <v>44392</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25223,7 +25223,7 @@
         <v>44411</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44411</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44416</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44418</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44419</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44419</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44425</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25627,7 +25627,7 @@
         <v>44425</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25684,7 +25684,7 @@
         <v>44425</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25741,7 +25741,7 @@
         <v>44433</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25798,7 +25798,7 @@
         <v>44433</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25855,7 +25855,7 @@
         <v>44434</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25917,7 +25917,7 @@
         <v>44435</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25974,7 +25974,7 @@
         <v>44439</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26031,7 +26031,7 @@
         <v>44445</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26088,7 +26088,7 @@
         <v>44446</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26145,7 +26145,7 @@
         <v>44446</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26202,7 +26202,7 @@
         <v>44447</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26259,7 +26259,7 @@
         <v>44452</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26321,7 +26321,7 @@
         <v>44454</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26378,7 +26378,7 @@
         <v>44456</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26435,7 +26435,7 @@
         <v>44460</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26492,7 +26492,7 @@
         <v>44462</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26554,7 +26554,7 @@
         <v>44463</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26611,7 +26611,7 @@
         <v>44463</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26668,7 +26668,7 @@
         <v>44465</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26725,7 +26725,7 @@
         <v>44469</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26782,7 +26782,7 @@
         <v>44469</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26839,7 +26839,7 @@
         <v>44481</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26896,7 +26896,7 @@
         <v>44483</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26953,7 +26953,7 @@
         <v>44483</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27010,7 +27010,7 @@
         <v>44484</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27067,7 +27067,7 @@
         <v>44484</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27124,7 +27124,7 @@
         <v>44484</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27181,7 +27181,7 @@
         <v>44486</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27238,7 +27238,7 @@
         <v>44497</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27295,7 +27295,7 @@
         <v>44500</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27352,7 +27352,7 @@
         <v>44501</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27409,7 +27409,7 @@
         <v>44502</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27466,7 +27466,7 @@
         <v>44505</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         <v>44517</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27580,7 +27580,7 @@
         <v>44525</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27637,7 +27637,7 @@
         <v>44560</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27694,7 +27694,7 @@
         <v>44575</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27751,7 +27751,7 @@
         <v>44578</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27808,7 +27808,7 @@
         <v>44585</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27865,7 +27865,7 @@
         <v>44587</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27922,7 +27922,7 @@
         <v>44587</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27979,7 +27979,7 @@
         <v>44587</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28036,7 +28036,7 @@
         <v>44589</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28093,7 +28093,7 @@
         <v>44594</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28150,7 +28150,7 @@
         <v>44599</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28207,7 +28207,7 @@
         <v>44600</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28264,7 +28264,7 @@
         <v>44627</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28321,7 +28321,7 @@
         <v>44644</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28378,7 +28378,7 @@
         <v>44645</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28435,7 +28435,7 @@
         <v>44657</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28492,7 +28492,7 @@
         <v>44677</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28549,7 +28549,7 @@
         <v>44677</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28606,7 +28606,7 @@
         <v>44687</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28663,7 +28663,7 @@
         <v>44697</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28720,7 +28720,7 @@
         <v>44699</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28777,7 +28777,7 @@
         <v>44701</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28834,7 +28834,7 @@
         <v>44720</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         <v>44729</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28948,7 +28948,7 @@
         <v>44732</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29005,7 +29005,7 @@
         <v>44742</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29062,7 +29062,7 @@
         <v>44776</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29119,7 +29119,7 @@
         <v>44782</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29176,7 +29176,7 @@
         <v>44795</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29233,7 +29233,7 @@
         <v>44799</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29290,7 +29290,7 @@
         <v>44801</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29347,7 +29347,7 @@
         <v>44802</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29404,7 +29404,7 @@
         <v>44805</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29461,7 +29461,7 @@
         <v>44820</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29518,7 +29518,7 @@
         <v>44826</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29575,7 +29575,7 @@
         <v>44830</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29632,7 +29632,7 @@
         <v>44837</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29689,7 +29689,7 @@
         <v>44846</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         <v>44851</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29803,7 +29803,7 @@
         <v>44851</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29860,7 +29860,7 @@
         <v>44852</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29917,7 +29917,7 @@
         <v>44852</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29974,7 +29974,7 @@
         <v>44854</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30031,7 +30031,7 @@
         <v>44860</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30088,7 +30088,7 @@
         <v>44861</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30145,7 +30145,7 @@
         <v>44865</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30207,7 +30207,7 @@
         <v>44868</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30264,7 +30264,7 @@
         <v>44868</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30321,7 +30321,7 @@
         <v>44873</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30378,7 +30378,7 @@
         <v>44874</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30435,7 +30435,7 @@
         <v>44882</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30492,7 +30492,7 @@
         <v>44882</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30549,7 +30549,7 @@
         <v>44882</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30606,7 +30606,7 @@
         <v>44882</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30663,7 +30663,7 @@
         <v>44882</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30720,7 +30720,7 @@
         <v>44886</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30777,7 +30777,7 @@
         <v>44886</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30834,7 +30834,7 @@
         <v>44886</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30891,7 +30891,7 @@
         <v>44890</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30953,7 +30953,7 @@
         <v>44907</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31010,7 +31010,7 @@
         <v>44918</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31067,7 +31067,7 @@
         <v>44918</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31124,7 +31124,7 @@
         <v>44935</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31181,7 +31181,7 @@
         <v>44937</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31238,7 +31238,7 @@
         <v>44937</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31295,7 +31295,7 @@
         <v>44937</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31352,7 +31352,7 @@
         <v>44949</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31409,7 +31409,7 @@
         <v>44951</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31466,7 +31466,7 @@
         <v>44952</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31523,7 +31523,7 @@
         <v>44952</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31580,7 +31580,7 @@
         <v>44952</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31637,7 +31637,7 @@
         <v>44952</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31694,7 +31694,7 @@
         <v>44952</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31751,7 +31751,7 @@
         <v>44952</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31808,7 +31808,7 @@
         <v>44952</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31865,7 +31865,7 @@
         <v>44953</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31922,7 +31922,7 @@
         <v>44953</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31979,7 +31979,7 @@
         <v>44956</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32036,7 +32036,7 @@
         <v>44956</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32093,7 +32093,7 @@
         <v>44958</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32150,7 +32150,7 @@
         <v>44960</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32207,7 +32207,7 @@
         <v>44963</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32264,7 +32264,7 @@
         <v>44963</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32321,7 +32321,7 @@
         <v>44963</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32378,7 +32378,7 @@
         <v>44964</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32435,7 +32435,7 @@
         <v>44967</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32492,7 +32492,7 @@
         <v>44970</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32549,7 +32549,7 @@
         <v>44972</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32606,7 +32606,7 @@
         <v>44974</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32668,7 +32668,7 @@
         <v>44974</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32730,7 +32730,7 @@
         <v>44977</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32787,7 +32787,7 @@
         <v>44977</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32844,7 +32844,7 @@
         <v>44978</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32901,7 +32901,7 @@
         <v>44978</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32958,7 +32958,7 @@
         <v>44981</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33015,7 +33015,7 @@
         <v>44981</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33072,7 +33072,7 @@
         <v>44982</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33129,7 +33129,7 @@
         <v>44985</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         <v>44988</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33243,7 +33243,7 @@
         <v>44992</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33300,7 +33300,7 @@
         <v>44992</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33357,7 +33357,7 @@
         <v>44992</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33414,7 +33414,7 @@
         <v>44992</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33471,7 +33471,7 @@
         <v>44993</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33528,7 +33528,7 @@
         <v>44998</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33585,7 +33585,7 @@
         <v>45000</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33642,7 +33642,7 @@
         <v>45000</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33699,7 +33699,7 @@
         <v>45000</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33756,7 +33756,7 @@
         <v>45000</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33813,7 +33813,7 @@
         <v>45000</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33870,7 +33870,7 @@
         <v>45000</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33927,7 +33927,7 @@
         <v>45000</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33984,7 +33984,7 @@
         <v>45000</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34041,7 +34041,7 @@
         <v>45005</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34098,7 +34098,7 @@
         <v>45005</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34155,7 +34155,7 @@
         <v>45007</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34212,7 +34212,7 @@
         <v>45007</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34269,7 +34269,7 @@
         <v>45008</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34326,7 +34326,7 @@
         <v>45008</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34383,7 +34383,7 @@
         <v>45009</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34440,7 +34440,7 @@
         <v>45009</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34497,7 +34497,7 @@
         <v>45022</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34554,7 +34554,7 @@
         <v>45029</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34611,7 +34611,7 @@
         <v>45030</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34668,7 +34668,7 @@
         <v>45030</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34725,7 +34725,7 @@
         <v>45030</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34782,7 +34782,7 @@
         <v>45030</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34839,7 +34839,7 @@
         <v>45035</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34896,7 +34896,7 @@
         <v>45036</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34953,7 +34953,7 @@
         <v>45036</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35010,7 +35010,7 @@
         <v>45037</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35067,7 +35067,7 @@
         <v>45042</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35124,7 +35124,7 @@
         <v>45048</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35181,7 +35181,7 @@
         <v>45049</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35238,7 +35238,7 @@
         <v>45056</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35295,7 +35295,7 @@
         <v>45062</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35352,7 +35352,7 @@
         <v>45062</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35409,7 +35409,7 @@
         <v>45062</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35466,7 +35466,7 @@
         <v>45071</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35523,7 +35523,7 @@
         <v>45071</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35580,7 +35580,7 @@
         <v>45071</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35637,7 +35637,7 @@
         <v>45071</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35694,7 +35694,7 @@
         <v>45076</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35751,7 +35751,7 @@
         <v>45077</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35808,7 +35808,7 @@
         <v>45078</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35865,7 +35865,7 @@
         <v>45078</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35922,7 +35922,7 @@
         <v>45078</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35979,7 +35979,7 @@
         <v>45078</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36036,7 +36036,7 @@
         <v>45078</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36093,7 +36093,7 @@
         <v>45078</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36150,7 +36150,7 @@
         <v>45078</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36212,7 +36212,7 @@
         <v>45078</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36274,7 +36274,7 @@
         <v>45078</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36331,7 +36331,7 @@
         <v>45078</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36388,7 +36388,7 @@
         <v>45082</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36445,7 +36445,7 @@
         <v>45082</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36502,7 +36502,7 @@
         <v>45082</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36559,7 +36559,7 @@
         <v>45082</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36616,7 +36616,7 @@
         <v>45082</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36673,7 +36673,7 @@
         <v>45084</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36730,7 +36730,7 @@
         <v>45085</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36787,7 +36787,7 @@
         <v>45089</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36844,7 +36844,7 @@
         <v>45089</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36901,7 +36901,7 @@
         <v>45093</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36958,7 +36958,7 @@
         <v>45093</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37015,7 +37015,7 @@
         <v>45096</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37072,7 +37072,7 @@
         <v>45096</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37129,7 +37129,7 @@
         <v>45097</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         <v>45097</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         <v>45098</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37300,7 +37300,7 @@
         <v>45098</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37357,7 +37357,7 @@
         <v>45098</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37414,7 +37414,7 @@
         <v>45098</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37471,7 +37471,7 @@
         <v>45105</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37528,7 +37528,7 @@
         <v>45110</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37585,7 +37585,7 @@
         <v>45111</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37642,7 +37642,7 @@
         <v>45111</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37699,7 +37699,7 @@
         <v>45111</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37756,7 +37756,7 @@
         <v>45114</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37813,7 +37813,7 @@
         <v>45116</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37870,7 +37870,7 @@
         <v>45120</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37927,7 +37927,7 @@
         <v>45122</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37984,7 +37984,7 @@
         <v>45128</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38041,7 +38041,7 @@
         <v>45134</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38098,7 +38098,7 @@
         <v>45139</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38155,7 +38155,7 @@
         <v>45139</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38212,7 +38212,7 @@
         <v>45141</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38269,7 +38269,7 @@
         <v>45145</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38326,7 +38326,7 @@
         <v>45145</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38383,7 +38383,7 @@
         <v>45148</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38440,7 +38440,7 @@
         <v>45152</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38497,7 +38497,7 @@
         <v>45153</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38554,7 +38554,7 @@
         <v>45159</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         <v>45160</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38668,7 +38668,7 @@
         <v>45160</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38730,7 +38730,7 @@
         <v>45161</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38787,7 +38787,7 @@
         <v>45162</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38849,7 +38849,7 @@
         <v>45163</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38906,7 +38906,7 @@
         <v>45163</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38963,7 +38963,7 @@
         <v>45167</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39020,7 +39020,7 @@
         <v>45174</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>

--- a/Översikt KINDA.xlsx
+++ b/Översikt KINDA.xlsx
@@ -572,7 +572,7 @@
         <v>43345</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>44826</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44872</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         <v>44575</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44575</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>44939</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>44088</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44484</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>44974</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44958</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43315</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43987</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>44478</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>43353</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>43474</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43475</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>43523</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43524</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>43531</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43585</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43807</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43809</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43879</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43990</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>44092</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>44235</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>44342</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>44418</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>44419</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         <v>44435</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>44483</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>44636</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         <v>44642</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44690</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44706</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>44754</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>44801</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>44866</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>44960</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>44974</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>45049</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>45093</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>45093</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>45093</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43320</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43321</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43321</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43325</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43328</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43335</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43336</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43336</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43340</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43341</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43346</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43348</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43355</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43356</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>43356</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43357</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43368</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>43375</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43376</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>43383</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>43385</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>43388</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43395</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43395</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43402</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43402</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43402</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>43402</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>43402</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>43406</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>43411</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>43412</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43414</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43419</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43423</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43423</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         <v>43424</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43426</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43438</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43440</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>43441</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43441</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43441</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>43441</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43441</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43445</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>43445</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>43446</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43446</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43454</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43454</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43467</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43467</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43468</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43468</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>43473</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>43474</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>43475</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>43475</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43481</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43481</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>43482</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>43487</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>43487</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>43487</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>43488</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>43489</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>43493</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>43494</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>43496</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>43496</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>43501</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>43506</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>43508</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>43511</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>43514</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>43515</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>43517</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>43528</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43528</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>43530</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>43533</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>43542</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>43542</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>43543</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>43557</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>43558</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>43563</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>43563</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>43573</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>43578</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>43579</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>43579</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>43580</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>43584</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>43584</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>43588</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>43589</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>43593</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>43594</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>43595</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>43599</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>43600</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10600,7 +10600,7 @@
         <v>43602</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10657,7 +10657,7 @@
         <v>43608</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10714,7 +10714,7 @@
         <v>43612</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>43612</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>43619</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>43619</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>43621</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>43621</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>43626</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>43626</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>43634</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>43634</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>43636</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>43644</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>43647</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>43647</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>43649</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>43649</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43651</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>43657</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>43657</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11797,7 +11797,7 @@
         <v>43657</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         <v>43661</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11911,7 +11911,7 @@
         <v>43672</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11968,7 +11968,7 @@
         <v>43679</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43682</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>43683</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12139,7 +12139,7 @@
         <v>43685</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         <v>43689</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         <v>43689</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>43689</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>43691</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12424,7 +12424,7 @@
         <v>43696</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12481,7 +12481,7 @@
         <v>43696</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>43696</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>43698</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>43698</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>43698</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>43699</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         <v>43702</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12880,7 +12880,7 @@
         <v>43703</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
         <v>43705</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12994,7 +12994,7 @@
         <v>43706</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>43707</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>43707</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>43710</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13222,7 +13222,7 @@
         <v>43711</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>43712</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>43714</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43714</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43717</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43719</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43719</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43721</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>43725</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13745,7 +13745,7 @@
         <v>43727</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>43727</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>43727</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>43731</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>43735</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14030,7 +14030,7 @@
         <v>43740</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14087,7 +14087,7 @@
         <v>43742</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>43748</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         <v>43748</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>43756</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>43762</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>43762</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14429,7 +14429,7 @@
         <v>43765</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>43766</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>43767</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>43767</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>43767</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>43767</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>43773</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>43773</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14890,7 +14890,7 @@
         <v>43773</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14947,7 +14947,7 @@
         <v>43775</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         <v>43781</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>43782</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>43782</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>43787</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>43795</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>43795</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>43796</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15403,7 +15403,7 @@
         <v>43796</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15460,7 +15460,7 @@
         <v>43796</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
         <v>43803</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>43809</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15631,7 +15631,7 @@
         <v>43811</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15688,7 +15688,7 @@
         <v>43840</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>43843</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15802,7 +15802,7 @@
         <v>43850</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         <v>43852</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>43858</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>43858</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         <v>43858</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>43858</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>43860</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>43860</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>43860</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>43860</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>43865</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>43866</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>43868</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>43868</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>43868</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>43868</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>43871</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>43871</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>43871</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>43871</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>43879</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17024,7 +17024,7 @@
         <v>43882</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17081,7 +17081,7 @@
         <v>43885</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
         <v>43886</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>43892</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>43893</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>43893</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>43910</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17423,7 +17423,7 @@
         <v>43914</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17480,7 +17480,7 @@
         <v>43915</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17537,7 +17537,7 @@
         <v>43917</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17594,7 +17594,7 @@
         <v>43923</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17651,7 +17651,7 @@
         <v>43924</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17708,7 +17708,7 @@
         <v>43930</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>43936</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17827,7 +17827,7 @@
         <v>43936</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17889,7 +17889,7 @@
         <v>43937</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>43938</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>43941</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>43956</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18127,7 +18127,7 @@
         <v>43956</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18184,7 +18184,7 @@
         <v>43956</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18241,7 +18241,7 @@
         <v>43956</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>43956</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>43957</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>43957</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>43976</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>43977</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18593,7 +18593,7 @@
         <v>43977</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18650,7 +18650,7 @@
         <v>43980</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>43980</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>43980</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18821,7 +18821,7 @@
         <v>43990</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         <v>44000</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18945,7 +18945,7 @@
         <v>44007</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>44008</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>44011</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>44015</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>44026</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19240,7 +19240,7 @@
         <v>44029</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19297,7 +19297,7 @@
         <v>44034</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19354,7 +19354,7 @@
         <v>44039</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>44039</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         <v>44047</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44049</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44053</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44057</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44063</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44063</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44063</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44067</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44068</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44069</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44076</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44077</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>44078</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>44084</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>44084</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20333,7 +20333,7 @@
         <v>44088</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         <v>44089</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20457,7 +20457,7 @@
         <v>44090</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20514,7 +20514,7 @@
         <v>44092</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20571,7 +20571,7 @@
         <v>44095</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20628,7 +20628,7 @@
         <v>44099</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>44100</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20752,7 +20752,7 @@
         <v>44104</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
         <v>44105</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         <v>44112</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20923,7 +20923,7 @@
         <v>44112</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20980,7 +20980,7 @@
         <v>44112</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>44112</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>44112</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>44113</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>44120</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>44123</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         <v>44123</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21379,7 +21379,7 @@
         <v>44124</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
         <v>44125</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21493,7 +21493,7 @@
         <v>44130</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>44140</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21607,7 +21607,7 @@
         <v>44144</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         <v>44160</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>44161</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21778,7 +21778,7 @@
         <v>44164</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>44165</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21892,7 +21892,7 @@
         <v>44167</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
         <v>44168</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44168</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44171</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44171</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44187</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>44203</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>44203</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44203</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44207</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44215</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44216</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44218</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
         <v>44221</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44223</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44223</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44236</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44239</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44242</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44243</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44244</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44249</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44249</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44252</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44258</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44266</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44267</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44272</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44274</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44278</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23607,7 +23607,7 @@
         <v>44284</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23664,7 +23664,7 @@
         <v>44294</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23721,7 +23721,7 @@
         <v>44308</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23778,7 +23778,7 @@
         <v>44309</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>44309</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>44314</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>44316</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24006,7 +24006,7 @@
         <v>44319</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
         <v>44319</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24120,7 +24120,7 @@
         <v>44322</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24177,7 +24177,7 @@
         <v>44323</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24234,7 +24234,7 @@
         <v>44326</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24291,7 +24291,7 @@
         <v>44334</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>44335</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>44337</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>44337</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>44354</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>44357</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>44357</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>44362</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>44375</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>44379</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>44379</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24938,7 +24938,7 @@
         <v>44379</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24995,7 +24995,7 @@
         <v>44379</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25052,7 +25052,7 @@
         <v>44379</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25109,7 +25109,7 @@
         <v>44382</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25166,7 +25166,7 @@
         <v>44392</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25223,7 +25223,7 @@
         <v>44411</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44411</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44416</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44418</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44419</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44419</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44425</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25627,7 +25627,7 @@
         <v>44425</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25684,7 +25684,7 @@
         <v>44425</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25741,7 +25741,7 @@
         <v>44433</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25798,7 +25798,7 @@
         <v>44433</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25855,7 +25855,7 @@
         <v>44434</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25917,7 +25917,7 @@
         <v>44435</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25974,7 +25974,7 @@
         <v>44439</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26031,7 +26031,7 @@
         <v>44445</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26088,7 +26088,7 @@
         <v>44446</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26145,7 +26145,7 @@
         <v>44446</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26202,7 +26202,7 @@
         <v>44447</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26259,7 +26259,7 @@
         <v>44452</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26321,7 +26321,7 @@
         <v>44454</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26378,7 +26378,7 @@
         <v>44456</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26435,7 +26435,7 @@
         <v>44460</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26492,7 +26492,7 @@
         <v>44462</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26554,7 +26554,7 @@
         <v>44463</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26611,7 +26611,7 @@
         <v>44463</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26668,7 +26668,7 @@
         <v>44465</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26725,7 +26725,7 @@
         <v>44469</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26782,7 +26782,7 @@
         <v>44469</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26839,7 +26839,7 @@
         <v>44481</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26896,7 +26896,7 @@
         <v>44483</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26953,7 +26953,7 @@
         <v>44483</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27010,7 +27010,7 @@
         <v>44484</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27067,7 +27067,7 @@
         <v>44484</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27124,7 +27124,7 @@
         <v>44484</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27181,7 +27181,7 @@
         <v>44486</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27238,7 +27238,7 @@
         <v>44497</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27295,7 +27295,7 @@
         <v>44500</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27352,7 +27352,7 @@
         <v>44501</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27409,7 +27409,7 @@
         <v>44502</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27466,7 +27466,7 @@
         <v>44505</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         <v>44517</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27580,7 +27580,7 @@
         <v>44525</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27637,7 +27637,7 @@
         <v>44560</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27694,7 +27694,7 @@
         <v>44575</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27751,7 +27751,7 @@
         <v>44578</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27808,7 +27808,7 @@
         <v>44585</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27865,7 +27865,7 @@
         <v>44587</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27922,7 +27922,7 @@
         <v>44587</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27979,7 +27979,7 @@
         <v>44587</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28036,7 +28036,7 @@
         <v>44589</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28093,7 +28093,7 @@
         <v>44594</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28150,7 +28150,7 @@
         <v>44599</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28207,7 +28207,7 @@
         <v>44600</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28264,7 +28264,7 @@
         <v>44627</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28321,7 +28321,7 @@
         <v>44644</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28378,7 +28378,7 @@
         <v>44645</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28435,7 +28435,7 @@
         <v>44657</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28492,7 +28492,7 @@
         <v>44677</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28549,7 +28549,7 @@
         <v>44677</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28606,7 +28606,7 @@
         <v>44687</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28663,7 +28663,7 @@
         <v>44697</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28720,7 +28720,7 @@
         <v>44699</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28777,7 +28777,7 @@
         <v>44701</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28834,7 +28834,7 @@
         <v>44720</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         <v>44729</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28948,7 +28948,7 @@
         <v>44732</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29005,7 +29005,7 @@
         <v>44742</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29062,7 +29062,7 @@
         <v>44776</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29119,7 +29119,7 @@
         <v>44782</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29176,7 +29176,7 @@
         <v>44795</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29233,7 +29233,7 @@
         <v>44799</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29290,7 +29290,7 @@
         <v>44801</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29347,7 +29347,7 @@
         <v>44802</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29404,7 +29404,7 @@
         <v>44805</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29461,7 +29461,7 @@
         <v>44820</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29518,7 +29518,7 @@
         <v>44826</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29575,7 +29575,7 @@
         <v>44830</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29632,7 +29632,7 @@
         <v>44837</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29689,7 +29689,7 @@
         <v>44846</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         <v>44851</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29803,7 +29803,7 @@
         <v>44851</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29860,7 +29860,7 @@
         <v>44852</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29917,7 +29917,7 @@
         <v>44852</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29974,7 +29974,7 @@
         <v>44854</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30031,7 +30031,7 @@
         <v>44860</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30088,7 +30088,7 @@
         <v>44861</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30145,7 +30145,7 @@
         <v>44865</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30207,7 +30207,7 @@
         <v>44868</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30264,7 +30264,7 @@
         <v>44868</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30321,7 +30321,7 @@
         <v>44873</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30378,7 +30378,7 @@
         <v>44874</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30435,7 +30435,7 @@
         <v>44882</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30492,7 +30492,7 @@
         <v>44882</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30549,7 +30549,7 @@
         <v>44882</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30606,7 +30606,7 @@
         <v>44882</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30663,7 +30663,7 @@
         <v>44882</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30720,7 +30720,7 @@
         <v>44886</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30777,7 +30777,7 @@
         <v>44886</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30834,7 +30834,7 @@
         <v>44886</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30891,7 +30891,7 @@
         <v>44890</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30953,7 +30953,7 @@
         <v>44907</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31010,7 +31010,7 @@
         <v>44918</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31067,7 +31067,7 @@
         <v>44918</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31124,7 +31124,7 @@
         <v>44935</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31181,7 +31181,7 @@
         <v>44937</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31238,7 +31238,7 @@
         <v>44937</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31295,7 +31295,7 @@
         <v>44937</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31352,7 +31352,7 @@
         <v>44949</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31409,7 +31409,7 @@
         <v>44951</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31466,7 +31466,7 @@
         <v>44952</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31523,7 +31523,7 @@
         <v>44952</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31580,7 +31580,7 @@
         <v>44952</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31637,7 +31637,7 @@
         <v>44952</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31694,7 +31694,7 @@
         <v>44952</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31751,7 +31751,7 @@
         <v>44952</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31808,7 +31808,7 @@
         <v>44952</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31865,7 +31865,7 @@
         <v>44953</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31922,7 +31922,7 @@
         <v>44953</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31979,7 +31979,7 @@
         <v>44956</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32036,7 +32036,7 @@
         <v>44956</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32093,7 +32093,7 @@
         <v>44958</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32150,7 +32150,7 @@
         <v>44960</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32207,7 +32207,7 @@
         <v>44963</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32264,7 +32264,7 @@
         <v>44963</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32321,7 +32321,7 @@
         <v>44963</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32378,7 +32378,7 @@
         <v>44964</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32435,7 +32435,7 @@
         <v>44967</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32492,7 +32492,7 @@
         <v>44970</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32549,7 +32549,7 @@
         <v>44972</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32606,7 +32606,7 @@
         <v>44974</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32668,7 +32668,7 @@
         <v>44974</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32730,7 +32730,7 @@
         <v>44977</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32787,7 +32787,7 @@
         <v>44977</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32844,7 +32844,7 @@
         <v>44978</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32901,7 +32901,7 @@
         <v>44978</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32958,7 +32958,7 @@
         <v>44981</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33015,7 +33015,7 @@
         <v>44981</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33072,7 +33072,7 @@
         <v>44982</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33129,7 +33129,7 @@
         <v>44985</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         <v>44988</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33243,7 +33243,7 @@
         <v>44992</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33300,7 +33300,7 @@
         <v>44992</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33357,7 +33357,7 @@
         <v>44992</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33414,7 +33414,7 @@
         <v>44992</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33471,7 +33471,7 @@
         <v>44993</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33528,7 +33528,7 @@
         <v>44998</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33585,7 +33585,7 @@
         <v>45000</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33642,7 +33642,7 @@
         <v>45000</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33699,7 +33699,7 @@
         <v>45000</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33756,7 +33756,7 @@
         <v>45000</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33813,7 +33813,7 @@
         <v>45000</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33870,7 +33870,7 @@
         <v>45000</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33927,7 +33927,7 @@
         <v>45000</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33984,7 +33984,7 @@
         <v>45000</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34041,7 +34041,7 @@
         <v>45005</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34098,7 +34098,7 @@
         <v>45005</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34155,7 +34155,7 @@
         <v>45007</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34212,7 +34212,7 @@
         <v>45007</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34269,7 +34269,7 @@
         <v>45008</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34326,7 +34326,7 @@
         <v>45008</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34383,7 +34383,7 @@
         <v>45009</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34440,7 +34440,7 @@
         <v>45009</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34497,7 +34497,7 @@
         <v>45022</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34554,7 +34554,7 @@
         <v>45029</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34611,7 +34611,7 @@
         <v>45030</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34668,7 +34668,7 @@
         <v>45030</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34725,7 +34725,7 @@
         <v>45030</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34782,7 +34782,7 @@
         <v>45030</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34839,7 +34839,7 @@
         <v>45035</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34896,7 +34896,7 @@
         <v>45036</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34953,7 +34953,7 @@
         <v>45036</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35010,7 +35010,7 @@
         <v>45037</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35067,7 +35067,7 @@
         <v>45042</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35124,7 +35124,7 @@
         <v>45048</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35181,7 +35181,7 @@
         <v>45049</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35238,7 +35238,7 @@
         <v>45056</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35295,7 +35295,7 @@
         <v>45062</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35352,7 +35352,7 @@
         <v>45062</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35409,7 +35409,7 @@
         <v>45062</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35466,7 +35466,7 @@
         <v>45071</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35523,7 +35523,7 @@
         <v>45071</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35580,7 +35580,7 @@
         <v>45071</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35637,7 +35637,7 @@
         <v>45071</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35694,7 +35694,7 @@
         <v>45076</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35751,7 +35751,7 @@
         <v>45077</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35808,7 +35808,7 @@
         <v>45078</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35865,7 +35865,7 @@
         <v>45078</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35922,7 +35922,7 @@
         <v>45078</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35979,7 +35979,7 @@
         <v>45078</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36036,7 +36036,7 @@
         <v>45078</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36093,7 +36093,7 @@
         <v>45078</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36150,7 +36150,7 @@
         <v>45078</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36212,7 +36212,7 @@
         <v>45078</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36274,7 +36274,7 @@
         <v>45078</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36331,7 +36331,7 @@
         <v>45078</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36388,7 +36388,7 @@
         <v>45082</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36445,7 +36445,7 @@
         <v>45082</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36502,7 +36502,7 @@
         <v>45082</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36559,7 +36559,7 @@
         <v>45082</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36616,7 +36616,7 @@
         <v>45082</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36673,7 +36673,7 @@
         <v>45084</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36730,7 +36730,7 @@
         <v>45085</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36787,7 +36787,7 @@
         <v>45089</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36844,7 +36844,7 @@
         <v>45089</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36901,7 +36901,7 @@
         <v>45093</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36958,7 +36958,7 @@
         <v>45093</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37015,7 +37015,7 @@
         <v>45096</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37072,7 +37072,7 @@
         <v>45096</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37129,7 +37129,7 @@
         <v>45097</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         <v>45097</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         <v>45098</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37300,7 +37300,7 @@
         <v>45098</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37357,7 +37357,7 @@
         <v>45098</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37414,7 +37414,7 @@
         <v>45098</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37471,7 +37471,7 @@
         <v>45105</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37528,7 +37528,7 @@
         <v>45110</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37585,7 +37585,7 @@
         <v>45111</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37642,7 +37642,7 @@
         <v>45111</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37699,7 +37699,7 @@
         <v>45111</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37756,7 +37756,7 @@
         <v>45114</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37813,7 +37813,7 @@
         <v>45116</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37870,7 +37870,7 @@
         <v>45120</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37927,7 +37927,7 @@
         <v>45122</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37984,7 +37984,7 @@
         <v>45128</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38041,7 +38041,7 @@
         <v>45134</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38098,7 +38098,7 @@
         <v>45139</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38155,7 +38155,7 @@
         <v>45139</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38212,7 +38212,7 @@
         <v>45141</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38269,7 +38269,7 @@
         <v>45145</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38326,7 +38326,7 @@
         <v>45145</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38383,7 +38383,7 @@
         <v>45148</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38440,7 +38440,7 @@
         <v>45152</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38497,7 +38497,7 @@
         <v>45153</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38554,7 +38554,7 @@
         <v>45159</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         <v>45160</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38668,7 +38668,7 @@
         <v>45160</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38730,7 +38730,7 @@
         <v>45161</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38787,7 +38787,7 @@
         <v>45162</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38849,7 +38849,7 @@
         <v>45163</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38906,7 +38906,7 @@
         <v>45163</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38963,7 +38963,7 @@
         <v>45167</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39020,7 +39020,7 @@
         <v>45174</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>

--- a/Översikt KINDA.xlsx
+++ b/Översikt KINDA.xlsx
@@ -572,7 +572,7 @@
         <v>43345</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>44826</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44872</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         <v>44575</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44575</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>44939</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>44088</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44484</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>44974</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44958</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43315</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43987</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>44478</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>43353</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>43474</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43475</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>43523</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43524</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>43531</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43585</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43807</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43809</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43879</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43990</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>44092</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>44235</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>44342</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>44418</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>44419</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         <v>44435</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>44483</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>44636</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         <v>44642</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44690</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44706</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>44754</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>44801</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>44866</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>44960</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>44974</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>45049</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>45093</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>45093</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>45093</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43320</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43321</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43321</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43325</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43328</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43335</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43336</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43336</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43340</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43341</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43346</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43348</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43355</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43356</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>43356</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43357</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43368</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>43375</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43376</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>43383</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>43385</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>43388</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43395</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43395</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43402</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43402</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43402</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>43402</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>43402</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>43406</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>43411</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>43412</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43414</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43419</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43423</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43423</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         <v>43424</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43426</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43438</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43440</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>43441</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43441</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43441</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>43441</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43441</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43445</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>43445</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>43446</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43446</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43454</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43454</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43467</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43467</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43468</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43468</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>43473</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>43474</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>43475</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>43475</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43481</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43481</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>43482</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>43487</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>43487</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>43487</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>43488</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>43489</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>43493</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>43494</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>43496</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>43496</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>43501</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>43506</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>43508</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>43511</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>43514</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>43515</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>43517</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>43528</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43528</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>43530</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>43533</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>43542</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>43542</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>43543</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>43557</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>43558</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>43563</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>43563</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>43573</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>43578</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>43579</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>43579</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>43580</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>43584</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>43584</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>43588</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>43589</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>43593</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>43594</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>43595</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>43599</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>43600</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10600,7 +10600,7 @@
         <v>43602</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10657,7 +10657,7 @@
         <v>43608</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10714,7 +10714,7 @@
         <v>43612</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>43612</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>43619</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>43619</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>43621</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>43621</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>43626</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>43626</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>43634</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>43634</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>43636</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>43644</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>43647</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>43647</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>43649</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>43649</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43651</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>43657</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>43657</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11797,7 +11797,7 @@
         <v>43657</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         <v>43661</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11911,7 +11911,7 @@
         <v>43672</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11968,7 +11968,7 @@
         <v>43679</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43682</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>43683</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12139,7 +12139,7 @@
         <v>43685</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         <v>43689</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         <v>43689</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>43689</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>43691</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12424,7 +12424,7 @@
         <v>43696</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12481,7 +12481,7 @@
         <v>43696</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>43696</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>43698</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>43698</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>43698</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>43699</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         <v>43702</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12880,7 +12880,7 @@
         <v>43703</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
         <v>43705</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12994,7 +12994,7 @@
         <v>43706</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>43707</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>43707</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>43710</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13222,7 +13222,7 @@
         <v>43711</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>43712</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>43714</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43714</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43717</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43719</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43719</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43721</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>43725</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13745,7 +13745,7 @@
         <v>43727</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>43727</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>43727</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>43731</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>43735</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14030,7 +14030,7 @@
         <v>43740</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14087,7 +14087,7 @@
         <v>43742</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>43748</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         <v>43748</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>43756</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>43762</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>43762</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14429,7 +14429,7 @@
         <v>43765</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>43766</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>43767</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>43767</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>43767</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>43767</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>43773</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>43773</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14890,7 +14890,7 @@
         <v>43773</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14947,7 +14947,7 @@
         <v>43775</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         <v>43781</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>43782</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>43782</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>43787</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>43795</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>43795</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>43796</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15403,7 +15403,7 @@
         <v>43796</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15460,7 +15460,7 @@
         <v>43796</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
         <v>43803</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>43809</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15631,7 +15631,7 @@
         <v>43811</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15688,7 +15688,7 @@
         <v>43840</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>43843</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15802,7 +15802,7 @@
         <v>43850</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         <v>43852</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>43858</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>43858</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         <v>43858</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>43858</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>43860</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>43860</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>43860</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>43860</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>43865</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>43866</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>43868</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>43868</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>43868</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>43868</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>43871</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>43871</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>43871</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>43871</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>43879</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17024,7 +17024,7 @@
         <v>43882</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17081,7 +17081,7 @@
         <v>43885</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
         <v>43886</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>43892</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>43893</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>43893</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>43910</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17423,7 +17423,7 @@
         <v>43914</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17480,7 +17480,7 @@
         <v>43915</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17537,7 +17537,7 @@
         <v>43917</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17594,7 +17594,7 @@
         <v>43923</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17651,7 +17651,7 @@
         <v>43924</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17708,7 +17708,7 @@
         <v>43930</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>43936</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17827,7 +17827,7 @@
         <v>43936</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17889,7 +17889,7 @@
         <v>43937</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>43938</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>43941</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>43956</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18127,7 +18127,7 @@
         <v>43956</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18184,7 +18184,7 @@
         <v>43956</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18241,7 +18241,7 @@
         <v>43956</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>43956</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>43957</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>43957</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>43976</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>43977</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18593,7 +18593,7 @@
         <v>43977</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18650,7 +18650,7 @@
         <v>43980</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>43980</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>43980</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18821,7 +18821,7 @@
         <v>43990</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         <v>44000</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18945,7 +18945,7 @@
         <v>44007</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>44008</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>44011</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>44015</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>44026</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19240,7 +19240,7 @@
         <v>44029</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19297,7 +19297,7 @@
         <v>44034</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19354,7 +19354,7 @@
         <v>44039</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>44039</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         <v>44047</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44049</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44053</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44057</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44063</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44063</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44063</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44067</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44068</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44069</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44076</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44077</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>44078</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>44084</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>44084</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20333,7 +20333,7 @@
         <v>44088</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         <v>44089</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20457,7 +20457,7 @@
         <v>44090</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20514,7 +20514,7 @@
         <v>44092</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20571,7 +20571,7 @@
         <v>44095</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20628,7 +20628,7 @@
         <v>44099</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>44100</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20752,7 +20752,7 @@
         <v>44104</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
         <v>44105</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         <v>44112</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20923,7 +20923,7 @@
         <v>44112</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20980,7 +20980,7 @@
         <v>44112</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>44112</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>44112</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>44113</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>44120</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>44123</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         <v>44123</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21379,7 +21379,7 @@
         <v>44124</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
         <v>44125</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21493,7 +21493,7 @@
         <v>44130</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>44140</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21607,7 +21607,7 @@
         <v>44144</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         <v>44160</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>44161</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21778,7 +21778,7 @@
         <v>44164</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>44165</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21892,7 +21892,7 @@
         <v>44167</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
         <v>44168</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44168</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44171</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44171</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44187</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>44203</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>44203</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44203</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44207</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44215</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44216</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44218</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
         <v>44221</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44223</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44223</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44236</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44239</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44242</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44243</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44244</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44249</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44249</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44252</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44258</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44266</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44267</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44272</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44274</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44278</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23607,7 +23607,7 @@
         <v>44284</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23664,7 +23664,7 @@
         <v>44294</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23721,7 +23721,7 @@
         <v>44308</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23778,7 +23778,7 @@
         <v>44309</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>44309</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>44314</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>44316</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24006,7 +24006,7 @@
         <v>44319</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
         <v>44319</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24120,7 +24120,7 @@
         <v>44322</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24177,7 +24177,7 @@
         <v>44323</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24234,7 +24234,7 @@
         <v>44326</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24291,7 +24291,7 @@
         <v>44334</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>44335</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>44337</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>44337</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>44354</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>44357</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>44357</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>44362</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>44375</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>44379</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>44379</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24938,7 +24938,7 @@
         <v>44379</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24995,7 +24995,7 @@
         <v>44379</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25052,7 +25052,7 @@
         <v>44379</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25109,7 +25109,7 @@
         <v>44382</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25166,7 +25166,7 @@
         <v>44392</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25223,7 +25223,7 @@
         <v>44411</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44411</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44416</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44418</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44419</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44419</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44425</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25627,7 +25627,7 @@
         <v>44425</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25684,7 +25684,7 @@
         <v>44425</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25741,7 +25741,7 @@
         <v>44433</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25798,7 +25798,7 @@
         <v>44433</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25855,7 +25855,7 @@
         <v>44434</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25917,7 +25917,7 @@
         <v>44435</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25974,7 +25974,7 @@
         <v>44439</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26031,7 +26031,7 @@
         <v>44445</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26088,7 +26088,7 @@
         <v>44446</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26145,7 +26145,7 @@
         <v>44446</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26202,7 +26202,7 @@
         <v>44447</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26259,7 +26259,7 @@
         <v>44452</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26321,7 +26321,7 @@
         <v>44454</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26378,7 +26378,7 @@
         <v>44456</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26435,7 +26435,7 @@
         <v>44460</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26492,7 +26492,7 @@
         <v>44462</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26554,7 +26554,7 @@
         <v>44463</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26611,7 +26611,7 @@
         <v>44463</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26668,7 +26668,7 @@
         <v>44465</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26725,7 +26725,7 @@
         <v>44469</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26782,7 +26782,7 @@
         <v>44469</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26839,7 +26839,7 @@
         <v>44481</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26896,7 +26896,7 @@
         <v>44483</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26953,7 +26953,7 @@
         <v>44483</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27010,7 +27010,7 @@
         <v>44484</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27067,7 +27067,7 @@
         <v>44484</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27124,7 +27124,7 @@
         <v>44484</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27181,7 +27181,7 @@
         <v>44486</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27238,7 +27238,7 @@
         <v>44497</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27295,7 +27295,7 @@
         <v>44500</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27352,7 +27352,7 @@
         <v>44501</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27409,7 +27409,7 @@
         <v>44502</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27466,7 +27466,7 @@
         <v>44505</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         <v>44517</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27580,7 +27580,7 @@
         <v>44525</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27637,7 +27637,7 @@
         <v>44560</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27694,7 +27694,7 @@
         <v>44575</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27751,7 +27751,7 @@
         <v>44578</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27808,7 +27808,7 @@
         <v>44585</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27865,7 +27865,7 @@
         <v>44587</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27922,7 +27922,7 @@
         <v>44587</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27979,7 +27979,7 @@
         <v>44587</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28036,7 +28036,7 @@
         <v>44589</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28093,7 +28093,7 @@
         <v>44594</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28150,7 +28150,7 @@
         <v>44599</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28207,7 +28207,7 @@
         <v>44600</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28264,7 +28264,7 @@
         <v>44627</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28321,7 +28321,7 @@
         <v>44644</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28378,7 +28378,7 @@
         <v>44645</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28435,7 +28435,7 @@
         <v>44657</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28492,7 +28492,7 @@
         <v>44677</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28549,7 +28549,7 @@
         <v>44677</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28606,7 +28606,7 @@
         <v>44687</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28663,7 +28663,7 @@
         <v>44697</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28720,7 +28720,7 @@
         <v>44699</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28777,7 +28777,7 @@
         <v>44701</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28834,7 +28834,7 @@
         <v>44720</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         <v>44729</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28948,7 +28948,7 @@
         <v>44732</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29005,7 +29005,7 @@
         <v>44742</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29062,7 +29062,7 @@
         <v>44776</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29119,7 +29119,7 @@
         <v>44782</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29176,7 +29176,7 @@
         <v>44795</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29233,7 +29233,7 @@
         <v>44799</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29290,7 +29290,7 @@
         <v>44801</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29347,7 +29347,7 @@
         <v>44802</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29404,7 +29404,7 @@
         <v>44805</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29461,7 +29461,7 @@
         <v>44820</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29518,7 +29518,7 @@
         <v>44826</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29575,7 +29575,7 @@
         <v>44830</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29632,7 +29632,7 @@
         <v>44837</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29689,7 +29689,7 @@
         <v>44846</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         <v>44851</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29803,7 +29803,7 @@
         <v>44851</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29860,7 +29860,7 @@
         <v>44852</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29917,7 +29917,7 @@
         <v>44852</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29974,7 +29974,7 @@
         <v>44854</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30031,7 +30031,7 @@
         <v>44860</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30088,7 +30088,7 @@
         <v>44861</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30145,7 +30145,7 @@
         <v>44865</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30207,7 +30207,7 @@
         <v>44868</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30264,7 +30264,7 @@
         <v>44868</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30321,7 +30321,7 @@
         <v>44873</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30378,7 +30378,7 @@
         <v>44874</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30435,7 +30435,7 @@
         <v>44882</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30492,7 +30492,7 @@
         <v>44882</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30549,7 +30549,7 @@
         <v>44882</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30606,7 +30606,7 @@
         <v>44882</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30663,7 +30663,7 @@
         <v>44882</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30720,7 +30720,7 @@
         <v>44886</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30777,7 +30777,7 @@
         <v>44886</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30834,7 +30834,7 @@
         <v>44886</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30891,7 +30891,7 @@
         <v>44890</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30953,7 +30953,7 @@
         <v>44907</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31010,7 +31010,7 @@
         <v>44918</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31067,7 +31067,7 @@
         <v>44918</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31124,7 +31124,7 @@
         <v>44935</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31181,7 +31181,7 @@
         <v>44937</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31238,7 +31238,7 @@
         <v>44937</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31295,7 +31295,7 @@
         <v>44937</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31352,7 +31352,7 @@
         <v>44949</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31409,7 +31409,7 @@
         <v>44951</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31466,7 +31466,7 @@
         <v>44952</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31523,7 +31523,7 @@
         <v>44952</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31580,7 +31580,7 @@
         <v>44952</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31637,7 +31637,7 @@
         <v>44952</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31694,7 +31694,7 @@
         <v>44952</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31751,7 +31751,7 @@
         <v>44952</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31808,7 +31808,7 @@
         <v>44952</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31865,7 +31865,7 @@
         <v>44953</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31922,7 +31922,7 @@
         <v>44953</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31979,7 +31979,7 @@
         <v>44956</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32036,7 +32036,7 @@
         <v>44956</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32093,7 +32093,7 @@
         <v>44958</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32150,7 +32150,7 @@
         <v>44960</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32207,7 +32207,7 @@
         <v>44963</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32264,7 +32264,7 @@
         <v>44963</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32321,7 +32321,7 @@
         <v>44963</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32378,7 +32378,7 @@
         <v>44964</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32435,7 +32435,7 @@
         <v>44967</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32492,7 +32492,7 @@
         <v>44970</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32549,7 +32549,7 @@
         <v>44972</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32606,7 +32606,7 @@
         <v>44974</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32668,7 +32668,7 @@
         <v>44974</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32730,7 +32730,7 @@
         <v>44977</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32787,7 +32787,7 @@
         <v>44977</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32844,7 +32844,7 @@
         <v>44978</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32901,7 +32901,7 @@
         <v>44978</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32958,7 +32958,7 @@
         <v>44981</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33015,7 +33015,7 @@
         <v>44981</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33072,7 +33072,7 @@
         <v>44982</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33129,7 +33129,7 @@
         <v>44985</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         <v>44988</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33243,7 +33243,7 @@
         <v>44992</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33300,7 +33300,7 @@
         <v>44992</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33357,7 +33357,7 @@
         <v>44992</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33414,7 +33414,7 @@
         <v>44992</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33471,7 +33471,7 @@
         <v>44993</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33528,7 +33528,7 @@
         <v>44998</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33585,7 +33585,7 @@
         <v>45000</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33642,7 +33642,7 @@
         <v>45000</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33699,7 +33699,7 @@
         <v>45000</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33756,7 +33756,7 @@
         <v>45000</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33813,7 +33813,7 @@
         <v>45000</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33870,7 +33870,7 @@
         <v>45000</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33927,7 +33927,7 @@
         <v>45000</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33984,7 +33984,7 @@
         <v>45000</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34041,7 +34041,7 @@
         <v>45005</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34098,7 +34098,7 @@
         <v>45005</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34155,7 +34155,7 @@
         <v>45007</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34212,7 +34212,7 @@
         <v>45007</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34269,7 +34269,7 @@
         <v>45008</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34326,7 +34326,7 @@
         <v>45008</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34383,7 +34383,7 @@
         <v>45009</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34440,7 +34440,7 @@
         <v>45009</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34497,7 +34497,7 @@
         <v>45022</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34554,7 +34554,7 @@
         <v>45029</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34611,7 +34611,7 @@
         <v>45030</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34668,7 +34668,7 @@
         <v>45030</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34725,7 +34725,7 @@
         <v>45030</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34782,7 +34782,7 @@
         <v>45030</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34839,7 +34839,7 @@
         <v>45035</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34896,7 +34896,7 @@
         <v>45036</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34953,7 +34953,7 @@
         <v>45036</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35010,7 +35010,7 @@
         <v>45037</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35067,7 +35067,7 @@
         <v>45042</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35124,7 +35124,7 @@
         <v>45048</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35181,7 +35181,7 @@
         <v>45049</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35238,7 +35238,7 @@
         <v>45056</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35295,7 +35295,7 @@
         <v>45062</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35352,7 +35352,7 @@
         <v>45062</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35409,7 +35409,7 @@
         <v>45062</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35466,7 +35466,7 @@
         <v>45071</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35523,7 +35523,7 @@
         <v>45071</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35580,7 +35580,7 @@
         <v>45071</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35637,7 +35637,7 @@
         <v>45071</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35694,7 +35694,7 @@
         <v>45076</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35751,7 +35751,7 @@
         <v>45077</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35808,7 +35808,7 @@
         <v>45078</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35865,7 +35865,7 @@
         <v>45078</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35922,7 +35922,7 @@
         <v>45078</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35979,7 +35979,7 @@
         <v>45078</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36036,7 +36036,7 @@
         <v>45078</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36093,7 +36093,7 @@
         <v>45078</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36150,7 +36150,7 @@
         <v>45078</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36212,7 +36212,7 @@
         <v>45078</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36274,7 +36274,7 @@
         <v>45078</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36331,7 +36331,7 @@
         <v>45078</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36388,7 +36388,7 @@
         <v>45082</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36445,7 +36445,7 @@
         <v>45082</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36502,7 +36502,7 @@
         <v>45082</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36559,7 +36559,7 @@
         <v>45082</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36616,7 +36616,7 @@
         <v>45082</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36673,7 +36673,7 @@
         <v>45084</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36730,7 +36730,7 @@
         <v>45085</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36787,7 +36787,7 @@
         <v>45089</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36844,7 +36844,7 @@
         <v>45089</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36901,7 +36901,7 @@
         <v>45093</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36958,7 +36958,7 @@
         <v>45093</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37015,7 +37015,7 @@
         <v>45096</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37072,7 +37072,7 @@
         <v>45096</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37129,7 +37129,7 @@
         <v>45097</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         <v>45097</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         <v>45098</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37300,7 +37300,7 @@
         <v>45098</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37357,7 +37357,7 @@
         <v>45098</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37414,7 +37414,7 @@
         <v>45098</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37471,7 +37471,7 @@
         <v>45105</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37528,7 +37528,7 @@
         <v>45110</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37585,7 +37585,7 @@
         <v>45111</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37642,7 +37642,7 @@
         <v>45111</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37699,7 +37699,7 @@
         <v>45111</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37756,7 +37756,7 @@
         <v>45114</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37813,7 +37813,7 @@
         <v>45116</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37870,7 +37870,7 @@
         <v>45120</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37927,7 +37927,7 @@
         <v>45122</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37984,7 +37984,7 @@
         <v>45128</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38041,7 +38041,7 @@
         <v>45134</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38098,7 +38098,7 @@
         <v>45139</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38155,7 +38155,7 @@
         <v>45139</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38212,7 +38212,7 @@
         <v>45141</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38269,7 +38269,7 @@
         <v>45145</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38326,7 +38326,7 @@
         <v>45145</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38383,7 +38383,7 @@
         <v>45148</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38440,7 +38440,7 @@
         <v>45152</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38497,7 +38497,7 @@
         <v>45153</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38554,7 +38554,7 @@
         <v>45159</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         <v>45160</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38668,7 +38668,7 @@
         <v>45160</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38730,7 +38730,7 @@
         <v>45161</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38787,7 +38787,7 @@
         <v>45162</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38849,7 +38849,7 @@
         <v>45163</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38906,7 +38906,7 @@
         <v>45163</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38963,7 +38963,7 @@
         <v>45167</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39020,7 +39020,7 @@
         <v>45174</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>

--- a/Översikt KINDA.xlsx
+++ b/Översikt KINDA.xlsx
@@ -572,7 +572,7 @@
         <v>43345</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>44826</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44872</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         <v>44575</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44575</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>44939</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>44088</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44484</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>44974</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44958</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43315</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43987</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>44478</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>43353</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>43474</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43475</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>43523</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43524</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>43531</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43585</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43807</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43809</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43879</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43990</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>44092</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>44235</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>44342</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>44418</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>44419</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         <v>44435</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>44483</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>44636</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         <v>44642</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44690</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44706</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>44754</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>44801</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>44866</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>44960</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>44974</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>45049</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>45093</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>45093</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>45093</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43320</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43321</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43321</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43325</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43328</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43335</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43336</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43336</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43340</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43341</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43346</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43348</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43355</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43356</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>43356</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43357</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43368</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>43375</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43376</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>43383</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>43385</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>43388</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43395</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43395</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43402</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43402</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43402</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>43402</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>43402</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>43406</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>43411</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>43412</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43414</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43419</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43423</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43423</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         <v>43424</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43426</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43438</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43440</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>43441</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43441</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43441</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>43441</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43441</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43445</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>43445</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>43446</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43446</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43454</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43454</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43467</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43467</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43468</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43468</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>43473</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>43474</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>43475</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>43475</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43481</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43481</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>43482</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>43487</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>43487</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>43487</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>43488</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>43489</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>43493</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>43494</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>43496</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>43496</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>43501</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>43506</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>43508</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>43511</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>43514</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>43515</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>43517</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>43528</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43528</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>43530</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>43533</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>43542</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>43542</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>43543</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>43557</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>43558</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>43563</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>43563</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>43573</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>43578</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>43579</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>43579</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>43580</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>43584</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>43584</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>43588</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>43589</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>43593</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>43594</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>43595</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>43599</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>43600</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10600,7 +10600,7 @@
         <v>43602</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10657,7 +10657,7 @@
         <v>43608</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10714,7 +10714,7 @@
         <v>43612</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>43612</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>43619</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>43619</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>43621</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>43621</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>43626</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>43626</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>43634</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>43634</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>43636</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>43644</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>43647</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>43647</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>43649</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>43649</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43651</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>43657</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>43657</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11797,7 +11797,7 @@
         <v>43657</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         <v>43661</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11911,7 +11911,7 @@
         <v>43672</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11968,7 +11968,7 @@
         <v>43679</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43682</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>43683</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12139,7 +12139,7 @@
         <v>43685</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         <v>43689</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         <v>43689</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>43689</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>43691</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12424,7 +12424,7 @@
         <v>43696</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12481,7 +12481,7 @@
         <v>43696</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>43696</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>43698</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>43698</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>43698</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>43699</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         <v>43702</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12880,7 +12880,7 @@
         <v>43703</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
         <v>43705</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12994,7 +12994,7 @@
         <v>43706</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>43707</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>43707</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>43710</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13222,7 +13222,7 @@
         <v>43711</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>43712</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>43714</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43714</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43717</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43719</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43719</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43721</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>43725</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13745,7 +13745,7 @@
         <v>43727</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>43727</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>43727</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>43731</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>43735</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14030,7 +14030,7 @@
         <v>43740</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14087,7 +14087,7 @@
         <v>43742</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>43748</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         <v>43748</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>43756</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>43762</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>43762</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14429,7 +14429,7 @@
         <v>43765</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>43766</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>43767</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>43767</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>43767</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>43767</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>43773</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>43773</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14890,7 +14890,7 @@
         <v>43773</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14947,7 +14947,7 @@
         <v>43775</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         <v>43781</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>43782</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>43782</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>43787</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>43795</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>43795</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>43796</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15403,7 +15403,7 @@
         <v>43796</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15460,7 +15460,7 @@
         <v>43796</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
         <v>43803</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>43809</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15631,7 +15631,7 @@
         <v>43811</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15688,7 +15688,7 @@
         <v>43840</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>43843</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15802,7 +15802,7 @@
         <v>43850</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         <v>43852</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>43858</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>43858</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         <v>43858</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>43858</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>43860</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>43860</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>43860</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>43860</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>43865</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>43866</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>43868</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>43868</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>43868</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>43868</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>43871</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>43871</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>43871</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>43871</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>43879</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17024,7 +17024,7 @@
         <v>43882</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17081,7 +17081,7 @@
         <v>43885</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
         <v>43886</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>43892</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>43893</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>43893</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>43910</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17423,7 +17423,7 @@
         <v>43914</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17480,7 +17480,7 @@
         <v>43915</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17537,7 +17537,7 @@
         <v>43917</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17594,7 +17594,7 @@
         <v>43923</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17651,7 +17651,7 @@
         <v>43924</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17708,7 +17708,7 @@
         <v>43930</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>43936</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17827,7 +17827,7 @@
         <v>43936</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17889,7 +17889,7 @@
         <v>43937</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>43938</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>43941</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>43956</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18127,7 +18127,7 @@
         <v>43956</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18184,7 +18184,7 @@
         <v>43956</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18241,7 +18241,7 @@
         <v>43956</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>43956</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>43957</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>43957</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>43976</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>43977</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18593,7 +18593,7 @@
         <v>43977</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18650,7 +18650,7 @@
         <v>43980</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>43980</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>43980</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18821,7 +18821,7 @@
         <v>43990</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         <v>44000</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18945,7 +18945,7 @@
         <v>44007</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>44008</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>44011</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>44015</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>44026</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19240,7 +19240,7 @@
         <v>44029</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19297,7 +19297,7 @@
         <v>44034</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19354,7 +19354,7 @@
         <v>44039</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>44039</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         <v>44047</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44049</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44053</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44057</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44063</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44063</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44063</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44067</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44068</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44069</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44076</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44077</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>44078</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>44084</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>44084</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20333,7 +20333,7 @@
         <v>44088</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         <v>44089</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20457,7 +20457,7 @@
         <v>44090</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20514,7 +20514,7 @@
         <v>44092</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20571,7 +20571,7 @@
         <v>44095</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20628,7 +20628,7 @@
         <v>44099</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>44100</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20752,7 +20752,7 @@
         <v>44104</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
         <v>44105</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         <v>44112</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20923,7 +20923,7 @@
         <v>44112</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20980,7 +20980,7 @@
         <v>44112</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>44112</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>44112</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>44113</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>44120</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>44123</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         <v>44123</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21379,7 +21379,7 @@
         <v>44124</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
         <v>44125</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21493,7 +21493,7 @@
         <v>44130</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>44140</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21607,7 +21607,7 @@
         <v>44144</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         <v>44160</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>44161</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21778,7 +21778,7 @@
         <v>44164</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>44165</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21892,7 +21892,7 @@
         <v>44167</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
         <v>44168</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44168</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44171</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44171</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44187</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>44203</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>44203</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44203</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44207</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44215</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44216</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44218</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
         <v>44221</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44223</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44223</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44236</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44239</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44242</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44243</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44244</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44249</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44249</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44252</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44258</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44266</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44267</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44272</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44274</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44278</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23607,7 +23607,7 @@
         <v>44284</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23664,7 +23664,7 @@
         <v>44294</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23721,7 +23721,7 @@
         <v>44308</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23778,7 +23778,7 @@
         <v>44309</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>44309</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>44314</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>44316</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24006,7 +24006,7 @@
         <v>44319</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
         <v>44319</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24120,7 +24120,7 @@
         <v>44322</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24177,7 +24177,7 @@
         <v>44323</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24234,7 +24234,7 @@
         <v>44326</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24291,7 +24291,7 @@
         <v>44334</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>44335</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>44337</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>44337</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>44354</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>44357</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>44357</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>44362</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>44375</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>44379</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>44379</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24938,7 +24938,7 @@
         <v>44379</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24995,7 +24995,7 @@
         <v>44379</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25052,7 +25052,7 @@
         <v>44379</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25109,7 +25109,7 @@
         <v>44382</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25166,7 +25166,7 @@
         <v>44392</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25223,7 +25223,7 @@
         <v>44411</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44411</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44416</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44418</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44419</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44419</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44425</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25627,7 +25627,7 @@
         <v>44425</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25684,7 +25684,7 @@
         <v>44425</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25741,7 +25741,7 @@
         <v>44433</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25798,7 +25798,7 @@
         <v>44433</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25855,7 +25855,7 @@
         <v>44434</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25917,7 +25917,7 @@
         <v>44435</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25974,7 +25974,7 @@
         <v>44439</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26031,7 +26031,7 @@
         <v>44445</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26088,7 +26088,7 @@
         <v>44446</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26145,7 +26145,7 @@
         <v>44446</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26202,7 +26202,7 @@
         <v>44447</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26259,7 +26259,7 @@
         <v>44452</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26321,7 +26321,7 @@
         <v>44454</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26378,7 +26378,7 @@
         <v>44456</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26435,7 +26435,7 @@
         <v>44460</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26492,7 +26492,7 @@
         <v>44462</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26554,7 +26554,7 @@
         <v>44463</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26611,7 +26611,7 @@
         <v>44463</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26668,7 +26668,7 @@
         <v>44465</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26725,7 +26725,7 @@
         <v>44469</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26782,7 +26782,7 @@
         <v>44469</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26839,7 +26839,7 @@
         <v>44481</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26896,7 +26896,7 @@
         <v>44483</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26953,7 +26953,7 @@
         <v>44483</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27010,7 +27010,7 @@
         <v>44484</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27067,7 +27067,7 @@
         <v>44484</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27124,7 +27124,7 @@
         <v>44484</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27181,7 +27181,7 @@
         <v>44486</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27238,7 +27238,7 @@
         <v>44497</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27295,7 +27295,7 @@
         <v>44500</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27352,7 +27352,7 @@
         <v>44501</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27409,7 +27409,7 @@
         <v>44502</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27466,7 +27466,7 @@
         <v>44505</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         <v>44517</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27580,7 +27580,7 @@
         <v>44525</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27637,7 +27637,7 @@
         <v>44560</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27694,7 +27694,7 @@
         <v>44575</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27751,7 +27751,7 @@
         <v>44578</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27808,7 +27808,7 @@
         <v>44585</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27865,7 +27865,7 @@
         <v>44587</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27922,7 +27922,7 @@
         <v>44587</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27979,7 +27979,7 @@
         <v>44587</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28036,7 +28036,7 @@
         <v>44589</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28093,7 +28093,7 @@
         <v>44594</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28150,7 +28150,7 @@
         <v>44599</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28207,7 +28207,7 @@
         <v>44600</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28264,7 +28264,7 @@
         <v>44627</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28321,7 +28321,7 @@
         <v>44644</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28378,7 +28378,7 @@
         <v>44645</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28435,7 +28435,7 @@
         <v>44657</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28492,7 +28492,7 @@
         <v>44677</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28549,7 +28549,7 @@
         <v>44677</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28606,7 +28606,7 @@
         <v>44687</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28663,7 +28663,7 @@
         <v>44697</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28720,7 +28720,7 @@
         <v>44699</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28777,7 +28777,7 @@
         <v>44701</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28834,7 +28834,7 @@
         <v>44720</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         <v>44729</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28948,7 +28948,7 @@
         <v>44732</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29005,7 +29005,7 @@
         <v>44742</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29062,7 +29062,7 @@
         <v>44776</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29119,7 +29119,7 @@
         <v>44782</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29176,7 +29176,7 @@
         <v>44795</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29233,7 +29233,7 @@
         <v>44799</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29290,7 +29290,7 @@
         <v>44801</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29347,7 +29347,7 @@
         <v>44802</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29404,7 +29404,7 @@
         <v>44805</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29461,7 +29461,7 @@
         <v>44820</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29518,7 +29518,7 @@
         <v>44826</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29575,7 +29575,7 @@
         <v>44830</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29632,7 +29632,7 @@
         <v>44837</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29689,7 +29689,7 @@
         <v>44846</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         <v>44851</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29803,7 +29803,7 @@
         <v>44851</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29860,7 +29860,7 @@
         <v>44852</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29917,7 +29917,7 @@
         <v>44852</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29974,7 +29974,7 @@
         <v>44854</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30031,7 +30031,7 @@
         <v>44860</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30088,7 +30088,7 @@
         <v>44861</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30145,7 +30145,7 @@
         <v>44865</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30207,7 +30207,7 @@
         <v>44868</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30264,7 +30264,7 @@
         <v>44868</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30321,7 +30321,7 @@
         <v>44873</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30378,7 +30378,7 @@
         <v>44874</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30435,7 +30435,7 @@
         <v>44882</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30492,7 +30492,7 @@
         <v>44882</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30549,7 +30549,7 @@
         <v>44882</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30606,7 +30606,7 @@
         <v>44882</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30663,7 +30663,7 @@
         <v>44882</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30720,7 +30720,7 @@
         <v>44886</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30777,7 +30777,7 @@
         <v>44886</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30834,7 +30834,7 @@
         <v>44886</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30891,7 +30891,7 @@
         <v>44890</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30953,7 +30953,7 @@
         <v>44907</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31010,7 +31010,7 @@
         <v>44918</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31067,7 +31067,7 @@
         <v>44918</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31124,7 +31124,7 @@
         <v>44935</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31181,7 +31181,7 @@
         <v>44937</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31238,7 +31238,7 @@
         <v>44937</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31295,7 +31295,7 @@
         <v>44937</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31352,7 +31352,7 @@
         <v>44949</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31409,7 +31409,7 @@
         <v>44951</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31466,7 +31466,7 @@
         <v>44952</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31523,7 +31523,7 @@
         <v>44952</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31580,7 +31580,7 @@
         <v>44952</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31637,7 +31637,7 @@
         <v>44952</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31694,7 +31694,7 @@
         <v>44952</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31751,7 +31751,7 @@
         <v>44952</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31808,7 +31808,7 @@
         <v>44952</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31865,7 +31865,7 @@
         <v>44953</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31922,7 +31922,7 @@
         <v>44953</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31979,7 +31979,7 @@
         <v>44956</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32036,7 +32036,7 @@
         <v>44956</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32093,7 +32093,7 @@
         <v>44958</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32150,7 +32150,7 @@
         <v>44960</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32207,7 +32207,7 @@
         <v>44963</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32264,7 +32264,7 @@
         <v>44963</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32321,7 +32321,7 @@
         <v>44963</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32378,7 +32378,7 @@
         <v>44964</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32435,7 +32435,7 @@
         <v>44967</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32492,7 +32492,7 @@
         <v>44970</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32549,7 +32549,7 @@
         <v>44972</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32606,7 +32606,7 @@
         <v>44974</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32668,7 +32668,7 @@
         <v>44974</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32730,7 +32730,7 @@
         <v>44977</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32787,7 +32787,7 @@
         <v>44977</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32844,7 +32844,7 @@
         <v>44978</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32901,7 +32901,7 @@
         <v>44978</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32958,7 +32958,7 @@
         <v>44981</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33015,7 +33015,7 @@
         <v>44981</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33072,7 +33072,7 @@
         <v>44982</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33129,7 +33129,7 @@
         <v>44985</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         <v>44988</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33243,7 +33243,7 @@
         <v>44992</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33300,7 +33300,7 @@
         <v>44992</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33357,7 +33357,7 @@
         <v>44992</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33414,7 +33414,7 @@
         <v>44992</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33471,7 +33471,7 @@
         <v>44993</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33528,7 +33528,7 @@
         <v>44998</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33585,7 +33585,7 @@
         <v>45000</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33642,7 +33642,7 @@
         <v>45000</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33699,7 +33699,7 @@
         <v>45000</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33756,7 +33756,7 @@
         <v>45000</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33813,7 +33813,7 @@
         <v>45000</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33870,7 +33870,7 @@
         <v>45000</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33927,7 +33927,7 @@
         <v>45000</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33984,7 +33984,7 @@
         <v>45000</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34041,7 +34041,7 @@
         <v>45005</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34098,7 +34098,7 @@
         <v>45005</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34155,7 +34155,7 @@
         <v>45007</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34212,7 +34212,7 @@
         <v>45007</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34269,7 +34269,7 @@
         <v>45008</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34326,7 +34326,7 @@
         <v>45008</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34383,7 +34383,7 @@
         <v>45009</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34440,7 +34440,7 @@
         <v>45009</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34497,7 +34497,7 @@
         <v>45022</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34554,7 +34554,7 @@
         <v>45029</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34611,7 +34611,7 @@
         <v>45030</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34668,7 +34668,7 @@
         <v>45030</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34725,7 +34725,7 @@
         <v>45030</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34782,7 +34782,7 @@
         <v>45030</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34839,7 +34839,7 @@
         <v>45035</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34896,7 +34896,7 @@
         <v>45036</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34953,7 +34953,7 @@
         <v>45036</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35010,7 +35010,7 @@
         <v>45037</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35067,7 +35067,7 @@
         <v>45042</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35124,7 +35124,7 @@
         <v>45048</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35181,7 +35181,7 @@
         <v>45049</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35238,7 +35238,7 @@
         <v>45056</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35295,7 +35295,7 @@
         <v>45062</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35352,7 +35352,7 @@
         <v>45062</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35409,7 +35409,7 @@
         <v>45062</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35466,7 +35466,7 @@
         <v>45071</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35523,7 +35523,7 @@
         <v>45071</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35580,7 +35580,7 @@
         <v>45071</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35637,7 +35637,7 @@
         <v>45071</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35694,7 +35694,7 @@
         <v>45076</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35751,7 +35751,7 @@
         <v>45077</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35808,7 +35808,7 @@
         <v>45078</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35865,7 +35865,7 @@
         <v>45078</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35922,7 +35922,7 @@
         <v>45078</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35979,7 +35979,7 @@
         <v>45078</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36036,7 +36036,7 @@
         <v>45078</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36093,7 +36093,7 @@
         <v>45078</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36150,7 +36150,7 @@
         <v>45078</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36212,7 +36212,7 @@
         <v>45078</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36274,7 +36274,7 @@
         <v>45078</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36331,7 +36331,7 @@
         <v>45078</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36388,7 +36388,7 @@
         <v>45082</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36445,7 +36445,7 @@
         <v>45082</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36502,7 +36502,7 @@
         <v>45082</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36559,7 +36559,7 @@
         <v>45082</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36616,7 +36616,7 @@
         <v>45082</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36673,7 +36673,7 @@
         <v>45084</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36730,7 +36730,7 @@
         <v>45085</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36787,7 +36787,7 @@
         <v>45089</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36844,7 +36844,7 @@
         <v>45089</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36901,7 +36901,7 @@
         <v>45093</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36958,7 +36958,7 @@
         <v>45093</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37015,7 +37015,7 @@
         <v>45096</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37072,7 +37072,7 @@
         <v>45096</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37129,7 +37129,7 @@
         <v>45097</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         <v>45097</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         <v>45098</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37300,7 +37300,7 @@
         <v>45098</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37357,7 +37357,7 @@
         <v>45098</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37414,7 +37414,7 @@
         <v>45098</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37471,7 +37471,7 @@
         <v>45105</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37528,7 +37528,7 @@
         <v>45110</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37585,7 +37585,7 @@
         <v>45111</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37642,7 +37642,7 @@
         <v>45111</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37699,7 +37699,7 @@
         <v>45111</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37756,7 +37756,7 @@
         <v>45114</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37813,7 +37813,7 @@
         <v>45116</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37870,7 +37870,7 @@
         <v>45120</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37927,7 +37927,7 @@
         <v>45122</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37984,7 +37984,7 @@
         <v>45128</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38041,7 +38041,7 @@
         <v>45134</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38098,7 +38098,7 @@
         <v>45139</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38155,7 +38155,7 @@
         <v>45139</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38212,7 +38212,7 @@
         <v>45141</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38269,7 +38269,7 @@
         <v>45145</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38326,7 +38326,7 @@
         <v>45145</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38383,7 +38383,7 @@
         <v>45148</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38440,7 +38440,7 @@
         <v>45152</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38497,7 +38497,7 @@
         <v>45153</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38554,7 +38554,7 @@
         <v>45159</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         <v>45160</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38668,7 +38668,7 @@
         <v>45160</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38730,7 +38730,7 @@
         <v>45161</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38787,7 +38787,7 @@
         <v>45162</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38849,7 +38849,7 @@
         <v>45163</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38906,7 +38906,7 @@
         <v>45163</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38963,7 +38963,7 @@
         <v>45167</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39020,7 +39020,7 @@
         <v>45174</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>

--- a/Översikt KINDA.xlsx
+++ b/Översikt KINDA.xlsx
@@ -572,7 +572,7 @@
         <v>43345</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>44826</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44872</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         <v>44575</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44575</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>44939</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>44088</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44484</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>44974</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44958</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43315</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43987</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>44478</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>43353</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>43474</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43475</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>43523</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43524</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>43531</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43585</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43807</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43809</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43879</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43990</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>44092</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>44235</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>44342</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>44418</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>44419</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         <v>44435</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>44483</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>44636</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         <v>44642</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44690</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44706</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>44754</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>44801</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>44866</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>44960</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>44974</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>45049</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>45093</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>45093</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>45093</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43320</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43321</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43321</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43325</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43328</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43335</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43336</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43336</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43340</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43341</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43346</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43348</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43355</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43356</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>43356</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43357</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43368</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>43375</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43376</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>43383</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>43385</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>43388</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43395</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43395</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43402</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43402</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43402</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>43402</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>43402</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>43406</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>43411</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>43412</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43414</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43419</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43423</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43423</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         <v>43424</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43426</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43438</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43440</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>43441</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43441</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43441</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>43441</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43441</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43445</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>43445</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>43446</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43446</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43454</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43454</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43467</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43467</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43468</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43468</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>43473</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>43474</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>43475</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>43475</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43481</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43481</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>43482</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>43487</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>43487</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>43487</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>43488</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>43489</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>43493</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>43494</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>43496</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>43496</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>43501</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>43506</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>43508</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>43511</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>43514</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>43515</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>43517</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>43528</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43528</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>43530</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>43533</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>43542</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>43542</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>43543</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>43557</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>43558</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>43563</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>43563</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>43573</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>43578</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>43579</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>43579</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>43580</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>43584</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>43584</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>43588</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>43589</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>43593</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>43594</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>43595</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>43599</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>43600</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10600,7 +10600,7 @@
         <v>43602</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10657,7 +10657,7 @@
         <v>43608</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10714,7 +10714,7 @@
         <v>43612</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>43612</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>43619</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>43619</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>43621</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>43621</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>43626</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>43626</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>43634</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>43634</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>43636</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>43644</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>43647</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>43647</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>43649</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>43649</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43651</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>43657</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>43657</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11797,7 +11797,7 @@
         <v>43657</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         <v>43661</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11911,7 +11911,7 @@
         <v>43672</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11968,7 +11968,7 @@
         <v>43679</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43682</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>43683</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12139,7 +12139,7 @@
         <v>43685</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         <v>43689</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         <v>43689</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>43689</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>43691</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12424,7 +12424,7 @@
         <v>43696</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12481,7 +12481,7 @@
         <v>43696</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>43696</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>43698</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>43698</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>43698</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>43699</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         <v>43702</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12880,7 +12880,7 @@
         <v>43703</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
         <v>43705</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12994,7 +12994,7 @@
         <v>43706</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>43707</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>43707</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>43710</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13222,7 +13222,7 @@
         <v>43711</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>43712</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>43714</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43714</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43717</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43719</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43719</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43721</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>43725</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13745,7 +13745,7 @@
         <v>43727</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>43727</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>43727</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>43731</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>43735</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14030,7 +14030,7 @@
         <v>43740</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14087,7 +14087,7 @@
         <v>43742</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>43748</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         <v>43748</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>43756</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>43762</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>43762</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14429,7 +14429,7 @@
         <v>43765</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>43766</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>43767</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>43767</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>43767</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>43767</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>43773</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>43773</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14890,7 +14890,7 @@
         <v>43773</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14947,7 +14947,7 @@
         <v>43775</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         <v>43781</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>43782</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>43782</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>43787</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>43795</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>43795</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>43796</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15403,7 +15403,7 @@
         <v>43796</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15460,7 +15460,7 @@
         <v>43796</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
         <v>43803</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>43809</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15631,7 +15631,7 @@
         <v>43811</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15688,7 +15688,7 @@
         <v>43840</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>43843</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15802,7 +15802,7 @@
         <v>43850</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         <v>43852</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>43858</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>43858</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         <v>43858</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>43858</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>43860</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>43860</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>43860</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>43860</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>43865</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>43866</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>43868</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>43868</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>43868</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>43868</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>43871</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>43871</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>43871</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>43871</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>43879</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17024,7 +17024,7 @@
         <v>43882</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17081,7 +17081,7 @@
         <v>43885</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
         <v>43886</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>43892</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>43893</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>43893</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>43910</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17423,7 +17423,7 @@
         <v>43914</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17480,7 +17480,7 @@
         <v>43915</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17537,7 +17537,7 @@
         <v>43917</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17594,7 +17594,7 @@
         <v>43923</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17651,7 +17651,7 @@
         <v>43924</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17708,7 +17708,7 @@
         <v>43930</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>43936</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17827,7 +17827,7 @@
         <v>43936</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17889,7 +17889,7 @@
         <v>43937</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>43938</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>43941</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>43956</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18127,7 +18127,7 @@
         <v>43956</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18184,7 +18184,7 @@
         <v>43956</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18241,7 +18241,7 @@
         <v>43956</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>43956</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>43957</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>43957</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>43976</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>43977</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18593,7 +18593,7 @@
         <v>43977</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18650,7 +18650,7 @@
         <v>43980</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>43980</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>43980</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18821,7 +18821,7 @@
         <v>43990</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         <v>44000</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18945,7 +18945,7 @@
         <v>44007</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>44008</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>44011</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>44015</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>44026</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19240,7 +19240,7 @@
         <v>44029</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19297,7 +19297,7 @@
         <v>44034</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19354,7 +19354,7 @@
         <v>44039</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>44039</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         <v>44047</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44049</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44053</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44057</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44063</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44063</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44063</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44067</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44068</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44069</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44076</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44077</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>44078</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>44084</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>44084</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20333,7 +20333,7 @@
         <v>44088</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         <v>44089</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20457,7 +20457,7 @@
         <v>44090</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20514,7 +20514,7 @@
         <v>44092</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20571,7 +20571,7 @@
         <v>44095</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20628,7 +20628,7 @@
         <v>44099</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>44100</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20752,7 +20752,7 @@
         <v>44104</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
         <v>44105</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         <v>44112</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20923,7 +20923,7 @@
         <v>44112</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20980,7 +20980,7 @@
         <v>44112</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>44112</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>44112</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>44113</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>44120</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>44123</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         <v>44123</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21379,7 +21379,7 @@
         <v>44124</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
         <v>44125</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21493,7 +21493,7 @@
         <v>44130</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>44140</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21607,7 +21607,7 @@
         <v>44144</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         <v>44160</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>44161</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21778,7 +21778,7 @@
         <v>44164</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>44165</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21892,7 +21892,7 @@
         <v>44167</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
         <v>44168</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44168</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44171</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44171</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44187</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>44203</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>44203</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44203</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44207</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44215</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44216</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44218</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
         <v>44221</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44223</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44223</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44236</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44239</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44242</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44243</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44244</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44249</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44249</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44252</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44258</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44266</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44267</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44272</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44274</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44278</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23607,7 +23607,7 @@
         <v>44284</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23664,7 +23664,7 @@
         <v>44294</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23721,7 +23721,7 @@
         <v>44308</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23778,7 +23778,7 @@
         <v>44309</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>44309</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>44314</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>44316</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24006,7 +24006,7 @@
         <v>44319</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
         <v>44319</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24120,7 +24120,7 @@
         <v>44322</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24177,7 +24177,7 @@
         <v>44323</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24234,7 +24234,7 @@
         <v>44326</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24291,7 +24291,7 @@
         <v>44334</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>44335</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>44337</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>44337</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>44354</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>44357</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>44357</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>44362</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>44375</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>44379</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>44379</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24938,7 +24938,7 @@
         <v>44379</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24995,7 +24995,7 @@
         <v>44379</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25052,7 +25052,7 @@
         <v>44379</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25109,7 +25109,7 @@
         <v>44382</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25166,7 +25166,7 @@
         <v>44392</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25223,7 +25223,7 @@
         <v>44411</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44411</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44416</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44418</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44419</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44419</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44425</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25627,7 +25627,7 @@
         <v>44425</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25684,7 +25684,7 @@
         <v>44425</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25741,7 +25741,7 @@
         <v>44433</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25798,7 +25798,7 @@
         <v>44433</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25855,7 +25855,7 @@
         <v>44434</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25917,7 +25917,7 @@
         <v>44435</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25974,7 +25974,7 @@
         <v>44439</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26031,7 +26031,7 @@
         <v>44445</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26088,7 +26088,7 @@
         <v>44446</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26145,7 +26145,7 @@
         <v>44446</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26202,7 +26202,7 @@
         <v>44447</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26259,7 +26259,7 @@
         <v>44452</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26321,7 +26321,7 @@
         <v>44454</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26378,7 +26378,7 @@
         <v>44456</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26435,7 +26435,7 @@
         <v>44460</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26492,7 +26492,7 @@
         <v>44462</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26554,7 +26554,7 @@
         <v>44463</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26611,7 +26611,7 @@
         <v>44463</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26668,7 +26668,7 @@
         <v>44465</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26725,7 +26725,7 @@
         <v>44469</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26782,7 +26782,7 @@
         <v>44469</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26839,7 +26839,7 @@
         <v>44481</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26896,7 +26896,7 @@
         <v>44483</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26953,7 +26953,7 @@
         <v>44483</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27010,7 +27010,7 @@
         <v>44484</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27067,7 +27067,7 @@
         <v>44484</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27124,7 +27124,7 @@
         <v>44484</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27181,7 +27181,7 @@
         <v>44486</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27238,7 +27238,7 @@
         <v>44497</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27295,7 +27295,7 @@
         <v>44500</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27352,7 +27352,7 @@
         <v>44501</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27409,7 +27409,7 @@
         <v>44502</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27466,7 +27466,7 @@
         <v>44505</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         <v>44517</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27580,7 +27580,7 @@
         <v>44525</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27637,7 +27637,7 @@
         <v>44560</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27694,7 +27694,7 @@
         <v>44575</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27751,7 +27751,7 @@
         <v>44578</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27808,7 +27808,7 @@
         <v>44585</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27865,7 +27865,7 @@
         <v>44587</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27922,7 +27922,7 @@
         <v>44587</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27979,7 +27979,7 @@
         <v>44587</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28036,7 +28036,7 @@
         <v>44589</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28093,7 +28093,7 @@
         <v>44594</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28150,7 +28150,7 @@
         <v>44599</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28207,7 +28207,7 @@
         <v>44600</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28264,7 +28264,7 @@
         <v>44627</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28321,7 +28321,7 @@
         <v>44644</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28378,7 +28378,7 @@
         <v>44645</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28435,7 +28435,7 @@
         <v>44657</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28492,7 +28492,7 @@
         <v>44677</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28549,7 +28549,7 @@
         <v>44677</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28606,7 +28606,7 @@
         <v>44687</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28663,7 +28663,7 @@
         <v>44697</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28720,7 +28720,7 @@
         <v>44699</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28777,7 +28777,7 @@
         <v>44701</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28834,7 +28834,7 @@
         <v>44720</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         <v>44729</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28948,7 +28948,7 @@
         <v>44732</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29005,7 +29005,7 @@
         <v>44742</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29062,7 +29062,7 @@
         <v>44776</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29119,7 +29119,7 @@
         <v>44782</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29176,7 +29176,7 @@
         <v>44795</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29233,7 +29233,7 @@
         <v>44799</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29290,7 +29290,7 @@
         <v>44801</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29347,7 +29347,7 @@
         <v>44802</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29404,7 +29404,7 @@
         <v>44805</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29461,7 +29461,7 @@
         <v>44820</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29518,7 +29518,7 @@
         <v>44826</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29575,7 +29575,7 @@
         <v>44830</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29632,7 +29632,7 @@
         <v>44837</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29689,7 +29689,7 @@
         <v>44846</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         <v>44851</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29803,7 +29803,7 @@
         <v>44851</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29860,7 +29860,7 @@
         <v>44852</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29917,7 +29917,7 @@
         <v>44852</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29974,7 +29974,7 @@
         <v>44854</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30031,7 +30031,7 @@
         <v>44860</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30088,7 +30088,7 @@
         <v>44861</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30145,7 +30145,7 @@
         <v>44865</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30207,7 +30207,7 @@
         <v>44868</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30264,7 +30264,7 @@
         <v>44868</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30321,7 +30321,7 @@
         <v>44873</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30378,7 +30378,7 @@
         <v>44874</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30435,7 +30435,7 @@
         <v>44882</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30492,7 +30492,7 @@
         <v>44882</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30549,7 +30549,7 @@
         <v>44882</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30606,7 +30606,7 @@
         <v>44882</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30663,7 +30663,7 @@
         <v>44882</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30720,7 +30720,7 @@
         <v>44886</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30777,7 +30777,7 @@
         <v>44886</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30834,7 +30834,7 @@
         <v>44886</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30891,7 +30891,7 @@
         <v>44890</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30953,7 +30953,7 @@
         <v>44907</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31010,7 +31010,7 @@
         <v>44918</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31067,7 +31067,7 @@
         <v>44918</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31124,7 +31124,7 @@
         <v>44935</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31181,7 +31181,7 @@
         <v>44937</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31238,7 +31238,7 @@
         <v>44937</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31295,7 +31295,7 @@
         <v>44937</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31352,7 +31352,7 @@
         <v>44949</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31409,7 +31409,7 @@
         <v>44951</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31466,7 +31466,7 @@
         <v>44952</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31523,7 +31523,7 @@
         <v>44952</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31580,7 +31580,7 @@
         <v>44952</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31637,7 +31637,7 @@
         <v>44952</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31694,7 +31694,7 @@
         <v>44952</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31751,7 +31751,7 @@
         <v>44952</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31808,7 +31808,7 @@
         <v>44952</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31865,7 +31865,7 @@
         <v>44953</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31922,7 +31922,7 @@
         <v>44953</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31979,7 +31979,7 @@
         <v>44956</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32036,7 +32036,7 @@
         <v>44956</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32093,7 +32093,7 @@
         <v>44958</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32150,7 +32150,7 @@
         <v>44960</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32207,7 +32207,7 @@
         <v>44963</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32264,7 +32264,7 @@
         <v>44963</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32321,7 +32321,7 @@
         <v>44963</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32378,7 +32378,7 @@
         <v>44964</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32435,7 +32435,7 @@
         <v>44967</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32492,7 +32492,7 @@
         <v>44970</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32549,7 +32549,7 @@
         <v>44972</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32606,7 +32606,7 @@
         <v>44974</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32668,7 +32668,7 @@
         <v>44974</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32730,7 +32730,7 @@
         <v>44977</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32787,7 +32787,7 @@
         <v>44977</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32844,7 +32844,7 @@
         <v>44978</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32901,7 +32901,7 @@
         <v>44978</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32958,7 +32958,7 @@
         <v>44981</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33015,7 +33015,7 @@
         <v>44981</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33072,7 +33072,7 @@
         <v>44982</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33129,7 +33129,7 @@
         <v>44985</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         <v>44988</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33243,7 +33243,7 @@
         <v>44992</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33300,7 +33300,7 @@
         <v>44992</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33357,7 +33357,7 @@
         <v>44992</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33414,7 +33414,7 @@
         <v>44992</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33471,7 +33471,7 @@
         <v>44993</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33528,7 +33528,7 @@
         <v>44998</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33585,7 +33585,7 @@
         <v>45000</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33642,7 +33642,7 @@
         <v>45000</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33699,7 +33699,7 @@
         <v>45000</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33756,7 +33756,7 @@
         <v>45000</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33813,7 +33813,7 @@
         <v>45000</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33870,7 +33870,7 @@
         <v>45000</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33927,7 +33927,7 @@
         <v>45000</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33984,7 +33984,7 @@
         <v>45000</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34041,7 +34041,7 @@
         <v>45005</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34098,7 +34098,7 @@
         <v>45005</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34155,7 +34155,7 @@
         <v>45007</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34212,7 +34212,7 @@
         <v>45007</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34269,7 +34269,7 @@
         <v>45008</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34326,7 +34326,7 @@
         <v>45008</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34383,7 +34383,7 @@
         <v>45009</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34440,7 +34440,7 @@
         <v>45009</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34497,7 +34497,7 @@
         <v>45022</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34554,7 +34554,7 @@
         <v>45029</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34611,7 +34611,7 @@
         <v>45030</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34668,7 +34668,7 @@
         <v>45030</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34725,7 +34725,7 @@
         <v>45030</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34782,7 +34782,7 @@
         <v>45030</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34839,7 +34839,7 @@
         <v>45035</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34896,7 +34896,7 @@
         <v>45036</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34953,7 +34953,7 @@
         <v>45036</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35010,7 +35010,7 @@
         <v>45037</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35067,7 +35067,7 @@
         <v>45042</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35124,7 +35124,7 @@
         <v>45048</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35181,7 +35181,7 @@
         <v>45049</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35238,7 +35238,7 @@
         <v>45056</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35295,7 +35295,7 @@
         <v>45062</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35352,7 +35352,7 @@
         <v>45062</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35409,7 +35409,7 @@
         <v>45062</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35466,7 +35466,7 @@
         <v>45071</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35523,7 +35523,7 @@
         <v>45071</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35580,7 +35580,7 @@
         <v>45071</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35637,7 +35637,7 @@
         <v>45071</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35694,7 +35694,7 @@
         <v>45076</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35751,7 +35751,7 @@
         <v>45077</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35808,7 +35808,7 @@
         <v>45078</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35865,7 +35865,7 @@
         <v>45078</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35922,7 +35922,7 @@
         <v>45078</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35979,7 +35979,7 @@
         <v>45078</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36036,7 +36036,7 @@
         <v>45078</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36093,7 +36093,7 @@
         <v>45078</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36150,7 +36150,7 @@
         <v>45078</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36212,7 +36212,7 @@
         <v>45078</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36274,7 +36274,7 @@
         <v>45078</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36331,7 +36331,7 @@
         <v>45078</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36388,7 +36388,7 @@
         <v>45082</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36445,7 +36445,7 @@
         <v>45082</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36502,7 +36502,7 @@
         <v>45082</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36559,7 +36559,7 @@
         <v>45082</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36616,7 +36616,7 @@
         <v>45082</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36673,7 +36673,7 @@
         <v>45084</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36730,7 +36730,7 @@
         <v>45085</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36787,7 +36787,7 @@
         <v>45089</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36844,7 +36844,7 @@
         <v>45089</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36901,7 +36901,7 @@
         <v>45093</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36958,7 +36958,7 @@
         <v>45093</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37015,7 +37015,7 @@
         <v>45096</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37072,7 +37072,7 @@
         <v>45096</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37129,7 +37129,7 @@
         <v>45097</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         <v>45097</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         <v>45098</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37300,7 +37300,7 @@
         <v>45098</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37357,7 +37357,7 @@
         <v>45098</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37414,7 +37414,7 @@
         <v>45098</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37471,7 +37471,7 @@
         <v>45105</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37528,7 +37528,7 @@
         <v>45110</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37585,7 +37585,7 @@
         <v>45111</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37642,7 +37642,7 @@
         <v>45111</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37699,7 +37699,7 @@
         <v>45111</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37756,7 +37756,7 @@
         <v>45114</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37813,7 +37813,7 @@
         <v>45116</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37870,7 +37870,7 @@
         <v>45120</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37927,7 +37927,7 @@
         <v>45122</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37984,7 +37984,7 @@
         <v>45128</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38041,7 +38041,7 @@
         <v>45134</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38098,7 +38098,7 @@
         <v>45139</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38155,7 +38155,7 @@
         <v>45139</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38212,7 +38212,7 @@
         <v>45141</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38269,7 +38269,7 @@
         <v>45145</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38326,7 +38326,7 @@
         <v>45145</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38383,7 +38383,7 @@
         <v>45148</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38440,7 +38440,7 @@
         <v>45152</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38497,7 +38497,7 @@
         <v>45153</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38554,7 +38554,7 @@
         <v>45159</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         <v>45160</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38668,7 +38668,7 @@
         <v>45160</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38730,7 +38730,7 @@
         <v>45161</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38787,7 +38787,7 @@
         <v>45162</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38849,7 +38849,7 @@
         <v>45163</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38906,7 +38906,7 @@
         <v>45163</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38963,7 +38963,7 @@
         <v>45167</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39020,7 +39020,7 @@
         <v>45174</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>

--- a/Översikt KINDA.xlsx
+++ b/Översikt KINDA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y647"/>
+  <dimension ref="A1:Y648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43345</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>44826</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44872</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         <v>44575</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44575</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>44939</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>44088</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44484</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>44974</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44958</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43315</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43987</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>44478</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>43353</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>43474</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43475</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>43523</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43524</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>43531</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43585</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43807</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43809</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43879</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43990</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>44092</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>44235</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>44342</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>44418</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>44419</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         <v>44435</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>44483</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>44636</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         <v>44642</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44690</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44706</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>44754</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>44801</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>44866</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>44960</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>44974</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>45049</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>45093</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>45093</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>45093</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43320</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43321</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43321</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43325</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43328</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43335</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43336</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43336</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43340</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43341</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43346</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43348</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43355</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43356</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>43356</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43357</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43368</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>43375</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43376</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>43383</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>43385</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>43388</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43395</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43395</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43402</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43402</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43402</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>43402</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>43402</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>43406</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>43411</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>43412</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43414</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43419</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43423</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43423</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         <v>43424</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43426</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43438</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43440</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>43441</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43441</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43441</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>43441</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43441</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43445</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>43445</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>43446</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43446</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43454</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43454</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43467</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43467</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43468</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43468</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>43473</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>43474</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>43475</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>43475</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43481</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43481</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>43482</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>43487</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>43487</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>43487</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>43488</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>43489</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>43493</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>43494</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>43496</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>43496</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>43501</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>43506</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>43508</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>43511</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>43514</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>43515</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>43517</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>43528</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43528</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>43530</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>43533</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>43542</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>43542</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>43543</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>43557</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>43558</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>43563</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>43563</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>43573</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>43578</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>43579</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>43579</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>43580</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>43584</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>43584</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>43588</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>43589</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>43593</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>43594</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>43595</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>43599</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>43600</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10600,7 +10600,7 @@
         <v>43602</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10657,7 +10657,7 @@
         <v>43608</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10714,7 +10714,7 @@
         <v>43612</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>43612</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>43619</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>43619</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>43621</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>43621</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>43626</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>43626</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>43634</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>43634</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>43636</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>43644</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>43647</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>43647</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>43649</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>43649</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43651</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>43657</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>43657</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11797,7 +11797,7 @@
         <v>43657</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         <v>43661</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11911,7 +11911,7 @@
         <v>43672</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11968,7 +11968,7 @@
         <v>43679</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43682</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>43683</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12139,7 +12139,7 @@
         <v>43685</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         <v>43689</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         <v>43689</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>43689</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>43691</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12424,7 +12424,7 @@
         <v>43696</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12481,7 +12481,7 @@
         <v>43696</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>43696</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>43698</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>43698</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>43698</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>43699</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         <v>43702</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12880,7 +12880,7 @@
         <v>43703</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
         <v>43705</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12994,7 +12994,7 @@
         <v>43706</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>43707</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>43707</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>43710</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13222,7 +13222,7 @@
         <v>43711</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>43712</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>43714</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43714</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43717</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43719</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43719</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43721</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>43725</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13745,7 +13745,7 @@
         <v>43727</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>43727</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>43727</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>43731</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>43735</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14030,7 +14030,7 @@
         <v>43740</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14087,7 +14087,7 @@
         <v>43742</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>43748</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         <v>43748</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>43756</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>43762</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>43762</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14429,7 +14429,7 @@
         <v>43765</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>43766</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>43767</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>43767</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>43767</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>43767</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>43773</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>43773</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14890,7 +14890,7 @@
         <v>43773</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14947,7 +14947,7 @@
         <v>43775</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         <v>43781</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>43782</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>43782</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>43787</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>43795</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>43795</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>43796</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15403,7 +15403,7 @@
         <v>43796</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15460,7 +15460,7 @@
         <v>43796</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
         <v>43803</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>43809</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15631,7 +15631,7 @@
         <v>43811</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15688,7 +15688,7 @@
         <v>43840</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>43843</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15802,7 +15802,7 @@
         <v>43850</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         <v>43852</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>43858</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>43858</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         <v>43858</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>43858</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>43860</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>43860</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>43860</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>43860</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>43865</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>43866</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>43868</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>43868</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>43868</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>43868</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>43871</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>43871</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>43871</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>43871</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>43879</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17024,7 +17024,7 @@
         <v>43882</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17081,7 +17081,7 @@
         <v>43885</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
         <v>43886</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>43892</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>43893</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>43893</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>43910</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17423,7 +17423,7 @@
         <v>43914</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17480,7 +17480,7 @@
         <v>43915</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17537,7 +17537,7 @@
         <v>43917</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17594,7 +17594,7 @@
         <v>43923</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17651,7 +17651,7 @@
         <v>43924</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17708,7 +17708,7 @@
         <v>43930</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>43936</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17827,7 +17827,7 @@
         <v>43936</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17889,7 +17889,7 @@
         <v>43937</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>43938</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>43941</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>43956</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18127,7 +18127,7 @@
         <v>43956</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18184,7 +18184,7 @@
         <v>43956</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18241,7 +18241,7 @@
         <v>43956</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>43956</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>43957</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>43957</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>43976</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>43977</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18593,7 +18593,7 @@
         <v>43977</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18650,7 +18650,7 @@
         <v>43980</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>43980</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>43980</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18821,7 +18821,7 @@
         <v>43990</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         <v>44000</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18945,7 +18945,7 @@
         <v>44007</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>44008</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>44011</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>44015</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>44026</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19240,7 +19240,7 @@
         <v>44029</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19297,7 +19297,7 @@
         <v>44034</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19354,7 +19354,7 @@
         <v>44039</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>44039</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         <v>44047</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44049</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44053</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44057</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44063</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44063</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44063</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44067</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44068</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44069</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44076</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44077</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>44078</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>44084</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>44084</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20333,7 +20333,7 @@
         <v>44088</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         <v>44089</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20457,7 +20457,7 @@
         <v>44090</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20514,7 +20514,7 @@
         <v>44092</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20571,7 +20571,7 @@
         <v>44095</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20628,7 +20628,7 @@
         <v>44099</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>44100</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20752,7 +20752,7 @@
         <v>44104</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
         <v>44105</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         <v>44112</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20923,7 +20923,7 @@
         <v>44112</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20980,7 +20980,7 @@
         <v>44112</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>44112</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>44112</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>44113</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>44120</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>44123</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         <v>44123</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21379,7 +21379,7 @@
         <v>44124</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
         <v>44125</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21493,7 +21493,7 @@
         <v>44130</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>44140</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21607,7 +21607,7 @@
         <v>44144</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         <v>44160</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>44161</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21778,7 +21778,7 @@
         <v>44164</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>44165</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21892,7 +21892,7 @@
         <v>44167</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
         <v>44168</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44168</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44171</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44171</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44187</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>44203</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>44203</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44203</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44207</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44215</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44216</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44218</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
         <v>44221</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44223</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44223</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44236</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44239</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44242</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44243</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44244</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44249</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44249</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44252</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44258</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44266</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44267</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44272</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44274</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44278</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23607,7 +23607,7 @@
         <v>44284</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23664,7 +23664,7 @@
         <v>44294</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23721,7 +23721,7 @@
         <v>44308</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23778,7 +23778,7 @@
         <v>44309</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>44309</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>44314</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>44316</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24006,7 +24006,7 @@
         <v>44319</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
         <v>44319</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24120,7 +24120,7 @@
         <v>44322</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24177,7 +24177,7 @@
         <v>44323</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24234,7 +24234,7 @@
         <v>44326</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24291,7 +24291,7 @@
         <v>44334</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>44335</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>44337</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>44337</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>44354</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>44357</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>44357</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>44362</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>44375</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>44379</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>44379</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24938,7 +24938,7 @@
         <v>44379</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24995,7 +24995,7 @@
         <v>44379</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25052,7 +25052,7 @@
         <v>44379</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25109,7 +25109,7 @@
         <v>44382</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25166,7 +25166,7 @@
         <v>44392</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25223,7 +25223,7 @@
         <v>44411</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44411</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44416</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44418</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44419</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44419</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44425</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25627,7 +25627,7 @@
         <v>44425</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25684,7 +25684,7 @@
         <v>44425</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25741,7 +25741,7 @@
         <v>44433</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25798,7 +25798,7 @@
         <v>44433</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25855,7 +25855,7 @@
         <v>44434</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25917,7 +25917,7 @@
         <v>44435</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25974,7 +25974,7 @@
         <v>44439</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26031,7 +26031,7 @@
         <v>44445</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26088,7 +26088,7 @@
         <v>44446</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26145,7 +26145,7 @@
         <v>44446</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26202,7 +26202,7 @@
         <v>44447</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26259,7 +26259,7 @@
         <v>44452</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26321,7 +26321,7 @@
         <v>44454</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26378,7 +26378,7 @@
         <v>44456</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26435,7 +26435,7 @@
         <v>44460</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26492,7 +26492,7 @@
         <v>44462</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26554,7 +26554,7 @@
         <v>44463</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26611,7 +26611,7 @@
         <v>44463</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26668,7 +26668,7 @@
         <v>44465</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26725,7 +26725,7 @@
         <v>44469</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26782,7 +26782,7 @@
         <v>44469</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26839,7 +26839,7 @@
         <v>44481</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26896,7 +26896,7 @@
         <v>44483</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26953,7 +26953,7 @@
         <v>44483</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27010,7 +27010,7 @@
         <v>44484</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27067,7 +27067,7 @@
         <v>44484</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27124,7 +27124,7 @@
         <v>44484</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27181,7 +27181,7 @@
         <v>44486</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27238,7 +27238,7 @@
         <v>44497</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27295,7 +27295,7 @@
         <v>44500</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27352,7 +27352,7 @@
         <v>44501</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27409,7 +27409,7 @@
         <v>44502</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27466,7 +27466,7 @@
         <v>44505</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         <v>44517</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27580,7 +27580,7 @@
         <v>44525</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27637,7 +27637,7 @@
         <v>44560</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27694,7 +27694,7 @@
         <v>44575</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27751,7 +27751,7 @@
         <v>44578</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27808,7 +27808,7 @@
         <v>44585</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27865,7 +27865,7 @@
         <v>44587</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27922,7 +27922,7 @@
         <v>44587</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27979,7 +27979,7 @@
         <v>44587</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28036,7 +28036,7 @@
         <v>44589</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28093,7 +28093,7 @@
         <v>44594</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28150,7 +28150,7 @@
         <v>44599</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28207,7 +28207,7 @@
         <v>44600</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28264,7 +28264,7 @@
         <v>44627</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28321,7 +28321,7 @@
         <v>44644</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28378,7 +28378,7 @@
         <v>44645</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28435,7 +28435,7 @@
         <v>44657</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28492,7 +28492,7 @@
         <v>44677</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28549,7 +28549,7 @@
         <v>44677</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28606,7 +28606,7 @@
         <v>44687</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28663,7 +28663,7 @@
         <v>44697</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28720,7 +28720,7 @@
         <v>44699</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28777,7 +28777,7 @@
         <v>44701</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28834,7 +28834,7 @@
         <v>44720</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         <v>44729</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28948,7 +28948,7 @@
         <v>44732</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29005,7 +29005,7 @@
         <v>44742</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29062,7 +29062,7 @@
         <v>44776</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29119,7 +29119,7 @@
         <v>44782</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29176,7 +29176,7 @@
         <v>44795</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29233,7 +29233,7 @@
         <v>44799</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29290,7 +29290,7 @@
         <v>44801</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29347,7 +29347,7 @@
         <v>44802</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29404,7 +29404,7 @@
         <v>44805</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29461,7 +29461,7 @@
         <v>44820</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29518,7 +29518,7 @@
         <v>44826</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29575,7 +29575,7 @@
         <v>44830</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29632,7 +29632,7 @@
         <v>44837</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29689,7 +29689,7 @@
         <v>44846</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         <v>44851</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29803,7 +29803,7 @@
         <v>44851</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29860,7 +29860,7 @@
         <v>44852</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29917,7 +29917,7 @@
         <v>44852</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29974,7 +29974,7 @@
         <v>44854</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30031,7 +30031,7 @@
         <v>44860</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30088,7 +30088,7 @@
         <v>44861</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30145,7 +30145,7 @@
         <v>44865</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30207,7 +30207,7 @@
         <v>44868</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30264,7 +30264,7 @@
         <v>44868</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30321,7 +30321,7 @@
         <v>44873</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30378,7 +30378,7 @@
         <v>44874</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30435,7 +30435,7 @@
         <v>44882</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30492,7 +30492,7 @@
         <v>44882</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30549,7 +30549,7 @@
         <v>44882</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30606,7 +30606,7 @@
         <v>44882</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30663,7 +30663,7 @@
         <v>44882</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30720,7 +30720,7 @@
         <v>44886</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30777,7 +30777,7 @@
         <v>44886</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30834,7 +30834,7 @@
         <v>44886</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30891,7 +30891,7 @@
         <v>44890</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30953,7 +30953,7 @@
         <v>44907</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31010,7 +31010,7 @@
         <v>44918</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31067,7 +31067,7 @@
         <v>44918</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31124,7 +31124,7 @@
         <v>44935</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31181,7 +31181,7 @@
         <v>44937</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31238,7 +31238,7 @@
         <v>44937</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31295,7 +31295,7 @@
         <v>44937</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31352,7 +31352,7 @@
         <v>44949</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31409,7 +31409,7 @@
         <v>44951</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31466,7 +31466,7 @@
         <v>44952</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31523,7 +31523,7 @@
         <v>44952</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31580,7 +31580,7 @@
         <v>44952</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31637,7 +31637,7 @@
         <v>44952</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31694,7 +31694,7 @@
         <v>44952</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31751,7 +31751,7 @@
         <v>44952</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31808,7 +31808,7 @@
         <v>44952</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31865,7 +31865,7 @@
         <v>44953</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31922,7 +31922,7 @@
         <v>44953</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31979,7 +31979,7 @@
         <v>44956</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32036,7 +32036,7 @@
         <v>44956</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32093,7 +32093,7 @@
         <v>44958</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32150,7 +32150,7 @@
         <v>44960</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32207,7 +32207,7 @@
         <v>44963</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32264,7 +32264,7 @@
         <v>44963</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32321,7 +32321,7 @@
         <v>44963</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32378,7 +32378,7 @@
         <v>44964</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32435,7 +32435,7 @@
         <v>44967</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32492,7 +32492,7 @@
         <v>44970</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32549,7 +32549,7 @@
         <v>44972</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32606,7 +32606,7 @@
         <v>44974</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32668,7 +32668,7 @@
         <v>44974</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32730,7 +32730,7 @@
         <v>44977</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32787,7 +32787,7 @@
         <v>44977</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32844,7 +32844,7 @@
         <v>44978</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32901,7 +32901,7 @@
         <v>44978</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32958,7 +32958,7 @@
         <v>44981</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33015,7 +33015,7 @@
         <v>44981</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33072,7 +33072,7 @@
         <v>44982</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33129,7 +33129,7 @@
         <v>44985</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         <v>44988</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33243,7 +33243,7 @@
         <v>44992</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33300,7 +33300,7 @@
         <v>44992</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33357,7 +33357,7 @@
         <v>44992</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33414,7 +33414,7 @@
         <v>44992</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33471,7 +33471,7 @@
         <v>44993</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33528,7 +33528,7 @@
         <v>44998</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33585,7 +33585,7 @@
         <v>45000</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33642,7 +33642,7 @@
         <v>45000</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33699,7 +33699,7 @@
         <v>45000</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33756,7 +33756,7 @@
         <v>45000</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33813,7 +33813,7 @@
         <v>45000</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33870,7 +33870,7 @@
         <v>45000</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33927,7 +33927,7 @@
         <v>45000</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33984,7 +33984,7 @@
         <v>45000</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34041,7 +34041,7 @@
         <v>45005</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34098,7 +34098,7 @@
         <v>45005</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34155,7 +34155,7 @@
         <v>45007</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34212,7 +34212,7 @@
         <v>45007</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34269,7 +34269,7 @@
         <v>45008</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34326,7 +34326,7 @@
         <v>45008</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34383,7 +34383,7 @@
         <v>45009</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34440,7 +34440,7 @@
         <v>45009</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34497,7 +34497,7 @@
         <v>45022</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34554,7 +34554,7 @@
         <v>45029</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34611,7 +34611,7 @@
         <v>45030</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34668,7 +34668,7 @@
         <v>45030</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34725,7 +34725,7 @@
         <v>45030</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34782,7 +34782,7 @@
         <v>45030</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34839,7 +34839,7 @@
         <v>45035</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34896,7 +34896,7 @@
         <v>45036</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34953,7 +34953,7 @@
         <v>45036</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35010,7 +35010,7 @@
         <v>45037</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35067,7 +35067,7 @@
         <v>45042</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35124,7 +35124,7 @@
         <v>45048</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35181,7 +35181,7 @@
         <v>45049</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35238,7 +35238,7 @@
         <v>45056</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35295,7 +35295,7 @@
         <v>45062</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35352,7 +35352,7 @@
         <v>45062</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35409,7 +35409,7 @@
         <v>45062</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35466,7 +35466,7 @@
         <v>45071</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35523,7 +35523,7 @@
         <v>45071</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35580,7 +35580,7 @@
         <v>45071</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35637,7 +35637,7 @@
         <v>45071</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35694,7 +35694,7 @@
         <v>45076</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35751,7 +35751,7 @@
         <v>45077</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35808,7 +35808,7 @@
         <v>45078</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35865,7 +35865,7 @@
         <v>45078</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35922,7 +35922,7 @@
         <v>45078</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35979,7 +35979,7 @@
         <v>45078</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36036,7 +36036,7 @@
         <v>45078</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36093,7 +36093,7 @@
         <v>45078</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36150,7 +36150,7 @@
         <v>45078</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36212,7 +36212,7 @@
         <v>45078</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36274,7 +36274,7 @@
         <v>45078</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36331,7 +36331,7 @@
         <v>45078</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36388,7 +36388,7 @@
         <v>45082</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36445,7 +36445,7 @@
         <v>45082</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36502,7 +36502,7 @@
         <v>45082</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36559,7 +36559,7 @@
         <v>45082</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36616,7 +36616,7 @@
         <v>45082</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36673,7 +36673,7 @@
         <v>45084</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36730,7 +36730,7 @@
         <v>45085</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36787,7 +36787,7 @@
         <v>45089</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36844,7 +36844,7 @@
         <v>45089</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36901,7 +36901,7 @@
         <v>45093</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36958,7 +36958,7 @@
         <v>45093</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37015,7 +37015,7 @@
         <v>45096</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37072,7 +37072,7 @@
         <v>45096</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37129,7 +37129,7 @@
         <v>45097</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         <v>45097</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         <v>45098</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37300,7 +37300,7 @@
         <v>45098</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37357,7 +37357,7 @@
         <v>45098</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37414,7 +37414,7 @@
         <v>45098</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37471,7 +37471,7 @@
         <v>45105</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37528,7 +37528,7 @@
         <v>45110</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37585,7 +37585,7 @@
         <v>45111</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37642,7 +37642,7 @@
         <v>45111</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37699,7 +37699,7 @@
         <v>45111</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37756,7 +37756,7 @@
         <v>45114</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37813,7 +37813,7 @@
         <v>45116</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37870,7 +37870,7 @@
         <v>45120</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37927,7 +37927,7 @@
         <v>45122</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37984,7 +37984,7 @@
         <v>45128</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38041,7 +38041,7 @@
         <v>45134</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38098,7 +38098,7 @@
         <v>45139</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38155,7 +38155,7 @@
         <v>45139</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38212,7 +38212,7 @@
         <v>45141</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38269,7 +38269,7 @@
         <v>45145</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38326,7 +38326,7 @@
         <v>45145</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38383,7 +38383,7 @@
         <v>45148</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38440,7 +38440,7 @@
         <v>45152</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38497,7 +38497,7 @@
         <v>45153</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38554,7 +38554,7 @@
         <v>45159</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         <v>45160</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38668,7 +38668,7 @@
         <v>45160</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38730,7 +38730,7 @@
         <v>45161</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38787,7 +38787,7 @@
         <v>45162</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38849,7 +38849,7 @@
         <v>45163</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38906,7 +38906,7 @@
         <v>45163</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38963,7 +38963,7 @@
         <v>45167</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39010,7 +39010,7 @@
       </c>
       <c r="R646" s="2" t="inlineStr"/>
     </row>
-    <row r="647">
+    <row r="647" ht="15" customHeight="1">
       <c r="A647" t="inlineStr">
         <is>
           <t>A 41231-2023</t>
@@ -39020,7 +39020,7 @@
         <v>45174</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39066,6 +39066,63 @@
         <v>0</v>
       </c>
       <c r="R647" s="2" t="inlineStr"/>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>A 42956-2023</t>
+        </is>
+      </c>
+      <c r="B648" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C648" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>KINDA</t>
+        </is>
+      </c>
+      <c r="G648" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H648" t="n">
+        <v>0</v>
+      </c>
+      <c r="I648" t="n">
+        <v>0</v>
+      </c>
+      <c r="J648" t="n">
+        <v>0</v>
+      </c>
+      <c r="K648" t="n">
+        <v>0</v>
+      </c>
+      <c r="L648" t="n">
+        <v>0</v>
+      </c>
+      <c r="M648" t="n">
+        <v>0</v>
+      </c>
+      <c r="N648" t="n">
+        <v>0</v>
+      </c>
+      <c r="O648" t="n">
+        <v>0</v>
+      </c>
+      <c r="P648" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q648" t="n">
+        <v>0</v>
+      </c>
+      <c r="R648" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KINDA.xlsx
+++ b/Översikt KINDA.xlsx
@@ -572,7 +572,7 @@
         <v>43345</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -644,31 +644,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 40360-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 40360-2018.xlsx", "A 40360-2018")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 40360-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 40360-2018.png", "A 40360-2018")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/knärot/A 40360-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/knärot/A 40360-2018.png", "A 40360-2018")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 40360-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 40360-2018.docx", "A 40360-2018")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 40360-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 40360-2018.docx", "A 40360-2018")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 40360-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 40360-2018.docx", "A 40360-2018")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 40360-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 40360-2018.docx", "A 40360-2018")</f>
         <v/>
       </c>
     </row>
@@ -682,7 +682,7 @@
         <v>44826</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,27 +751,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 41451-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 41451-2022.xlsx", "A 41451-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 41451-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 41451-2022.png", "A 41451-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 41451-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 41451-2022.docx", "A 41451-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 41451-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 41451-2022.docx", "A 41451-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 41451-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 41451-2022.docx", "A 41451-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 41451-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 41451-2022.docx", "A 41451-2022")</f>
         <v/>
       </c>
     </row>
@@ -785,7 +785,7 @@
         <v>44872</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,31 +853,31 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 51780-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 51780-2022.xlsx", "A 51780-2022")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 51780-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 51780-2022.png", "A 51780-2022")</f>
         <v/>
       </c>
       <c r="U4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/knärot/A 51780-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/knärot/A 51780-2022.png", "A 51780-2022")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 51780-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 51780-2022.docx", "A 51780-2022")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 51780-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 51780-2022.docx", "A 51780-2022")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 51780-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 51780-2022.docx", "A 51780-2022")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 51780-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 51780-2022.docx", "A 51780-2022")</f>
         <v/>
       </c>
     </row>
@@ -891,7 +891,7 @@
         <v>44575</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,31 +952,31 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 2054-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 2054-2022.xlsx", "A 2054-2022")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 2054-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 2054-2022.png", "A 2054-2022")</f>
         <v/>
       </c>
       <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/knärot/A 2054-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/knärot/A 2054-2022.png", "A 2054-2022")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 2054-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 2054-2022.docx", "A 2054-2022")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 2054-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 2054-2022.docx", "A 2054-2022")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 2054-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 2054-2022.docx", "A 2054-2022")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 2054-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 2054-2022.docx", "A 2054-2022")</f>
         <v/>
       </c>
     </row>
@@ -990,7 +990,7 @@
         <v>44575</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1046,31 +1046,31 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 2055-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 2055-2022.xlsx", "A 2055-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 2055-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 2055-2022.png", "A 2055-2022")</f>
         <v/>
       </c>
       <c r="U6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/knärot/A 2055-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/knärot/A 2055-2022.png", "A 2055-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 2055-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 2055-2022.docx", "A 2055-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 2055-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 2055-2022.docx", "A 2055-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 2055-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 2055-2022.docx", "A 2055-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 2055-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 2055-2022.docx", "A 2055-2022")</f>
         <v/>
       </c>
     </row>
@@ -1084,7 +1084,7 @@
         <v>44939</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,27 +1140,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 1999-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 1999-2023.xlsx", "A 1999-2023")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 1999-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 1999-2023.png", "A 1999-2023")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 1999-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 1999-2023.docx", "A 1999-2023")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 1999-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 1999-2023.docx", "A 1999-2023")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 1999-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 1999-2023.docx", "A 1999-2023")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 1999-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 1999-2023.docx", "A 1999-2023")</f>
         <v/>
       </c>
     </row>
@@ -1174,7 +1174,7 @@
         <v>44088</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,31 +1229,31 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 45008-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 45008-2020.xlsx", "A 45008-2020")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 45008-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 45008-2020.png", "A 45008-2020")</f>
         <v/>
       </c>
       <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/knärot/A 45008-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/knärot/A 45008-2020.png", "A 45008-2020")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 45008-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 45008-2020.docx", "A 45008-2020")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 45008-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 45008-2020.docx", "A 45008-2020")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 45008-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 45008-2020.docx", "A 45008-2020")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 45008-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 45008-2020.docx", "A 45008-2020")</f>
         <v/>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
         <v>44484</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,27 +1322,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 57617-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 57617-2021.xlsx", "A 57617-2021")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 57617-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 57617-2021.png", "A 57617-2021")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 57617-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 57617-2021.docx", "A 57617-2021")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 57617-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 57617-2021.docx", "A 57617-2021")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 57617-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 57617-2021.docx", "A 57617-2021")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 57617-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 57617-2021.docx", "A 57617-2021")</f>
         <v/>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
         <v>44974</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1411,27 +1411,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 8237-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 8237-2023.xlsx", "A 8237-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 8237-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 8237-2023.png", "A 8237-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 8237-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 8237-2023.docx", "A 8237-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 8237-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 8237-2023.docx", "A 8237-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 8237-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 8237-2023.docx", "A 8237-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 8237-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 8237-2023.docx", "A 8237-2023")</f>
         <v/>
       </c>
     </row>
@@ -1445,7 +1445,7 @@
         <v>44958</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1503,27 +1503,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 5119-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 5119-2023.xlsx", "A 5119-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 5119-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 5119-2023.png", "A 5119-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 5119-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 5119-2023.docx", "A 5119-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 5119-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 5119-2023.docx", "A 5119-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 5119-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 5119-2023.docx", "A 5119-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 5119-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 5119-2023.docx", "A 5119-2023")</f>
         <v/>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
         <v>43315</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1589,27 +1589,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 34072-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 34072-2018.xlsx", "A 34072-2018")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 34072-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 34072-2018.png", "A 34072-2018")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 34072-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 34072-2018.docx", "A 34072-2018")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 34072-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 34072-2018.docx", "A 34072-2018")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 34072-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 34072-2018.docx", "A 34072-2018")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 34072-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 34072-2018.docx", "A 34072-2018")</f>
         <v/>
       </c>
     </row>
@@ -1623,7 +1623,7 @@
         <v>43987</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1675,27 +1675,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 26562-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 26562-2020.xlsx", "A 26562-2020")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 26562-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 26562-2020.png", "A 26562-2020")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 26562-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 26562-2020.docx", "A 26562-2020")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 26562-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 26562-2020.docx", "A 26562-2020")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 26562-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 26562-2020.docx", "A 26562-2020")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 26562-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 26562-2020.docx", "A 26562-2020")</f>
         <v/>
       </c>
     </row>
@@ -1709,7 +1709,7 @@
         <v>44478</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1766,27 +1766,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 56243-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 56243-2021.xlsx", "A 56243-2021")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 56243-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 56243-2021.png", "A 56243-2021")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 56243-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 56243-2021.docx", "A 56243-2021")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 56243-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 56243-2021.docx", "A 56243-2021")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 56243-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 56243-2021.docx", "A 56243-2021")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 56243-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 56243-2021.docx", "A 56243-2021")</f>
         <v/>
       </c>
     </row>
@@ -1800,7 +1800,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1851,27 +1851,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 34574-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 34574-2018.xlsx", "A 34574-2018")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 34574-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 34574-2018.png", "A 34574-2018")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 34574-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 34574-2018.docx", "A 34574-2018")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 34574-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 34574-2018.docx", "A 34574-2018")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 34574-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 34574-2018.docx", "A 34574-2018")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 34574-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 34574-2018.docx", "A 34574-2018")</f>
         <v/>
       </c>
     </row>
@@ -1885,7 +1885,7 @@
         <v>43353</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1936,27 +1936,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 42415-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 42415-2018.xlsx", "A 42415-2018")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 42415-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 42415-2018.png", "A 42415-2018")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 42415-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 42415-2018.docx", "A 42415-2018")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 42415-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 42415-2018.docx", "A 42415-2018")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 42415-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 42415-2018.docx", "A 42415-2018")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 42415-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 42415-2018.docx", "A 42415-2018")</f>
         <v/>
       </c>
     </row>
@@ -1970,7 +1970,7 @@
         <v>43474</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2021,27 +2021,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 1679-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 1679-2019.xlsx", "A 1679-2019")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 1679-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 1679-2019.png", "A 1679-2019")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 1679-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 1679-2019.docx", "A 1679-2019")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 1679-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 1679-2019.docx", "A 1679-2019")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 1679-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 1679-2019.docx", "A 1679-2019")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 1679-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 1679-2019.docx", "A 1679-2019")</f>
         <v/>
       </c>
     </row>
@@ -2055,7 +2055,7 @@
         <v>43475</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2106,27 +2106,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 2180-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 2180-2019.xlsx", "A 2180-2019")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 2180-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 2180-2019.png", "A 2180-2019")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 2180-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 2180-2019.docx", "A 2180-2019")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 2180-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 2180-2019.docx", "A 2180-2019")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 2180-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 2180-2019.docx", "A 2180-2019")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 2180-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 2180-2019.docx", "A 2180-2019")</f>
         <v/>
       </c>
     </row>
@@ -2140,7 +2140,7 @@
         <v>43523</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2191,27 +2191,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 12321-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 12321-2019.xlsx", "A 12321-2019")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 12321-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 12321-2019.png", "A 12321-2019")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 12321-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 12321-2019.docx", "A 12321-2019")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 12321-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 12321-2019.docx", "A 12321-2019")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 12321-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 12321-2019.docx", "A 12321-2019")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 12321-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 12321-2019.docx", "A 12321-2019")</f>
         <v/>
       </c>
     </row>
@@ -2225,7 +2225,7 @@
         <v>43524</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2276,27 +2276,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 12638-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 12638-2019.xlsx", "A 12638-2019")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 12638-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 12638-2019.png", "A 12638-2019")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 12638-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 12638-2019.docx", "A 12638-2019")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 12638-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 12638-2019.docx", "A 12638-2019")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 12638-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 12638-2019.docx", "A 12638-2019")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 12638-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 12638-2019.docx", "A 12638-2019")</f>
         <v/>
       </c>
     </row>
@@ -2310,7 +2310,7 @@
         <v>43531</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2361,31 +2361,31 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 13899-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 13899-2019.xlsx", "A 13899-2019")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 13899-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 13899-2019.png", "A 13899-2019")</f>
         <v/>
       </c>
       <c r="U21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/knärot/A 13899-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/knärot/A 13899-2019.png", "A 13899-2019")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 13899-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 13899-2019.docx", "A 13899-2019")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 13899-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 13899-2019.docx", "A 13899-2019")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 13899-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 13899-2019.docx", "A 13899-2019")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 13899-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 13899-2019.docx", "A 13899-2019")</f>
         <v/>
       </c>
     </row>
@@ -2399,7 +2399,7 @@
         <v>43585</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2450,27 +2450,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 22210-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 22210-2019.xlsx", "A 22210-2019")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 22210-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 22210-2019.png", "A 22210-2019")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 22210-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 22210-2019.docx", "A 22210-2019")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 22210-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 22210-2019.docx", "A 22210-2019")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 22210-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 22210-2019.docx", "A 22210-2019")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 22210-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 22210-2019.docx", "A 22210-2019")</f>
         <v/>
       </c>
     </row>
@@ -2484,7 +2484,7 @@
         <v>43807</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2535,27 +2535,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 66093-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 66093-2019.xlsx", "A 66093-2019")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 66093-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 66093-2019.png", "A 66093-2019")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 66093-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 66093-2019.docx", "A 66093-2019")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 66093-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 66093-2019.docx", "A 66093-2019")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 66093-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 66093-2019.docx", "A 66093-2019")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 66093-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 66093-2019.docx", "A 66093-2019")</f>
         <v/>
       </c>
     </row>
@@ -2569,7 +2569,7 @@
         <v>43809</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2620,27 +2620,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 67658-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 67658-2019.xlsx", "A 67658-2019")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 67658-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 67658-2019.png", "A 67658-2019")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 67658-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 67658-2019.docx", "A 67658-2019")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 67658-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 67658-2019.docx", "A 67658-2019")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 67658-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 67658-2019.docx", "A 67658-2019")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 67658-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 67658-2019.docx", "A 67658-2019")</f>
         <v/>
       </c>
     </row>
@@ -2654,7 +2654,7 @@
         <v>43879</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2710,27 +2710,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 9074-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 9074-2020.xlsx", "A 9074-2020")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 9074-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 9074-2020.png", "A 9074-2020")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 9074-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 9074-2020.docx", "A 9074-2020")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 9074-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 9074-2020.docx", "A 9074-2020")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 9074-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 9074-2020.docx", "A 9074-2020")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 9074-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 9074-2020.docx", "A 9074-2020")</f>
         <v/>
       </c>
     </row>
@@ -2744,7 +2744,7 @@
         <v>43990</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2800,27 +2800,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 26728-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 26728-2020.xlsx", "A 26728-2020")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 26728-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 26728-2020.png", "A 26728-2020")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 26728-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 26728-2020.docx", "A 26728-2020")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 26728-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 26728-2020.docx", "A 26728-2020")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 26728-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 26728-2020.docx", "A 26728-2020")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 26728-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 26728-2020.docx", "A 26728-2020")</f>
         <v/>
       </c>
     </row>
@@ -2834,7 +2834,7 @@
         <v>44092</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2885,31 +2885,31 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 47233-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 47233-2020.xlsx", "A 47233-2020")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 47233-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 47233-2020.png", "A 47233-2020")</f>
         <v/>
       </c>
       <c r="U27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/knärot/A 47233-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/knärot/A 47233-2020.png", "A 47233-2020")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 47233-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 47233-2020.docx", "A 47233-2020")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 47233-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 47233-2020.docx", "A 47233-2020")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 47233-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 47233-2020.docx", "A 47233-2020")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 47233-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 47233-2020.docx", "A 47233-2020")</f>
         <v/>
       </c>
     </row>
@@ -2923,7 +2923,7 @@
         <v>44235</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2979,27 +2979,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 6428-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 6428-2021.xlsx", "A 6428-2021")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 6428-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 6428-2021.png", "A 6428-2021")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 6428-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 6428-2021.docx", "A 6428-2021")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 6428-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 6428-2021.docx", "A 6428-2021")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 6428-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 6428-2021.docx", "A 6428-2021")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 6428-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 6428-2021.docx", "A 6428-2021")</f>
         <v/>
       </c>
     </row>
@@ -3013,7 +3013,7 @@
         <v>44342</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3064,27 +3064,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 25288-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 25288-2021.xlsx", "A 25288-2021")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 25288-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 25288-2021.png", "A 25288-2021")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 25288-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 25288-2021.docx", "A 25288-2021")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 25288-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 25288-2021.docx", "A 25288-2021")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 25288-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 25288-2021.docx", "A 25288-2021")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 25288-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 25288-2021.docx", "A 25288-2021")</f>
         <v/>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
         <v>44418</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3149,27 +3149,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 40100-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 40100-2021.xlsx", "A 40100-2021")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 40100-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 40100-2021.png", "A 40100-2021")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 40100-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 40100-2021.docx", "A 40100-2021")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 40100-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 40100-2021.docx", "A 40100-2021")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 40100-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 40100-2021.docx", "A 40100-2021")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 40100-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 40100-2021.docx", "A 40100-2021")</f>
         <v/>
       </c>
     </row>
@@ -3183,7 +3183,7 @@
         <v>44419</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3234,27 +3234,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 40463-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 40463-2021.xlsx", "A 40463-2021")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 40463-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 40463-2021.png", "A 40463-2021")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 40463-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 40463-2021.docx", "A 40463-2021")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 40463-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 40463-2021.docx", "A 40463-2021")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 40463-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 40463-2021.docx", "A 40463-2021")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 40463-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 40463-2021.docx", "A 40463-2021")</f>
         <v/>
       </c>
     </row>
@@ -3268,7 +3268,7 @@
         <v>44435</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3319,27 +3319,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 44552-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 44552-2021.xlsx", "A 44552-2021")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 44552-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 44552-2021.png", "A 44552-2021")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 44552-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 44552-2021.docx", "A 44552-2021")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 44552-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 44552-2021.docx", "A 44552-2021")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 44552-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 44552-2021.docx", "A 44552-2021")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 44552-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 44552-2021.docx", "A 44552-2021")</f>
         <v/>
       </c>
     </row>
@@ -3353,7 +3353,7 @@
         <v>44483</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3404,27 +3404,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 57456-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 57456-2021.xlsx", "A 57456-2021")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 57456-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 57456-2021.png", "A 57456-2021")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 57456-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 57456-2021.docx", "A 57456-2021")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 57456-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 57456-2021.docx", "A 57456-2021")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 57456-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 57456-2021.docx", "A 57456-2021")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 57456-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 57456-2021.docx", "A 57456-2021")</f>
         <v/>
       </c>
     </row>
@@ -3438,7 +3438,7 @@
         <v>44636</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3494,27 +3494,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 12170-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 12170-2022.xlsx", "A 12170-2022")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 12170-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 12170-2022.png", "A 12170-2022")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 12170-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 12170-2022.docx", "A 12170-2022")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 12170-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 12170-2022.docx", "A 12170-2022")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 12170-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 12170-2022.docx", "A 12170-2022")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 12170-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 12170-2022.docx", "A 12170-2022")</f>
         <v/>
       </c>
     </row>
@@ -3528,7 +3528,7 @@
         <v>44642</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3579,27 +3579,27 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 12801-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 12801-2022.xlsx", "A 12801-2022")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 12801-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 12801-2022.png", "A 12801-2022")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 12801-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 12801-2022.docx", "A 12801-2022")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 12801-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 12801-2022.docx", "A 12801-2022")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 12801-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 12801-2022.docx", "A 12801-2022")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 12801-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 12801-2022.docx", "A 12801-2022")</f>
         <v/>
       </c>
     </row>
@@ -3613,7 +3613,7 @@
         <v>44690</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3669,27 +3669,27 @@
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 18898-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 18898-2022.xlsx", "A 18898-2022")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 18898-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 18898-2022.png", "A 18898-2022")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 18898-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 18898-2022.docx", "A 18898-2022")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 18898-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 18898-2022.docx", "A 18898-2022")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 18898-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 18898-2022.docx", "A 18898-2022")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 18898-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 18898-2022.docx", "A 18898-2022")</f>
         <v/>
       </c>
     </row>
@@ -3703,7 +3703,7 @@
         <v>44706</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3754,27 +3754,27 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 21473-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 21473-2022.xlsx", "A 21473-2022")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 21473-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 21473-2022.png", "A 21473-2022")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 21473-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 21473-2022.docx", "A 21473-2022")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 21473-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 21473-2022.docx", "A 21473-2022")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 21473-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 21473-2022.docx", "A 21473-2022")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 21473-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 21473-2022.docx", "A 21473-2022")</f>
         <v/>
       </c>
     </row>
@@ -3788,7 +3788,7 @@
         <v>44754</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3839,27 +3839,27 @@
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 29627-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 29627-2022.xlsx", "A 29627-2022")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 29627-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 29627-2022.png", "A 29627-2022")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 29627-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 29627-2022.docx", "A 29627-2022")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 29627-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 29627-2022.docx", "A 29627-2022")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 29627-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 29627-2022.docx", "A 29627-2022")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 29627-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 29627-2022.docx", "A 29627-2022")</f>
         <v/>
       </c>
     </row>
@@ -3873,7 +3873,7 @@
         <v>44801</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3924,31 +3924,31 @@
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 35787-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 35787-2022.xlsx", "A 35787-2022")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 35787-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 35787-2022.png", "A 35787-2022")</f>
         <v/>
       </c>
       <c r="U39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/knärot/A 35787-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/knärot/A 35787-2022.png", "A 35787-2022")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 35787-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 35787-2022.docx", "A 35787-2022")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 35787-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 35787-2022.docx", "A 35787-2022")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 35787-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 35787-2022.docx", "A 35787-2022")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 35787-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 35787-2022.docx", "A 35787-2022")</f>
         <v/>
       </c>
     </row>
@@ -3962,7 +3962,7 @@
         <v>44866</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4018,27 +4018,27 @@
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 50514-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 50514-2022.xlsx", "A 50514-2022")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 50514-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 50514-2022.png", "A 50514-2022")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 50514-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 50514-2022.docx", "A 50514-2022")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 50514-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 50514-2022.docx", "A 50514-2022")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 50514-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 50514-2022.docx", "A 50514-2022")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 50514-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 50514-2022.docx", "A 50514-2022")</f>
         <v/>
       </c>
     </row>
@@ -4052,7 +4052,7 @@
         <v>44960</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4103,31 +4103,31 @@
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 5668-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 5668-2023.xlsx", "A 5668-2023")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 5668-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 5668-2023.png", "A 5668-2023")</f>
         <v/>
       </c>
       <c r="U41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/knärot/A 5668-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/knärot/A 5668-2023.png", "A 5668-2023")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 5668-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 5668-2023.docx", "A 5668-2023")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 5668-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 5668-2023.docx", "A 5668-2023")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 5668-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 5668-2023.docx", "A 5668-2023")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 5668-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 5668-2023.docx", "A 5668-2023")</f>
         <v/>
       </c>
     </row>
@@ -4141,7 +4141,7 @@
         <v>44974</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4192,31 +4192,31 @@
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 8236-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 8236-2023.xlsx", "A 8236-2023")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 8236-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 8236-2023.png", "A 8236-2023")</f>
         <v/>
       </c>
       <c r="U42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/knärot/A 8236-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/knärot/A 8236-2023.png", "A 8236-2023")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 8236-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 8236-2023.docx", "A 8236-2023")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 8236-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 8236-2023.docx", "A 8236-2023")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 8236-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 8236-2023.docx", "A 8236-2023")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 8236-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 8236-2023.docx", "A 8236-2023")</f>
         <v/>
       </c>
     </row>
@@ -4230,7 +4230,7 @@
         <v>45049</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4281,27 +4281,27 @@
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 19360-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 19360-2023.xlsx", "A 19360-2023")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 19360-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 19360-2023.png", "A 19360-2023")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 19360-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 19360-2023.docx", "A 19360-2023")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 19360-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 19360-2023.docx", "A 19360-2023")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 19360-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 19360-2023.docx", "A 19360-2023")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 19360-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 19360-2023.docx", "A 19360-2023")</f>
         <v/>
       </c>
     </row>
@@ -4315,7 +4315,7 @@
         <v>45093</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4366,27 +4366,27 @@
         </is>
       </c>
       <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 26808-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 26808-2023.xlsx", "A 26808-2023")</f>
         <v/>
       </c>
       <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 26808-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 26808-2023.png", "A 26808-2023")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 26808-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 26808-2023.docx", "A 26808-2023")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 26808-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 26808-2023.docx", "A 26808-2023")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 26808-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 26808-2023.docx", "A 26808-2023")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 26808-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 26808-2023.docx", "A 26808-2023")</f>
         <v/>
       </c>
     </row>
@@ -4400,7 +4400,7 @@
         <v>45093</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4451,27 +4451,27 @@
         </is>
       </c>
       <c r="S45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 26812-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 26812-2023.xlsx", "A 26812-2023")</f>
         <v/>
       </c>
       <c r="T45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 26812-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 26812-2023.png", "A 26812-2023")</f>
         <v/>
       </c>
       <c r="V45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 26812-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 26812-2023.docx", "A 26812-2023")</f>
         <v/>
       </c>
       <c r="W45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 26812-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 26812-2023.docx", "A 26812-2023")</f>
         <v/>
       </c>
       <c r="X45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 26812-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 26812-2023.docx", "A 26812-2023")</f>
         <v/>
       </c>
       <c r="Y45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 26812-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 26812-2023.docx", "A 26812-2023")</f>
         <v/>
       </c>
     </row>
@@ -4485,7 +4485,7 @@
         <v>45093</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4536,27 +4536,27 @@
         </is>
       </c>
       <c r="S46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 26800-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/artfynd/A 26800-2023.xlsx", "A 26800-2023")</f>
         <v/>
       </c>
       <c r="T46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 26800-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/kartor/A 26800-2023.png", "A 26800-2023")</f>
         <v/>
       </c>
       <c r="V46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 26800-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 26800-2023.docx", "A 26800-2023")</f>
         <v/>
       </c>
       <c r="W46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 26800-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 26800-2023.docx", "A 26800-2023")</f>
         <v/>
       </c>
       <c r="X46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 26800-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 26800-2023.docx", "A 26800-2023")</f>
         <v/>
       </c>
       <c r="Y46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 26800-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 26800-2023.docx", "A 26800-2023")</f>
         <v/>
       </c>
     </row>
@@ -4570,7 +4570,7 @@
         <v>43320</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43321</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43321</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43325</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43328</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43335</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43336</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43336</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43340</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43341</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43346</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43348</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43355</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43356</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>43356</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43357</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43368</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>43375</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43376</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>43383</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>43385</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>43388</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43395</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43395</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43402</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43402</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43402</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>43402</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>43402</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>43406</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>43411</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>43412</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43414</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43419</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43423</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43423</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         <v>43424</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43426</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43438</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43440</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>43441</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43441</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43441</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>43441</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43441</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43445</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>43445</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>43446</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43446</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43454</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43454</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43467</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43467</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43468</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43468</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>43473</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>43474</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>43475</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>43475</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43481</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43481</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>43482</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>43487</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>43487</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>43487</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>43488</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>43489</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>43493</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>43494</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>43496</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>43496</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>43501</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>43506</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>43508</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>43511</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>43514</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>43515</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>43517</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>43528</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43528</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>43530</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>43533</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>43542</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>43542</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>43543</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>43557</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>43558</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>43563</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>43563</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>43573</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>43578</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>43579</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>43579</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>43580</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>43584</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>43584</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>43588</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>43589</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>43593</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>43594</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>43595</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>43599</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>43600</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10600,7 +10600,7 @@
         <v>43602</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10657,7 +10657,7 @@
         <v>43608</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10714,7 +10714,7 @@
         <v>43612</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>43612</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>43619</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>43619</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>43621</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>43621</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>43626</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>43626</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>43634</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>43634</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>43636</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>43644</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>43647</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>43647</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>43649</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>43649</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43651</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>43657</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>43657</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11797,7 +11797,7 @@
         <v>43657</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         <v>43661</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11911,7 +11911,7 @@
         <v>43672</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11968,7 +11968,7 @@
         <v>43679</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43682</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>43683</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12139,7 +12139,7 @@
         <v>43685</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         <v>43689</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         <v>43689</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>43689</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>43691</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12424,7 +12424,7 @@
         <v>43696</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12481,7 +12481,7 @@
         <v>43696</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>43696</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>43698</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>43698</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>43698</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>43699</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         <v>43702</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12880,7 +12880,7 @@
         <v>43703</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
         <v>43705</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12994,7 +12994,7 @@
         <v>43706</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>43707</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>43707</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>43710</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13222,7 +13222,7 @@
         <v>43711</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>43712</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>43714</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43714</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43717</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43719</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43719</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43721</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>43725</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13745,7 +13745,7 @@
         <v>43727</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>43727</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>43727</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>43731</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>43735</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14030,7 +14030,7 @@
         <v>43740</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14087,7 +14087,7 @@
         <v>43742</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>43748</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         <v>43748</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>43756</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>43762</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>43762</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14429,7 +14429,7 @@
         <v>43765</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>43766</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>43767</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>43767</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>43767</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>43767</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>43773</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>43773</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14890,7 +14890,7 @@
         <v>43773</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14947,7 +14947,7 @@
         <v>43775</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         <v>43781</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>43782</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>43782</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>43787</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>43795</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>43795</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>43796</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15403,7 +15403,7 @@
         <v>43796</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15460,7 +15460,7 @@
         <v>43796</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
         <v>43803</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>43809</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15631,7 +15631,7 @@
         <v>43811</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15688,7 +15688,7 @@
         <v>43840</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>43843</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15802,7 +15802,7 @@
         <v>43850</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         <v>43852</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>43858</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>43858</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         <v>43858</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>43858</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>43860</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>43860</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>43860</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>43860</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>43865</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>43866</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>43868</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>43868</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>43868</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>43868</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>43871</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>43871</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>43871</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>43871</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>43879</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17024,7 +17024,7 @@
         <v>43882</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17081,7 +17081,7 @@
         <v>43885</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
         <v>43886</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>43892</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>43893</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>43893</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>43910</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17423,7 +17423,7 @@
         <v>43914</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17480,7 +17480,7 @@
         <v>43915</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17537,7 +17537,7 @@
         <v>43917</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17594,7 +17594,7 @@
         <v>43923</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17651,7 +17651,7 @@
         <v>43924</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17708,7 +17708,7 @@
         <v>43930</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>43936</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17827,7 +17827,7 @@
         <v>43936</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17889,7 +17889,7 @@
         <v>43937</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>43938</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>43941</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>43956</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18127,7 +18127,7 @@
         <v>43956</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18184,7 +18184,7 @@
         <v>43956</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18241,7 +18241,7 @@
         <v>43956</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>43956</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>43957</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>43957</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>43976</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>43977</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18593,7 +18593,7 @@
         <v>43977</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18650,7 +18650,7 @@
         <v>43980</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>43980</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>43980</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18821,7 +18821,7 @@
         <v>43990</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         <v>44000</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18945,7 +18945,7 @@
         <v>44007</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>44008</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>44011</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>44015</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>44026</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19240,7 +19240,7 @@
         <v>44029</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19297,7 +19297,7 @@
         <v>44034</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19354,7 +19354,7 @@
         <v>44039</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>44039</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         <v>44047</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44049</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44053</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44057</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44063</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44063</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44063</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44067</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44068</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44069</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44076</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44077</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>44078</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>44084</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>44084</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20333,7 +20333,7 @@
         <v>44088</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         <v>44089</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20457,7 +20457,7 @@
         <v>44090</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20514,7 +20514,7 @@
         <v>44092</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20571,7 +20571,7 @@
         <v>44095</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20628,7 +20628,7 @@
         <v>44099</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>44100</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20752,7 +20752,7 @@
         <v>44104</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
         <v>44105</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         <v>44112</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20923,7 +20923,7 @@
         <v>44112</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20980,7 +20980,7 @@
         <v>44112</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>44112</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>44112</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>44113</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>44120</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>44123</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         <v>44123</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21379,7 +21379,7 @@
         <v>44124</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
         <v>44125</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21493,7 +21493,7 @@
         <v>44130</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>44140</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21607,7 +21607,7 @@
         <v>44144</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         <v>44160</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>44161</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21778,7 +21778,7 @@
         <v>44164</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>44165</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21892,7 +21892,7 @@
         <v>44167</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
         <v>44168</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44168</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44171</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44171</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44187</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>44203</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>44203</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44203</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44207</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44215</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44216</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44218</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
         <v>44221</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44223</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44223</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44236</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44239</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44242</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44243</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44244</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44249</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44249</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44252</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44258</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44266</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44267</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44272</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44274</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44278</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23607,7 +23607,7 @@
         <v>44284</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23664,7 +23664,7 @@
         <v>44294</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23721,7 +23721,7 @@
         <v>44308</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23778,7 +23778,7 @@
         <v>44309</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>44309</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>44314</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>44316</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24006,7 +24006,7 @@
         <v>44319</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
         <v>44319</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24120,7 +24120,7 @@
         <v>44322</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24177,7 +24177,7 @@
         <v>44323</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24234,7 +24234,7 @@
         <v>44326</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24291,7 +24291,7 @@
         <v>44334</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>44335</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>44337</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>44337</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>44354</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>44357</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>44357</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>44362</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>44375</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24794,23 +24794,23 @@
       </c>
       <c r="R398" s="2" t="inlineStr"/>
       <c r="U398">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/knärot/A 32781-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/knärot/A 32781-2021.png", "A 32781-2021")</f>
         <v/>
       </c>
       <c r="V398">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 32781-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomål/A 32781-2021.docx", "A 32781-2021")</f>
         <v/>
       </c>
       <c r="W398">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 32781-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/klagomålsmail/A 32781-2021.docx", "A 32781-2021")</f>
         <v/>
       </c>
       <c r="X398">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 32781-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsyn/A 32781-2021.docx", "A 32781-2021")</f>
         <v/>
       </c>
       <c r="Y398">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 32781-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KINDA/tillsynsmail/A 32781-2021.docx", "A 32781-2021")</f>
         <v/>
       </c>
     </row>
@@ -24824,7 +24824,7 @@
         <v>44379</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>44379</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24938,7 +24938,7 @@
         <v>44379</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24995,7 +24995,7 @@
         <v>44379</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25052,7 +25052,7 @@
         <v>44379</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25109,7 +25109,7 @@
         <v>44382</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25166,7 +25166,7 @@
         <v>44392</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25223,7 +25223,7 @@
         <v>44411</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44411</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44416</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44418</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44419</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44419</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44425</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25627,7 +25627,7 @@
         <v>44425</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25684,7 +25684,7 @@
         <v>44425</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25741,7 +25741,7 @@
         <v>44433</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25798,7 +25798,7 @@
         <v>44433</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25855,7 +25855,7 @@
         <v>44434</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25917,7 +25917,7 @@
         <v>44435</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25974,7 +25974,7 @@
         <v>44439</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26031,7 +26031,7 @@
         <v>44445</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26088,7 +26088,7 @@
         <v>44446</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26145,7 +26145,7 @@
         <v>44446</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26202,7 +26202,7 @@
         <v>44447</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26259,7 +26259,7 @@
         <v>44452</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26321,7 +26321,7 @@
         <v>44454</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26378,7 +26378,7 @@
         <v>44456</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26435,7 +26435,7 @@
         <v>44460</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26492,7 +26492,7 @@
         <v>44462</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26554,7 +26554,7 @@
         <v>44463</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26611,7 +26611,7 @@
         <v>44463</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26668,7 +26668,7 @@
         <v>44465</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26725,7 +26725,7 @@
         <v>44469</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26782,7 +26782,7 @@
         <v>44469</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26839,7 +26839,7 @@
         <v>44481</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26896,7 +26896,7 @@
         <v>44483</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26953,7 +26953,7 @@
         <v>44483</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27010,7 +27010,7 @@
         <v>44484</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27067,7 +27067,7 @@
         <v>44484</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27124,7 +27124,7 @@
         <v>44484</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27181,7 +27181,7 @@
         <v>44486</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27238,7 +27238,7 @@
         <v>44497</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27295,7 +27295,7 @@
         <v>44500</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27352,7 +27352,7 @@
         <v>44501</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27409,7 +27409,7 @@
         <v>44502</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27466,7 +27466,7 @@
         <v>44505</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         <v>44517</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27580,7 +27580,7 @@
         <v>44525</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27637,7 +27637,7 @@
         <v>44560</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27694,7 +27694,7 @@
         <v>44575</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27751,7 +27751,7 @@
         <v>44578</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27808,7 +27808,7 @@
         <v>44585</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27865,7 +27865,7 @@
         <v>44587</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27922,7 +27922,7 @@
         <v>44587</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27979,7 +27979,7 @@
         <v>44587</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28036,7 +28036,7 @@
         <v>44589</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28093,7 +28093,7 @@
         <v>44594</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28150,7 +28150,7 @@
         <v>44599</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28207,7 +28207,7 @@
         <v>44600</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28264,7 +28264,7 @@
         <v>44627</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28321,7 +28321,7 @@
         <v>44644</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28378,7 +28378,7 @@
         <v>44645</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28435,7 +28435,7 @@
         <v>44657</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28492,7 +28492,7 @@
         <v>44677</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28549,7 +28549,7 @@
         <v>44677</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28606,7 +28606,7 @@
         <v>44687</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28663,7 +28663,7 @@
         <v>44697</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28720,7 +28720,7 @@
         <v>44699</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28777,7 +28777,7 @@
         <v>44701</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28834,7 +28834,7 @@
         <v>44720</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         <v>44729</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28948,7 +28948,7 @@
         <v>44732</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29005,7 +29005,7 @@
         <v>44742</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29062,7 +29062,7 @@
         <v>44776</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29119,7 +29119,7 @@
         <v>44782</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29176,7 +29176,7 @@
         <v>44795</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29233,7 +29233,7 @@
         <v>44799</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29290,7 +29290,7 @@
         <v>44801</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29347,7 +29347,7 @@
         <v>44802</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29404,7 +29404,7 @@
         <v>44805</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29461,7 +29461,7 @@
         <v>44820</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29518,7 +29518,7 @@
         <v>44826</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29575,7 +29575,7 @@
         <v>44830</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29632,7 +29632,7 @@
         <v>44837</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29689,7 +29689,7 @@
         <v>44846</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         <v>44851</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29803,7 +29803,7 @@
         <v>44851</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29860,7 +29860,7 @@
         <v>44852</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29917,7 +29917,7 @@
         <v>44852</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29974,7 +29974,7 @@
         <v>44854</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30031,7 +30031,7 @@
         <v>44860</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30088,7 +30088,7 @@
         <v>44861</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30145,7 +30145,7 @@
         <v>44865</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30207,7 +30207,7 @@
         <v>44868</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30264,7 +30264,7 @@
         <v>44868</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30321,7 +30321,7 @@
         <v>44873</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30378,7 +30378,7 @@
         <v>44874</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30435,7 +30435,7 @@
         <v>44882</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30492,7 +30492,7 @@
         <v>44882</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30549,7 +30549,7 @@
         <v>44882</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30606,7 +30606,7 @@
         <v>44882</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30663,7 +30663,7 @@
         <v>44882</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30720,7 +30720,7 @@
         <v>44886</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30777,7 +30777,7 @@
         <v>44886</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30834,7 +30834,7 @@
         <v>44886</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30891,7 +30891,7 @@
         <v>44890</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30953,7 +30953,7 @@
         <v>44907</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31010,7 +31010,7 @@
         <v>44918</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31067,7 +31067,7 @@
         <v>44918</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31124,7 +31124,7 @@
         <v>44935</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31181,7 +31181,7 @@
         <v>44937</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31238,7 +31238,7 @@
         <v>44937</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31295,7 +31295,7 @@
         <v>44937</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31352,7 +31352,7 @@
         <v>44949</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31409,7 +31409,7 @@
         <v>44951</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31466,7 +31466,7 @@
         <v>44952</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31523,7 +31523,7 @@
         <v>44952</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31580,7 +31580,7 @@
         <v>44952</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31637,7 +31637,7 @@
         <v>44952</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31694,7 +31694,7 @@
         <v>44952</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31751,7 +31751,7 @@
         <v>44952</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31808,7 +31808,7 @@
         <v>44952</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31865,7 +31865,7 @@
         <v>44953</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31922,7 +31922,7 @@
         <v>44953</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31979,7 +31979,7 @@
         <v>44956</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32036,7 +32036,7 @@
         <v>44956</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32093,7 +32093,7 @@
         <v>44958</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32150,7 +32150,7 @@
         <v>44960</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32207,7 +32207,7 @@
         <v>44963</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32264,7 +32264,7 @@
         <v>44963</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32321,7 +32321,7 @@
         <v>44963</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32378,7 +32378,7 @@
         <v>44964</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32435,7 +32435,7 @@
         <v>44967</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32492,7 +32492,7 @@
         <v>44970</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32549,7 +32549,7 @@
         <v>44972</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32606,7 +32606,7 @@
         <v>44974</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32668,7 +32668,7 @@
         <v>44974</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32730,7 +32730,7 @@
         <v>44977</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32787,7 +32787,7 @@
         <v>44977</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32844,7 +32844,7 @@
         <v>44978</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32901,7 +32901,7 @@
         <v>44978</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32958,7 +32958,7 @@
         <v>44981</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33015,7 +33015,7 @@
         <v>44981</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33072,7 +33072,7 @@
         <v>44982</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33129,7 +33129,7 @@
         <v>44985</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         <v>44988</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33243,7 +33243,7 @@
         <v>44992</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33300,7 +33300,7 @@
         <v>44992</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33357,7 +33357,7 @@
         <v>44992</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33414,7 +33414,7 @@
         <v>44992</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33471,7 +33471,7 @@
         <v>44993</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33528,7 +33528,7 @@
         <v>44998</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33585,7 +33585,7 @@
         <v>45000</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33642,7 +33642,7 @@
         <v>45000</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33699,7 +33699,7 @@
         <v>45000</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33756,7 +33756,7 @@
         <v>45000</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33813,7 +33813,7 @@
         <v>45000</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33870,7 +33870,7 @@
         <v>45000</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33927,7 +33927,7 @@
         <v>45000</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33984,7 +33984,7 @@
         <v>45000</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34041,7 +34041,7 @@
         <v>45005</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34098,7 +34098,7 @@
         <v>45005</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34155,7 +34155,7 @@
         <v>45007</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34212,7 +34212,7 @@
         <v>45007</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34269,7 +34269,7 @@
         <v>45008</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34326,7 +34326,7 @@
         <v>45008</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34383,7 +34383,7 @@
         <v>45009</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34440,7 +34440,7 @@
         <v>45009</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34497,7 +34497,7 @@
         <v>45022</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34554,7 +34554,7 @@
         <v>45029</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34611,7 +34611,7 @@
         <v>45030</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34668,7 +34668,7 @@
         <v>45030</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34725,7 +34725,7 @@
         <v>45030</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34782,7 +34782,7 @@
         <v>45030</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34839,7 +34839,7 @@
         <v>45035</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34896,7 +34896,7 @@
         <v>45036</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34953,7 +34953,7 @@
         <v>45036</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35010,7 +35010,7 @@
         <v>45037</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35067,7 +35067,7 @@
         <v>45042</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35124,7 +35124,7 @@
         <v>45048</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35181,7 +35181,7 @@
         <v>45049</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35238,7 +35238,7 @@
         <v>45056</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35295,7 +35295,7 @@
         <v>45062</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35352,7 +35352,7 @@
         <v>45062</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35409,7 +35409,7 @@
         <v>45062</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35466,7 +35466,7 @@
         <v>45071</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35523,7 +35523,7 @@
         <v>45071</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35580,7 +35580,7 @@
         <v>45071</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35637,7 +35637,7 @@
         <v>45071</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35694,7 +35694,7 @@
         <v>45076</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35751,7 +35751,7 @@
         <v>45077</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35808,7 +35808,7 @@
         <v>45078</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35865,7 +35865,7 @@
         <v>45078</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35922,7 +35922,7 @@
         <v>45078</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35979,7 +35979,7 @@
         <v>45078</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36036,7 +36036,7 @@
         <v>45078</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36093,7 +36093,7 @@
         <v>45078</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36150,7 +36150,7 @@
         <v>45078</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36212,7 +36212,7 @@
         <v>45078</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36274,7 +36274,7 @@
         <v>45078</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36331,7 +36331,7 @@
         <v>45078</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36388,7 +36388,7 @@
         <v>45082</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36445,7 +36445,7 @@
         <v>45082</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36502,7 +36502,7 @@
         <v>45082</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36559,7 +36559,7 @@
         <v>45082</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36616,7 +36616,7 @@
         <v>45082</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36673,7 +36673,7 @@
         <v>45084</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36730,7 +36730,7 @@
         <v>45085</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36787,7 +36787,7 @@
         <v>45089</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36844,7 +36844,7 @@
         <v>45089</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36901,7 +36901,7 @@
         <v>45093</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36958,7 +36958,7 @@
         <v>45093</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37015,7 +37015,7 @@
         <v>45096</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37072,7 +37072,7 @@
         <v>45096</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37129,7 +37129,7 @@
         <v>45097</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         <v>45097</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         <v>45098</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37300,7 +37300,7 @@
         <v>45098</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37357,7 +37357,7 @@
         <v>45098</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37414,7 +37414,7 @@
         <v>45098</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37471,7 +37471,7 @@
         <v>45105</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37528,7 +37528,7 @@
         <v>45110</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37585,7 +37585,7 @@
         <v>45111</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37642,7 +37642,7 @@
         <v>45111</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37699,7 +37699,7 @@
         <v>45111</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37756,7 +37756,7 @@
         <v>45114</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37813,7 +37813,7 @@
         <v>45116</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37870,7 +37870,7 @@
         <v>45120</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37927,7 +37927,7 @@
         <v>45122</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37984,7 +37984,7 @@
         <v>45128</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38041,7 +38041,7 @@
         <v>45134</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38098,7 +38098,7 @@
         <v>45139</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38155,7 +38155,7 @@
         <v>45139</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38212,7 +38212,7 @@
         <v>45141</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38269,7 +38269,7 @@
         <v>45145</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38326,7 +38326,7 @@
         <v>45145</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38383,7 +38383,7 @@
         <v>45148</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38440,7 +38440,7 @@
         <v>45152</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38497,7 +38497,7 @@
         <v>45153</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38554,7 +38554,7 @@
         <v>45159</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         <v>45160</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38668,7 +38668,7 @@
         <v>45160</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38730,7 +38730,7 @@
         <v>45161</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38787,7 +38787,7 @@
         <v>45162</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38849,7 +38849,7 @@
         <v>45163</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38906,7 +38906,7 @@
         <v>45163</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38963,7 +38963,7 @@
         <v>45167</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39020,7 +39020,7 @@
         <v>45174</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39077,7 +39077,7 @@
         <v>45182</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>

--- a/Översikt KINDA.xlsx
+++ b/Översikt KINDA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y648"/>
+  <dimension ref="A1:Y649"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43345</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>44826</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44872</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         <v>44575</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44575</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>44939</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>44088</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44484</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>44974</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44958</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43315</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43987</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>44478</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>43353</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>43474</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43475</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>43523</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43524</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>43531</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43585</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43807</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43809</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43879</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43990</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>44092</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>44235</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>44342</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>44418</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>44419</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         <v>44435</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>44483</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>44636</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         <v>44642</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44690</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44706</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>44754</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>44801</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>44866</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>44960</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>44974</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>45049</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>45093</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>45093</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>45093</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43320</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43321</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43321</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43325</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43328</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43335</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43336</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43336</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43340</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43341</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43346</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43348</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43355</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43356</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>43356</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43357</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43368</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>43375</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43376</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>43383</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>43385</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>43388</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43395</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43395</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43402</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43402</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43402</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>43402</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>43402</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>43406</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>43411</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>43412</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43414</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43419</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43423</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43423</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         <v>43424</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43426</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43438</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43440</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>43441</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43441</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43441</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>43441</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43441</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43445</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>43445</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>43446</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43446</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43454</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43454</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43467</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43467</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43468</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43468</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>43473</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>43474</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>43475</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>43475</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43481</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43481</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>43482</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>43487</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>43487</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>43487</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>43488</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>43489</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>43493</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>43494</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>43496</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>43496</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>43501</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>43506</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>43508</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>43511</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>43514</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>43515</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>43517</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>43528</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43528</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>43530</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>43533</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>43542</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>43542</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>43543</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>43557</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>43558</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>43563</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>43563</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>43573</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>43578</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>43579</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>43579</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>43580</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>43584</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>43584</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>43588</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>43589</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>43593</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>43594</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>43595</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>43599</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>43600</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10600,7 +10600,7 @@
         <v>43602</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10657,7 +10657,7 @@
         <v>43608</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10714,7 +10714,7 @@
         <v>43612</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>43612</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>43619</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>43619</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>43621</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>43621</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>43626</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>43626</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>43634</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>43634</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>43636</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>43644</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>43647</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>43647</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>43649</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>43649</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43651</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>43657</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>43657</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11797,7 +11797,7 @@
         <v>43657</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         <v>43661</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11911,7 +11911,7 @@
         <v>43672</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11968,7 +11968,7 @@
         <v>43679</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43682</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>43683</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12139,7 +12139,7 @@
         <v>43685</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         <v>43689</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         <v>43689</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>43689</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>43691</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12424,7 +12424,7 @@
         <v>43696</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12481,7 +12481,7 @@
         <v>43696</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>43696</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>43698</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>43698</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>43698</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>43699</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         <v>43702</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12880,7 +12880,7 @@
         <v>43703</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
         <v>43705</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12994,7 +12994,7 @@
         <v>43706</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>43707</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>43707</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>43710</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13222,7 +13222,7 @@
         <v>43711</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>43712</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>43714</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43714</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43717</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43719</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43719</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43721</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>43725</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13745,7 +13745,7 @@
         <v>43727</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>43727</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>43727</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>43731</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>43735</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14030,7 +14030,7 @@
         <v>43740</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14087,7 +14087,7 @@
         <v>43742</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>43748</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         <v>43748</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>43756</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>43762</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>43762</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14429,7 +14429,7 @@
         <v>43765</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>43766</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>43767</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>43767</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>43767</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>43767</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>43773</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>43773</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14890,7 +14890,7 @@
         <v>43773</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14947,7 +14947,7 @@
         <v>43775</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         <v>43781</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>43782</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>43782</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>43787</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>43795</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>43795</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>43796</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15403,7 +15403,7 @@
         <v>43796</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15460,7 +15460,7 @@
         <v>43796</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
         <v>43803</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>43809</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15631,7 +15631,7 @@
         <v>43811</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15688,7 +15688,7 @@
         <v>43840</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>43843</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15802,7 +15802,7 @@
         <v>43850</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         <v>43852</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>43858</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>43858</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         <v>43858</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>43858</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>43860</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>43860</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>43860</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>43860</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>43865</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>43866</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>43868</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>43868</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>43868</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>43868</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>43871</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>43871</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>43871</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>43871</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>43879</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17024,7 +17024,7 @@
         <v>43882</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17081,7 +17081,7 @@
         <v>43885</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
         <v>43886</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>43892</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>43893</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>43893</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>43910</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17423,7 +17423,7 @@
         <v>43914</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17480,7 +17480,7 @@
         <v>43915</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17537,7 +17537,7 @@
         <v>43917</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17594,7 +17594,7 @@
         <v>43923</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17651,7 +17651,7 @@
         <v>43924</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17708,7 +17708,7 @@
         <v>43930</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>43936</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17827,7 +17827,7 @@
         <v>43936</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17889,7 +17889,7 @@
         <v>43937</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>43938</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>43941</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>43956</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18127,7 +18127,7 @@
         <v>43956</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18184,7 +18184,7 @@
         <v>43956</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18241,7 +18241,7 @@
         <v>43956</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>43956</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>43957</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>43957</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>43976</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>43977</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18593,7 +18593,7 @@
         <v>43977</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18650,7 +18650,7 @@
         <v>43980</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>43980</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>43980</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18821,7 +18821,7 @@
         <v>43990</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         <v>44000</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18945,7 +18945,7 @@
         <v>44007</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>44008</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>44011</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>44015</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>44026</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19240,7 +19240,7 @@
         <v>44029</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19297,7 +19297,7 @@
         <v>44034</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19354,7 +19354,7 @@
         <v>44039</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>44039</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         <v>44047</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44049</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44053</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44057</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44063</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44063</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44063</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44067</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44068</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44069</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44076</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44077</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>44078</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>44084</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>44084</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20333,7 +20333,7 @@
         <v>44088</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         <v>44089</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20457,7 +20457,7 @@
         <v>44090</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20514,7 +20514,7 @@
         <v>44092</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20571,7 +20571,7 @@
         <v>44095</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20628,7 +20628,7 @@
         <v>44099</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>44100</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20752,7 +20752,7 @@
         <v>44104</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
         <v>44105</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         <v>44112</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20923,7 +20923,7 @@
         <v>44112</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20980,7 +20980,7 @@
         <v>44112</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>44112</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>44112</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>44113</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>44120</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>44123</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         <v>44123</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21379,7 +21379,7 @@
         <v>44124</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
         <v>44125</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21493,7 +21493,7 @@
         <v>44130</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>44140</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21607,7 +21607,7 @@
         <v>44144</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         <v>44160</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>44161</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21778,7 +21778,7 @@
         <v>44164</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>44165</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21892,7 +21892,7 @@
         <v>44167</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
         <v>44168</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44168</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44171</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44171</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44187</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>44203</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>44203</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44203</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44207</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44215</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44216</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44218</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
         <v>44221</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44223</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44223</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44236</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44239</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44242</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44243</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44244</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44249</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44249</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44252</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44258</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44266</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44267</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44272</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44274</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44278</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23607,7 +23607,7 @@
         <v>44284</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23664,7 +23664,7 @@
         <v>44294</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23721,7 +23721,7 @@
         <v>44308</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23778,7 +23778,7 @@
         <v>44309</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>44309</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>44314</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>44316</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24006,7 +24006,7 @@
         <v>44319</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
         <v>44319</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24120,7 +24120,7 @@
         <v>44322</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24177,7 +24177,7 @@
         <v>44323</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24234,7 +24234,7 @@
         <v>44326</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24291,7 +24291,7 @@
         <v>44334</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>44335</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>44337</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>44337</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>44354</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>44357</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>44357</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>44362</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>44375</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>44379</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>44379</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24938,7 +24938,7 @@
         <v>44379</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24995,7 +24995,7 @@
         <v>44379</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25052,7 +25052,7 @@
         <v>44379</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25109,7 +25109,7 @@
         <v>44382</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25166,7 +25166,7 @@
         <v>44392</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25223,7 +25223,7 @@
         <v>44411</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44411</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44416</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44418</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44419</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44419</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44425</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25627,7 +25627,7 @@
         <v>44425</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25684,7 +25684,7 @@
         <v>44425</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25741,7 +25741,7 @@
         <v>44433</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25798,7 +25798,7 @@
         <v>44433</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25855,7 +25855,7 @@
         <v>44434</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25917,7 +25917,7 @@
         <v>44435</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25974,7 +25974,7 @@
         <v>44439</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26031,7 +26031,7 @@
         <v>44445</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26088,7 +26088,7 @@
         <v>44446</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26145,7 +26145,7 @@
         <v>44446</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26202,7 +26202,7 @@
         <v>44447</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26259,7 +26259,7 @@
         <v>44452</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26321,7 +26321,7 @@
         <v>44454</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26378,7 +26378,7 @@
         <v>44456</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26435,7 +26435,7 @@
         <v>44460</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26492,7 +26492,7 @@
         <v>44462</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26554,7 +26554,7 @@
         <v>44463</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26611,7 +26611,7 @@
         <v>44463</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26668,7 +26668,7 @@
         <v>44465</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26725,7 +26725,7 @@
         <v>44469</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26782,7 +26782,7 @@
         <v>44469</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26839,7 +26839,7 @@
         <v>44481</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26896,7 +26896,7 @@
         <v>44483</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26953,7 +26953,7 @@
         <v>44483</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27010,7 +27010,7 @@
         <v>44484</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27067,7 +27067,7 @@
         <v>44484</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27124,7 +27124,7 @@
         <v>44484</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27181,7 +27181,7 @@
         <v>44486</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27238,7 +27238,7 @@
         <v>44497</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27295,7 +27295,7 @@
         <v>44500</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27352,7 +27352,7 @@
         <v>44501</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27409,7 +27409,7 @@
         <v>44502</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27466,7 +27466,7 @@
         <v>44505</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         <v>44517</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27580,7 +27580,7 @@
         <v>44525</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27637,7 +27637,7 @@
         <v>44560</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27694,7 +27694,7 @@
         <v>44575</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27751,7 +27751,7 @@
         <v>44578</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27808,7 +27808,7 @@
         <v>44585</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27865,7 +27865,7 @@
         <v>44587</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27922,7 +27922,7 @@
         <v>44587</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27979,7 +27979,7 @@
         <v>44587</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28036,7 +28036,7 @@
         <v>44589</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28093,7 +28093,7 @@
         <v>44594</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28150,7 +28150,7 @@
         <v>44599</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28207,7 +28207,7 @@
         <v>44600</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28264,7 +28264,7 @@
         <v>44627</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28321,7 +28321,7 @@
         <v>44644</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28378,7 +28378,7 @@
         <v>44645</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28435,7 +28435,7 @@
         <v>44657</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28492,7 +28492,7 @@
         <v>44677</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28549,7 +28549,7 @@
         <v>44677</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28606,7 +28606,7 @@
         <v>44687</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28663,7 +28663,7 @@
         <v>44697</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28720,7 +28720,7 @@
         <v>44699</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28777,7 +28777,7 @@
         <v>44701</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28834,7 +28834,7 @@
         <v>44720</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         <v>44729</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28948,7 +28948,7 @@
         <v>44732</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29005,7 +29005,7 @@
         <v>44742</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29062,7 +29062,7 @@
         <v>44776</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29119,7 +29119,7 @@
         <v>44782</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29176,7 +29176,7 @@
         <v>44795</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29233,7 +29233,7 @@
         <v>44799</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29290,7 +29290,7 @@
         <v>44801</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29347,7 +29347,7 @@
         <v>44802</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29404,7 +29404,7 @@
         <v>44805</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29461,7 +29461,7 @@
         <v>44820</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29518,7 +29518,7 @@
         <v>44826</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29575,7 +29575,7 @@
         <v>44830</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29632,7 +29632,7 @@
         <v>44837</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29689,7 +29689,7 @@
         <v>44846</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         <v>44851</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29803,7 +29803,7 @@
         <v>44851</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29860,7 +29860,7 @@
         <v>44852</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29917,7 +29917,7 @@
         <v>44852</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29974,7 +29974,7 @@
         <v>44854</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30031,7 +30031,7 @@
         <v>44860</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30088,7 +30088,7 @@
         <v>44861</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30145,7 +30145,7 @@
         <v>44865</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30207,7 +30207,7 @@
         <v>44868</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30264,7 +30264,7 @@
         <v>44868</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30321,7 +30321,7 @@
         <v>44873</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30378,7 +30378,7 @@
         <v>44874</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30435,7 +30435,7 @@
         <v>44882</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30492,7 +30492,7 @@
         <v>44882</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30549,7 +30549,7 @@
         <v>44882</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30606,7 +30606,7 @@
         <v>44882</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30663,7 +30663,7 @@
         <v>44882</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30720,7 +30720,7 @@
         <v>44886</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30777,7 +30777,7 @@
         <v>44886</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30834,7 +30834,7 @@
         <v>44886</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30891,7 +30891,7 @@
         <v>44890</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30953,7 +30953,7 @@
         <v>44907</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31010,7 +31010,7 @@
         <v>44918</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31067,7 +31067,7 @@
         <v>44918</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31124,7 +31124,7 @@
         <v>44935</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31181,7 +31181,7 @@
         <v>44937</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31238,7 +31238,7 @@
         <v>44937</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31295,7 +31295,7 @@
         <v>44937</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31352,7 +31352,7 @@
         <v>44949</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31409,7 +31409,7 @@
         <v>44951</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31466,7 +31466,7 @@
         <v>44952</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31523,7 +31523,7 @@
         <v>44952</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31580,7 +31580,7 @@
         <v>44952</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31637,7 +31637,7 @@
         <v>44952</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31694,7 +31694,7 @@
         <v>44952</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31751,7 +31751,7 @@
         <v>44952</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31808,7 +31808,7 @@
         <v>44952</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31865,7 +31865,7 @@
         <v>44953</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31922,7 +31922,7 @@
         <v>44953</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31979,7 +31979,7 @@
         <v>44956</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32036,7 +32036,7 @@
         <v>44956</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32093,7 +32093,7 @@
         <v>44958</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32150,7 +32150,7 @@
         <v>44960</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32207,7 +32207,7 @@
         <v>44963</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32264,7 +32264,7 @@
         <v>44963</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32321,7 +32321,7 @@
         <v>44963</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32378,7 +32378,7 @@
         <v>44964</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32435,7 +32435,7 @@
         <v>44967</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32492,7 +32492,7 @@
         <v>44970</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32549,7 +32549,7 @@
         <v>44972</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32606,7 +32606,7 @@
         <v>44974</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32668,7 +32668,7 @@
         <v>44974</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32730,7 +32730,7 @@
         <v>44977</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32787,7 +32787,7 @@
         <v>44977</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32844,7 +32844,7 @@
         <v>44978</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32901,7 +32901,7 @@
         <v>44978</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32958,7 +32958,7 @@
         <v>44981</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33015,7 +33015,7 @@
         <v>44981</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33072,7 +33072,7 @@
         <v>44982</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33129,7 +33129,7 @@
         <v>44985</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         <v>44988</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33243,7 +33243,7 @@
         <v>44992</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33300,7 +33300,7 @@
         <v>44992</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33357,7 +33357,7 @@
         <v>44992</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33414,7 +33414,7 @@
         <v>44992</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33471,7 +33471,7 @@
         <v>44993</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33528,7 +33528,7 @@
         <v>44998</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33585,7 +33585,7 @@
         <v>45000</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33642,7 +33642,7 @@
         <v>45000</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33699,7 +33699,7 @@
         <v>45000</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33756,7 +33756,7 @@
         <v>45000</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33813,7 +33813,7 @@
         <v>45000</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33870,7 +33870,7 @@
         <v>45000</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33927,7 +33927,7 @@
         <v>45000</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33984,7 +33984,7 @@
         <v>45000</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34041,7 +34041,7 @@
         <v>45005</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34098,7 +34098,7 @@
         <v>45005</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34155,7 +34155,7 @@
         <v>45007</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34212,7 +34212,7 @@
         <v>45007</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34269,7 +34269,7 @@
         <v>45008</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34326,7 +34326,7 @@
         <v>45008</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34383,7 +34383,7 @@
         <v>45009</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34440,7 +34440,7 @@
         <v>45009</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34497,7 +34497,7 @@
         <v>45022</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34554,7 +34554,7 @@
         <v>45029</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34611,7 +34611,7 @@
         <v>45030</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34668,7 +34668,7 @@
         <v>45030</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34725,7 +34725,7 @@
         <v>45030</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34782,7 +34782,7 @@
         <v>45030</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34839,7 +34839,7 @@
         <v>45035</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34896,7 +34896,7 @@
         <v>45036</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34953,7 +34953,7 @@
         <v>45036</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35010,7 +35010,7 @@
         <v>45037</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35067,7 +35067,7 @@
         <v>45042</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35124,7 +35124,7 @@
         <v>45048</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35181,7 +35181,7 @@
         <v>45049</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35238,7 +35238,7 @@
         <v>45056</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35295,7 +35295,7 @@
         <v>45062</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35352,7 +35352,7 @@
         <v>45062</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35409,7 +35409,7 @@
         <v>45062</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35466,7 +35466,7 @@
         <v>45071</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35523,7 +35523,7 @@
         <v>45071</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35580,7 +35580,7 @@
         <v>45071</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35637,7 +35637,7 @@
         <v>45071</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35694,7 +35694,7 @@
         <v>45076</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35751,7 +35751,7 @@
         <v>45077</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35808,7 +35808,7 @@
         <v>45078</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35865,7 +35865,7 @@
         <v>45078</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35922,7 +35922,7 @@
         <v>45078</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35979,7 +35979,7 @@
         <v>45078</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36036,7 +36036,7 @@
         <v>45078</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36093,7 +36093,7 @@
         <v>45078</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36150,7 +36150,7 @@
         <v>45078</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36212,7 +36212,7 @@
         <v>45078</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36274,7 +36274,7 @@
         <v>45078</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36331,7 +36331,7 @@
         <v>45078</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36388,7 +36388,7 @@
         <v>45082</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36445,7 +36445,7 @@
         <v>45082</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36502,7 +36502,7 @@
         <v>45082</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36559,7 +36559,7 @@
         <v>45082</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36616,7 +36616,7 @@
         <v>45082</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36673,7 +36673,7 @@
         <v>45084</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36730,7 +36730,7 @@
         <v>45085</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36787,7 +36787,7 @@
         <v>45089</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36844,7 +36844,7 @@
         <v>45089</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36901,7 +36901,7 @@
         <v>45093</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36958,7 +36958,7 @@
         <v>45093</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37015,7 +37015,7 @@
         <v>45096</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37072,7 +37072,7 @@
         <v>45096</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37129,7 +37129,7 @@
         <v>45097</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         <v>45097</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         <v>45098</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37300,7 +37300,7 @@
         <v>45098</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37357,7 +37357,7 @@
         <v>45098</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37414,7 +37414,7 @@
         <v>45098</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37471,7 +37471,7 @@
         <v>45105</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37528,7 +37528,7 @@
         <v>45110</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37585,7 +37585,7 @@
         <v>45111</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37642,7 +37642,7 @@
         <v>45111</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37699,7 +37699,7 @@
         <v>45111</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37756,7 +37756,7 @@
         <v>45114</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37813,7 +37813,7 @@
         <v>45116</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37870,7 +37870,7 @@
         <v>45120</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37927,7 +37927,7 @@
         <v>45122</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37984,7 +37984,7 @@
         <v>45128</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38041,7 +38041,7 @@
         <v>45134</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38098,7 +38098,7 @@
         <v>45139</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38155,7 +38155,7 @@
         <v>45139</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38212,7 +38212,7 @@
         <v>45141</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38269,7 +38269,7 @@
         <v>45145</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38326,7 +38326,7 @@
         <v>45145</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38383,7 +38383,7 @@
         <v>45148</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38440,7 +38440,7 @@
         <v>45152</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38497,7 +38497,7 @@
         <v>45153</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38554,7 +38554,7 @@
         <v>45159</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         <v>45160</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38668,7 +38668,7 @@
         <v>45160</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38730,7 +38730,7 @@
         <v>45161</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38787,7 +38787,7 @@
         <v>45162</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38849,7 +38849,7 @@
         <v>45163</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38906,7 +38906,7 @@
         <v>45163</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38963,7 +38963,7 @@
         <v>45167</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39020,7 +39020,7 @@
         <v>45174</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39067,7 +39067,7 @@
       </c>
       <c r="R647" s="2" t="inlineStr"/>
     </row>
-    <row r="648">
+    <row r="648" ht="15" customHeight="1">
       <c r="A648" t="inlineStr">
         <is>
           <t>A 42956-2023</t>
@@ -39077,7 +39077,7 @@
         <v>45182</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39123,6 +39123,68 @@
         <v>0</v>
       </c>
       <c r="R648" s="2" t="inlineStr"/>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>A 43688-2023</t>
+        </is>
+      </c>
+      <c r="B649" s="1" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C649" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>KINDA</t>
+        </is>
+      </c>
+      <c r="F649" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G649" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H649" t="n">
+        <v>0</v>
+      </c>
+      <c r="I649" t="n">
+        <v>0</v>
+      </c>
+      <c r="J649" t="n">
+        <v>0</v>
+      </c>
+      <c r="K649" t="n">
+        <v>0</v>
+      </c>
+      <c r="L649" t="n">
+        <v>0</v>
+      </c>
+      <c r="M649" t="n">
+        <v>0</v>
+      </c>
+      <c r="N649" t="n">
+        <v>0</v>
+      </c>
+      <c r="O649" t="n">
+        <v>0</v>
+      </c>
+      <c r="P649" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q649" t="n">
+        <v>0</v>
+      </c>
+      <c r="R649" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KINDA.xlsx
+++ b/Översikt KINDA.xlsx
@@ -572,7 +572,7 @@
         <v>43345</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>44826</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44872</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         <v>44575</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44575</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>44939</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>44088</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44484</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>44974</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44958</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43315</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43987</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>44478</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>43353</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>43474</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43475</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>43523</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43524</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>43531</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43585</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43807</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43809</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43879</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43990</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>44092</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>44235</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>44342</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>44418</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>44419</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         <v>44435</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>44483</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>44636</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         <v>44642</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44690</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44706</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>44754</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>44801</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>44866</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>44960</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>44974</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>45049</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>45093</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>45093</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>45093</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43320</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43321</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43321</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43325</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43328</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43335</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43336</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43336</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43340</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43341</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43346</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43348</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43355</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43356</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>43356</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43357</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43368</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>43375</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43376</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>43383</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>43385</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>43388</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43395</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43395</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43402</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43402</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43402</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>43402</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>43402</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>43406</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>43411</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>43412</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43414</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43419</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43423</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43423</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         <v>43424</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43426</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43438</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43440</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>43441</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43441</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43441</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>43441</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43441</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43445</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>43445</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>43446</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43446</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43454</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43454</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43467</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43467</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43468</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43468</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>43473</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>43474</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>43475</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>43475</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43481</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43481</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>43482</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>43487</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>43487</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>43487</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>43488</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>43489</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>43493</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>43494</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>43496</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>43496</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>43501</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>43506</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>43508</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>43511</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>43514</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>43515</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>43517</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>43528</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43528</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>43530</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>43533</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>43542</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>43542</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>43543</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>43557</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>43558</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>43563</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>43563</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>43573</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>43578</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>43579</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>43579</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>43580</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>43584</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>43584</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>43588</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>43589</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>43593</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>43594</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>43595</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>43599</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>43600</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10600,7 +10600,7 @@
         <v>43602</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10657,7 +10657,7 @@
         <v>43608</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10714,7 +10714,7 @@
         <v>43612</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>43612</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>43619</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>43619</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>43621</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>43621</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>43626</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>43626</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>43634</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>43634</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>43636</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>43644</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>43647</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>43647</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>43649</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>43649</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43651</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>43657</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>43657</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11797,7 +11797,7 @@
         <v>43657</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         <v>43661</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11911,7 +11911,7 @@
         <v>43672</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11968,7 +11968,7 @@
         <v>43679</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43682</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>43683</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12139,7 +12139,7 @@
         <v>43685</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         <v>43689</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         <v>43689</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>43689</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>43691</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12424,7 +12424,7 @@
         <v>43696</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12481,7 +12481,7 @@
         <v>43696</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>43696</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>43698</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>43698</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>43698</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>43699</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         <v>43702</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12880,7 +12880,7 @@
         <v>43703</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
         <v>43705</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12994,7 +12994,7 @@
         <v>43706</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>43707</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>43707</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>43710</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13222,7 +13222,7 @@
         <v>43711</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>43712</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>43714</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43714</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43717</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43719</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43719</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43721</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>43725</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13745,7 +13745,7 @@
         <v>43727</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>43727</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>43727</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>43731</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>43735</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14030,7 +14030,7 @@
         <v>43740</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14087,7 +14087,7 @@
         <v>43742</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>43748</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         <v>43748</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>43756</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>43762</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>43762</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14429,7 +14429,7 @@
         <v>43765</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>43766</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>43767</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>43767</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>43767</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>43767</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>43773</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>43773</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14890,7 +14890,7 @@
         <v>43773</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14947,7 +14947,7 @@
         <v>43775</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         <v>43781</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>43782</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>43782</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>43787</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>43795</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>43795</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>43796</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15403,7 +15403,7 @@
         <v>43796</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15460,7 +15460,7 @@
         <v>43796</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
         <v>43803</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>43809</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15631,7 +15631,7 @@
         <v>43811</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15688,7 +15688,7 @@
         <v>43840</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>43843</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15802,7 +15802,7 @@
         <v>43850</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         <v>43852</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>43858</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>43858</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         <v>43858</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>43858</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>43860</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>43860</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>43860</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>43860</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>43865</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>43866</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>43868</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>43868</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>43868</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>43868</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>43871</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>43871</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>43871</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>43871</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>43879</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17024,7 +17024,7 @@
         <v>43882</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17081,7 +17081,7 @@
         <v>43885</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
         <v>43886</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>43892</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>43893</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>43893</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>43910</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17423,7 +17423,7 @@
         <v>43914</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17480,7 +17480,7 @@
         <v>43915</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17537,7 +17537,7 @@
         <v>43917</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17594,7 +17594,7 @@
         <v>43923</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17651,7 +17651,7 @@
         <v>43924</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17708,7 +17708,7 @@
         <v>43930</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>43936</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17827,7 +17827,7 @@
         <v>43936</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17889,7 +17889,7 @@
         <v>43937</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>43938</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>43941</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>43956</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18127,7 +18127,7 @@
         <v>43956</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18184,7 +18184,7 @@
         <v>43956</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18241,7 +18241,7 @@
         <v>43956</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>43956</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>43957</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>43957</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>43976</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>43977</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18593,7 +18593,7 @@
         <v>43977</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18650,7 +18650,7 @@
         <v>43980</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>43980</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>43980</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18821,7 +18821,7 @@
         <v>43990</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         <v>44000</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18945,7 +18945,7 @@
         <v>44007</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>44008</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>44011</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>44015</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>44026</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19240,7 +19240,7 @@
         <v>44029</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19297,7 +19297,7 @@
         <v>44034</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19354,7 +19354,7 @@
         <v>44039</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>44039</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         <v>44047</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44049</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44053</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44057</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44063</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44063</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44063</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44067</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44068</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44069</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44076</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44077</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>44078</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>44084</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>44084</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20333,7 +20333,7 @@
         <v>44088</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         <v>44089</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20457,7 +20457,7 @@
         <v>44090</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20514,7 +20514,7 @@
         <v>44092</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20571,7 +20571,7 @@
         <v>44095</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20628,7 +20628,7 @@
         <v>44099</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>44100</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20752,7 +20752,7 @@
         <v>44104</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
         <v>44105</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         <v>44112</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20923,7 +20923,7 @@
         <v>44112</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20980,7 +20980,7 @@
         <v>44112</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>44112</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>44112</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>44113</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>44120</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>44123</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         <v>44123</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21379,7 +21379,7 @@
         <v>44124</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
         <v>44125</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21493,7 +21493,7 @@
         <v>44130</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>44140</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21607,7 +21607,7 @@
         <v>44144</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         <v>44160</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>44161</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21778,7 +21778,7 @@
         <v>44164</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>44165</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21892,7 +21892,7 @@
         <v>44167</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
         <v>44168</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44168</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44171</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44171</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44187</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>44203</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>44203</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44203</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44207</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44215</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44216</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44218</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
         <v>44221</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44223</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44223</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44236</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44239</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44242</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44243</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44244</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44249</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44249</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44252</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44258</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44266</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44267</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44272</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44274</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44278</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23607,7 +23607,7 @@
         <v>44284</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23664,7 +23664,7 @@
         <v>44294</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23721,7 +23721,7 @@
         <v>44308</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23778,7 +23778,7 @@
         <v>44309</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>44309</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>44314</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>44316</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24006,7 +24006,7 @@
         <v>44319</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
         <v>44319</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24120,7 +24120,7 @@
         <v>44322</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24177,7 +24177,7 @@
         <v>44323</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24234,7 +24234,7 @@
         <v>44326</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24291,7 +24291,7 @@
         <v>44334</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>44335</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>44337</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>44337</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>44354</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>44357</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>44357</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>44362</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>44375</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>44379</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>44379</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24938,7 +24938,7 @@
         <v>44379</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24995,7 +24995,7 @@
         <v>44379</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25052,7 +25052,7 @@
         <v>44379</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25109,7 +25109,7 @@
         <v>44382</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25166,7 +25166,7 @@
         <v>44392</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25223,7 +25223,7 @@
         <v>44411</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44411</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44416</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44418</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44419</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44419</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44425</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25627,7 +25627,7 @@
         <v>44425</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25684,7 +25684,7 @@
         <v>44425</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25741,7 +25741,7 @@
         <v>44433</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25798,7 +25798,7 @@
         <v>44433</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25855,7 +25855,7 @@
         <v>44434</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25917,7 +25917,7 @@
         <v>44435</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25974,7 +25974,7 @@
         <v>44439</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26031,7 +26031,7 @@
         <v>44445</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26088,7 +26088,7 @@
         <v>44446</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26145,7 +26145,7 @@
         <v>44446</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26202,7 +26202,7 @@
         <v>44447</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26259,7 +26259,7 @@
         <v>44452</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26321,7 +26321,7 @@
         <v>44454</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26378,7 +26378,7 @@
         <v>44456</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26435,7 +26435,7 @@
         <v>44460</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26492,7 +26492,7 @@
         <v>44462</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26554,7 +26554,7 @@
         <v>44463</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26611,7 +26611,7 @@
         <v>44463</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26668,7 +26668,7 @@
         <v>44465</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26725,7 +26725,7 @@
         <v>44469</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26782,7 +26782,7 @@
         <v>44469</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26839,7 +26839,7 @@
         <v>44481</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26896,7 +26896,7 @@
         <v>44483</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26953,7 +26953,7 @@
         <v>44483</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27010,7 +27010,7 @@
         <v>44484</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27067,7 +27067,7 @@
         <v>44484</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27124,7 +27124,7 @@
         <v>44484</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27181,7 +27181,7 @@
         <v>44486</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27238,7 +27238,7 @@
         <v>44497</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27295,7 +27295,7 @@
         <v>44500</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27352,7 +27352,7 @@
         <v>44501</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27409,7 +27409,7 @@
         <v>44502</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27466,7 +27466,7 @@
         <v>44505</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         <v>44517</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27580,7 +27580,7 @@
         <v>44525</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27637,7 +27637,7 @@
         <v>44560</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27694,7 +27694,7 @@
         <v>44575</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27751,7 +27751,7 @@
         <v>44578</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27808,7 +27808,7 @@
         <v>44585</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27865,7 +27865,7 @@
         <v>44587</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27922,7 +27922,7 @@
         <v>44587</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27979,7 +27979,7 @@
         <v>44587</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28036,7 +28036,7 @@
         <v>44589</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28093,7 +28093,7 @@
         <v>44594</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28150,7 +28150,7 @@
         <v>44599</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28207,7 +28207,7 @@
         <v>44600</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28264,7 +28264,7 @@
         <v>44627</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28321,7 +28321,7 @@
         <v>44644</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28378,7 +28378,7 @@
         <v>44645</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28435,7 +28435,7 @@
         <v>44657</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28492,7 +28492,7 @@
         <v>44677</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28549,7 +28549,7 @@
         <v>44677</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28606,7 +28606,7 @@
         <v>44687</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28663,7 +28663,7 @@
         <v>44697</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28720,7 +28720,7 @@
         <v>44699</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28777,7 +28777,7 @@
         <v>44701</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28834,7 +28834,7 @@
         <v>44720</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         <v>44729</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28948,7 +28948,7 @@
         <v>44732</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29005,7 +29005,7 @@
         <v>44742</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29062,7 +29062,7 @@
         <v>44776</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29119,7 +29119,7 @@
         <v>44782</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29176,7 +29176,7 @@
         <v>44795</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29233,7 +29233,7 @@
         <v>44799</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29290,7 +29290,7 @@
         <v>44801</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29347,7 +29347,7 @@
         <v>44802</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29404,7 +29404,7 @@
         <v>44805</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29461,7 +29461,7 @@
         <v>44820</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29518,7 +29518,7 @@
         <v>44826</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29575,7 +29575,7 @@
         <v>44830</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29632,7 +29632,7 @@
         <v>44837</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29689,7 +29689,7 @@
         <v>44846</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         <v>44851</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29803,7 +29803,7 @@
         <v>44851</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29860,7 +29860,7 @@
         <v>44852</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29917,7 +29917,7 @@
         <v>44852</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29974,7 +29974,7 @@
         <v>44854</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30031,7 +30031,7 @@
         <v>44860</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30088,7 +30088,7 @@
         <v>44861</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30145,7 +30145,7 @@
         <v>44865</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30207,7 +30207,7 @@
         <v>44868</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30264,7 +30264,7 @@
         <v>44868</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30321,7 +30321,7 @@
         <v>44873</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30378,7 +30378,7 @@
         <v>44874</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30435,7 +30435,7 @@
         <v>44882</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30492,7 +30492,7 @@
         <v>44882</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30549,7 +30549,7 @@
         <v>44882</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30606,7 +30606,7 @@
         <v>44882</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30663,7 +30663,7 @@
         <v>44882</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30720,7 +30720,7 @@
         <v>44886</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30777,7 +30777,7 @@
         <v>44886</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30834,7 +30834,7 @@
         <v>44886</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30891,7 +30891,7 @@
         <v>44890</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30953,7 +30953,7 @@
         <v>44907</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31010,7 +31010,7 @@
         <v>44918</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31067,7 +31067,7 @@
         <v>44918</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31124,7 +31124,7 @@
         <v>44935</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31181,7 +31181,7 @@
         <v>44937</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31238,7 +31238,7 @@
         <v>44937</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31295,7 +31295,7 @@
         <v>44937</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31352,7 +31352,7 @@
         <v>44949</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31409,7 +31409,7 @@
         <v>44951</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31466,7 +31466,7 @@
         <v>44952</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31523,7 +31523,7 @@
         <v>44952</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31580,7 +31580,7 @@
         <v>44952</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31637,7 +31637,7 @@
         <v>44952</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31694,7 +31694,7 @@
         <v>44952</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31751,7 +31751,7 @@
         <v>44952</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31808,7 +31808,7 @@
         <v>44952</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31865,7 +31865,7 @@
         <v>44953</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31922,7 +31922,7 @@
         <v>44953</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31979,7 +31979,7 @@
         <v>44956</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32036,7 +32036,7 @@
         <v>44956</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32093,7 +32093,7 @@
         <v>44958</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32150,7 +32150,7 @@
         <v>44960</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32207,7 +32207,7 @@
         <v>44963</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32264,7 +32264,7 @@
         <v>44963</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32321,7 +32321,7 @@
         <v>44963</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32378,7 +32378,7 @@
         <v>44964</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32435,7 +32435,7 @@
         <v>44967</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32492,7 +32492,7 @@
         <v>44970</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32549,7 +32549,7 @@
         <v>44972</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32606,7 +32606,7 @@
         <v>44974</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32668,7 +32668,7 @@
         <v>44974</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32730,7 +32730,7 @@
         <v>44977</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32787,7 +32787,7 @@
         <v>44977</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32844,7 +32844,7 @@
         <v>44978</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32901,7 +32901,7 @@
         <v>44978</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32958,7 +32958,7 @@
         <v>44981</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33015,7 +33015,7 @@
         <v>44981</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33072,7 +33072,7 @@
         <v>44982</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33129,7 +33129,7 @@
         <v>44985</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         <v>44988</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33243,7 +33243,7 @@
         <v>44992</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33300,7 +33300,7 @@
         <v>44992</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33357,7 +33357,7 @@
         <v>44992</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33414,7 +33414,7 @@
         <v>44992</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33471,7 +33471,7 @@
         <v>44993</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33528,7 +33528,7 @@
         <v>44998</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33585,7 +33585,7 @@
         <v>45000</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33642,7 +33642,7 @@
         <v>45000</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33699,7 +33699,7 @@
         <v>45000</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33756,7 +33756,7 @@
         <v>45000</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33813,7 +33813,7 @@
         <v>45000</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33870,7 +33870,7 @@
         <v>45000</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33927,7 +33927,7 @@
         <v>45000</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33984,7 +33984,7 @@
         <v>45000</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34041,7 +34041,7 @@
         <v>45005</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34098,7 +34098,7 @@
         <v>45005</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34155,7 +34155,7 @@
         <v>45007</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34212,7 +34212,7 @@
         <v>45007</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34269,7 +34269,7 @@
         <v>45008</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34326,7 +34326,7 @@
         <v>45008</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34383,7 +34383,7 @@
         <v>45009</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34440,7 +34440,7 @@
         <v>45009</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34497,7 +34497,7 @@
         <v>45022</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34554,7 +34554,7 @@
         <v>45029</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34611,7 +34611,7 @@
         <v>45030</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34668,7 +34668,7 @@
         <v>45030</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34725,7 +34725,7 @@
         <v>45030</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34782,7 +34782,7 @@
         <v>45030</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34839,7 +34839,7 @@
         <v>45035</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34896,7 +34896,7 @@
         <v>45036</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34953,7 +34953,7 @@
         <v>45036</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35010,7 +35010,7 @@
         <v>45037</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35067,7 +35067,7 @@
         <v>45042</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35124,7 +35124,7 @@
         <v>45048</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35181,7 +35181,7 @@
         <v>45049</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35238,7 +35238,7 @@
         <v>45056</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35295,7 +35295,7 @@
         <v>45062</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35352,7 +35352,7 @@
         <v>45062</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35409,7 +35409,7 @@
         <v>45062</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35466,7 +35466,7 @@
         <v>45071</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35523,7 +35523,7 @@
         <v>45071</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35580,7 +35580,7 @@
         <v>45071</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35637,7 +35637,7 @@
         <v>45071</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35694,7 +35694,7 @@
         <v>45076</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35751,7 +35751,7 @@
         <v>45077</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35808,7 +35808,7 @@
         <v>45078</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35865,7 +35865,7 @@
         <v>45078</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35922,7 +35922,7 @@
         <v>45078</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35979,7 +35979,7 @@
         <v>45078</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36036,7 +36036,7 @@
         <v>45078</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36093,7 +36093,7 @@
         <v>45078</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36150,7 +36150,7 @@
         <v>45078</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36212,7 +36212,7 @@
         <v>45078</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36274,7 +36274,7 @@
         <v>45078</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36331,7 +36331,7 @@
         <v>45078</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36388,7 +36388,7 @@
         <v>45082</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36445,7 +36445,7 @@
         <v>45082</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36502,7 +36502,7 @@
         <v>45082</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36559,7 +36559,7 @@
         <v>45082</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36616,7 +36616,7 @@
         <v>45082</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36673,7 +36673,7 @@
         <v>45084</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36730,7 +36730,7 @@
         <v>45085</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36787,7 +36787,7 @@
         <v>45089</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36844,7 +36844,7 @@
         <v>45089</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36901,7 +36901,7 @@
         <v>45093</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36958,7 +36958,7 @@
         <v>45093</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37015,7 +37015,7 @@
         <v>45096</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37072,7 +37072,7 @@
         <v>45096</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37129,7 +37129,7 @@
         <v>45097</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         <v>45097</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         <v>45098</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37300,7 +37300,7 @@
         <v>45098</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37357,7 +37357,7 @@
         <v>45098</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37414,7 +37414,7 @@
         <v>45098</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37471,7 +37471,7 @@
         <v>45105</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37528,7 +37528,7 @@
         <v>45110</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37585,7 +37585,7 @@
         <v>45111</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37642,7 +37642,7 @@
         <v>45111</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37699,7 +37699,7 @@
         <v>45111</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37756,7 +37756,7 @@
         <v>45114</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37813,7 +37813,7 @@
         <v>45116</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37870,7 +37870,7 @@
         <v>45120</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37927,7 +37927,7 @@
         <v>45122</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37984,7 +37984,7 @@
         <v>45128</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38041,7 +38041,7 @@
         <v>45134</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38098,7 +38098,7 @@
         <v>45139</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38155,7 +38155,7 @@
         <v>45139</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38212,7 +38212,7 @@
         <v>45141</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38269,7 +38269,7 @@
         <v>45145</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38326,7 +38326,7 @@
         <v>45145</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38383,7 +38383,7 @@
         <v>45148</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38440,7 +38440,7 @@
         <v>45152</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38497,7 +38497,7 @@
         <v>45153</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38554,7 +38554,7 @@
         <v>45159</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         <v>45160</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38668,7 +38668,7 @@
         <v>45160</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38730,7 +38730,7 @@
         <v>45161</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38787,7 +38787,7 @@
         <v>45162</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38849,7 +38849,7 @@
         <v>45163</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38906,7 +38906,7 @@
         <v>45163</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38963,7 +38963,7 @@
         <v>45167</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39020,7 +39020,7 @@
         <v>45174</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39077,7 +39077,7 @@
         <v>45182</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39134,7 +39134,7 @@
         <v>45187</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>

--- a/Översikt KINDA.xlsx
+++ b/Översikt KINDA.xlsx
@@ -572,7 +572,7 @@
         <v>43345</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>44826</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44872</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         <v>44575</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44575</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>44939</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>44088</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44484</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>44974</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44958</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43315</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43987</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>44478</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>43353</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>43474</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43475</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>43523</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43524</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>43531</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43585</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43807</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43809</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43879</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43990</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>44092</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>44235</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>44342</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>44418</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>44419</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         <v>44435</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>44483</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>44636</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         <v>44642</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44690</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44706</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>44754</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>44801</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>44866</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>44960</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>44974</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>45049</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>45093</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>45093</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>45093</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43320</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43321</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43321</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43325</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43328</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43335</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43336</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43336</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43340</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43341</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43346</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43348</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43355</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43356</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>43356</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43357</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43368</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>43375</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43376</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>43383</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>43385</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>43388</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43395</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43395</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43402</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43402</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43402</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>43402</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>43402</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>43406</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>43411</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>43412</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43414</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43419</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43423</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43423</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         <v>43424</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43426</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43438</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43440</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>43441</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43441</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43441</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>43441</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43441</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43445</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>43445</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>43446</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43446</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43454</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43454</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43467</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43467</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43468</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43468</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>43473</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>43474</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>43475</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>43475</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43481</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43481</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>43482</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>43487</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>43487</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>43487</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>43488</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>43489</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>43493</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>43494</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>43496</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>43496</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>43501</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>43506</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>43508</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>43511</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>43514</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>43515</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>43517</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>43528</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43528</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>43530</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>43533</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>43542</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>43542</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>43543</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>43557</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>43558</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>43563</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>43563</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>43573</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>43578</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>43579</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>43579</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>43580</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>43584</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>43584</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>43588</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>43589</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>43593</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>43594</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>43595</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>43599</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>43600</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10600,7 +10600,7 @@
         <v>43602</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10657,7 +10657,7 @@
         <v>43608</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10714,7 +10714,7 @@
         <v>43612</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>43612</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>43619</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>43619</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>43621</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>43621</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>43626</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>43626</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>43634</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>43634</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>43636</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>43644</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>43647</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>43647</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>43649</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>43649</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43651</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>43657</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>43657</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11797,7 +11797,7 @@
         <v>43657</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         <v>43661</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11911,7 +11911,7 @@
         <v>43672</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11968,7 +11968,7 @@
         <v>43679</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43682</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>43683</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12139,7 +12139,7 @@
         <v>43685</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         <v>43689</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         <v>43689</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>43689</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>43691</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12424,7 +12424,7 @@
         <v>43696</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12481,7 +12481,7 @@
         <v>43696</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>43696</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>43698</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>43698</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>43698</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>43699</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         <v>43702</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12880,7 +12880,7 @@
         <v>43703</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
         <v>43705</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12994,7 +12994,7 @@
         <v>43706</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>43707</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>43707</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>43710</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13222,7 +13222,7 @@
         <v>43711</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>43712</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>43714</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43714</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43717</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43719</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43719</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43721</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>43725</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13745,7 +13745,7 @@
         <v>43727</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>43727</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>43727</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>43731</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>43735</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14030,7 +14030,7 @@
         <v>43740</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14087,7 +14087,7 @@
         <v>43742</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>43748</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         <v>43748</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>43756</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>43762</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>43762</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14429,7 +14429,7 @@
         <v>43765</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>43766</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>43767</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>43767</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>43767</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>43767</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>43773</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>43773</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14890,7 +14890,7 @@
         <v>43773</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14947,7 +14947,7 @@
         <v>43775</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         <v>43781</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>43782</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>43782</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>43787</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>43795</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>43795</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>43796</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15403,7 +15403,7 @@
         <v>43796</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15460,7 +15460,7 @@
         <v>43796</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
         <v>43803</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>43809</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15631,7 +15631,7 @@
         <v>43811</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15688,7 +15688,7 @@
         <v>43840</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>43843</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15802,7 +15802,7 @@
         <v>43850</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         <v>43852</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>43858</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>43858</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         <v>43858</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>43858</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>43860</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>43860</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>43860</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>43860</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>43865</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>43866</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>43868</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>43868</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>43868</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>43868</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>43871</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>43871</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>43871</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>43871</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>43879</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17024,7 +17024,7 @@
         <v>43882</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17081,7 +17081,7 @@
         <v>43885</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
         <v>43886</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>43892</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>43893</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>43893</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>43910</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17423,7 +17423,7 @@
         <v>43914</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17480,7 +17480,7 @@
         <v>43915</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17537,7 +17537,7 @@
         <v>43917</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17594,7 +17594,7 @@
         <v>43923</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17651,7 +17651,7 @@
         <v>43924</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17708,7 +17708,7 @@
         <v>43930</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>43936</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17827,7 +17827,7 @@
         <v>43936</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17889,7 +17889,7 @@
         <v>43937</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>43938</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>43941</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>43956</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18127,7 +18127,7 @@
         <v>43956</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18184,7 +18184,7 @@
         <v>43956</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18241,7 +18241,7 @@
         <v>43956</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>43956</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>43957</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>43957</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>43976</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>43977</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18593,7 +18593,7 @@
         <v>43977</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18650,7 +18650,7 @@
         <v>43980</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>43980</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>43980</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18821,7 +18821,7 @@
         <v>43990</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         <v>44000</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18945,7 +18945,7 @@
         <v>44007</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>44008</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>44011</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>44015</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>44026</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19240,7 +19240,7 @@
         <v>44029</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19297,7 +19297,7 @@
         <v>44034</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19354,7 +19354,7 @@
         <v>44039</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>44039</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         <v>44047</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44049</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44053</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44057</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44063</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44063</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44063</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44067</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44068</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44069</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44076</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44077</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>44078</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>44084</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>44084</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20333,7 +20333,7 @@
         <v>44088</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         <v>44089</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20457,7 +20457,7 @@
         <v>44090</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20514,7 +20514,7 @@
         <v>44092</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20571,7 +20571,7 @@
         <v>44095</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20628,7 +20628,7 @@
         <v>44099</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>44100</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20752,7 +20752,7 @@
         <v>44104</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
         <v>44105</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         <v>44112</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20923,7 +20923,7 @@
         <v>44112</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20980,7 +20980,7 @@
         <v>44112</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>44112</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>44112</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>44113</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>44120</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>44123</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         <v>44123</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21379,7 +21379,7 @@
         <v>44124</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
         <v>44125</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21493,7 +21493,7 @@
         <v>44130</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>44140</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21607,7 +21607,7 @@
         <v>44144</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         <v>44160</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>44161</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21778,7 +21778,7 @@
         <v>44164</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>44165</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21892,7 +21892,7 @@
         <v>44167</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
         <v>44168</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44168</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44171</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44171</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44187</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>44203</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>44203</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44203</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44207</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44215</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44216</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44218</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
         <v>44221</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44223</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44223</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44236</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44239</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44242</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44243</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44244</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44249</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44249</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44252</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44258</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44266</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44267</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44272</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44274</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44278</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23607,7 +23607,7 @@
         <v>44284</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23664,7 +23664,7 @@
         <v>44294</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23721,7 +23721,7 @@
         <v>44308</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23778,7 +23778,7 @@
         <v>44309</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>44309</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>44314</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>44316</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24006,7 +24006,7 @@
         <v>44319</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
         <v>44319</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24120,7 +24120,7 @@
         <v>44322</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24177,7 +24177,7 @@
         <v>44323</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24234,7 +24234,7 @@
         <v>44326</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24291,7 +24291,7 @@
         <v>44334</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>44335</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>44337</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>44337</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>44354</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>44357</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>44357</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>44362</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>44375</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>44379</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>44379</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24938,7 +24938,7 @@
         <v>44379</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24995,7 +24995,7 @@
         <v>44379</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25052,7 +25052,7 @@
         <v>44379</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25109,7 +25109,7 @@
         <v>44382</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25166,7 +25166,7 @@
         <v>44392</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25223,7 +25223,7 @@
         <v>44411</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44411</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44416</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44418</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44419</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44419</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44425</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25627,7 +25627,7 @@
         <v>44425</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25684,7 +25684,7 @@
         <v>44425</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25741,7 +25741,7 @@
         <v>44433</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25798,7 +25798,7 @@
         <v>44433</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25855,7 +25855,7 @@
         <v>44434</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25917,7 +25917,7 @@
         <v>44435</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25974,7 +25974,7 @@
         <v>44439</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26031,7 +26031,7 @@
         <v>44445</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26088,7 +26088,7 @@
         <v>44446</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26145,7 +26145,7 @@
         <v>44446</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26202,7 +26202,7 @@
         <v>44447</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26259,7 +26259,7 @@
         <v>44452</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26321,7 +26321,7 @@
         <v>44454</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26378,7 +26378,7 @@
         <v>44456</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26435,7 +26435,7 @@
         <v>44460</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26492,7 +26492,7 @@
         <v>44462</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26554,7 +26554,7 @@
         <v>44463</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26611,7 +26611,7 @@
         <v>44463</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26668,7 +26668,7 @@
         <v>44465</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26725,7 +26725,7 @@
         <v>44469</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26782,7 +26782,7 @@
         <v>44469</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26839,7 +26839,7 @@
         <v>44481</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26896,7 +26896,7 @@
         <v>44483</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26953,7 +26953,7 @@
         <v>44483</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27010,7 +27010,7 @@
         <v>44484</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27067,7 +27067,7 @@
         <v>44484</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27124,7 +27124,7 @@
         <v>44484</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27181,7 +27181,7 @@
         <v>44486</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27238,7 +27238,7 @@
         <v>44497</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27295,7 +27295,7 @@
         <v>44500</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27352,7 +27352,7 @@
         <v>44501</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27409,7 +27409,7 @@
         <v>44502</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27466,7 +27466,7 @@
         <v>44505</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         <v>44517</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27580,7 +27580,7 @@
         <v>44525</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27637,7 +27637,7 @@
         <v>44560</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27694,7 +27694,7 @@
         <v>44575</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27751,7 +27751,7 @@
         <v>44578</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27808,7 +27808,7 @@
         <v>44585</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27865,7 +27865,7 @@
         <v>44587</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27922,7 +27922,7 @@
         <v>44587</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27979,7 +27979,7 @@
         <v>44587</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28036,7 +28036,7 @@
         <v>44589</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28093,7 +28093,7 @@
         <v>44594</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28150,7 +28150,7 @@
         <v>44599</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28207,7 +28207,7 @@
         <v>44600</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28264,7 +28264,7 @@
         <v>44627</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28321,7 +28321,7 @@
         <v>44644</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28378,7 +28378,7 @@
         <v>44645</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28435,7 +28435,7 @@
         <v>44657</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28492,7 +28492,7 @@
         <v>44677</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28549,7 +28549,7 @@
         <v>44677</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28606,7 +28606,7 @@
         <v>44687</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28663,7 +28663,7 @@
         <v>44697</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28720,7 +28720,7 @@
         <v>44699</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28777,7 +28777,7 @@
         <v>44701</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28834,7 +28834,7 @@
         <v>44720</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         <v>44729</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28948,7 +28948,7 @@
         <v>44732</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29005,7 +29005,7 @@
         <v>44742</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29062,7 +29062,7 @@
         <v>44776</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29119,7 +29119,7 @@
         <v>44782</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29176,7 +29176,7 @@
         <v>44795</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29233,7 +29233,7 @@
         <v>44799</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29290,7 +29290,7 @@
         <v>44801</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29347,7 +29347,7 @@
         <v>44802</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29404,7 +29404,7 @@
         <v>44805</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29461,7 +29461,7 @@
         <v>44820</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29518,7 +29518,7 @@
         <v>44826</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29575,7 +29575,7 @@
         <v>44830</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29632,7 +29632,7 @@
         <v>44837</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29689,7 +29689,7 @@
         <v>44846</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         <v>44851</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29803,7 +29803,7 @@
         <v>44851</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29860,7 +29860,7 @@
         <v>44852</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29917,7 +29917,7 @@
         <v>44852</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29974,7 +29974,7 @@
         <v>44854</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30031,7 +30031,7 @@
         <v>44860</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30088,7 +30088,7 @@
         <v>44861</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30145,7 +30145,7 @@
         <v>44865</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30207,7 +30207,7 @@
         <v>44868</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30264,7 +30264,7 @@
         <v>44868</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30321,7 +30321,7 @@
         <v>44873</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30378,7 +30378,7 @@
         <v>44874</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30435,7 +30435,7 @@
         <v>44882</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30492,7 +30492,7 @@
         <v>44882</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30549,7 +30549,7 @@
         <v>44882</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30606,7 +30606,7 @@
         <v>44882</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30663,7 +30663,7 @@
         <v>44882</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30720,7 +30720,7 @@
         <v>44886</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30777,7 +30777,7 @@
         <v>44886</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30834,7 +30834,7 @@
         <v>44886</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30891,7 +30891,7 @@
         <v>44890</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30953,7 +30953,7 @@
         <v>44907</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31010,7 +31010,7 @@
         <v>44918</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31067,7 +31067,7 @@
         <v>44918</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31124,7 +31124,7 @@
         <v>44935</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31181,7 +31181,7 @@
         <v>44937</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31238,7 +31238,7 @@
         <v>44937</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31295,7 +31295,7 @@
         <v>44937</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31352,7 +31352,7 @@
         <v>44949</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31409,7 +31409,7 @@
         <v>44951</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31466,7 +31466,7 @@
         <v>44952</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31523,7 +31523,7 @@
         <v>44952</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31580,7 +31580,7 @@
         <v>44952</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31637,7 +31637,7 @@
         <v>44952</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31694,7 +31694,7 @@
         <v>44952</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31751,7 +31751,7 @@
         <v>44952</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31808,7 +31808,7 @@
         <v>44952</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31865,7 +31865,7 @@
         <v>44953</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31922,7 +31922,7 @@
         <v>44953</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31979,7 +31979,7 @@
         <v>44956</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32036,7 +32036,7 @@
         <v>44956</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32093,7 +32093,7 @@
         <v>44958</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32150,7 +32150,7 @@
         <v>44960</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32207,7 +32207,7 @@
         <v>44963</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32264,7 +32264,7 @@
         <v>44963</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32321,7 +32321,7 @@
         <v>44963</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32378,7 +32378,7 @@
         <v>44964</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32435,7 +32435,7 @@
         <v>44967</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32492,7 +32492,7 @@
         <v>44970</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32549,7 +32549,7 @@
         <v>44972</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32606,7 +32606,7 @@
         <v>44974</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32668,7 +32668,7 @@
         <v>44974</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32730,7 +32730,7 @@
         <v>44977</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32787,7 +32787,7 @@
         <v>44977</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32844,7 +32844,7 @@
         <v>44978</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32901,7 +32901,7 @@
         <v>44978</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32958,7 +32958,7 @@
         <v>44981</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33015,7 +33015,7 @@
         <v>44981</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33072,7 +33072,7 @@
         <v>44982</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33129,7 +33129,7 @@
         <v>44985</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         <v>44988</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33243,7 +33243,7 @@
         <v>44992</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33300,7 +33300,7 @@
         <v>44992</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33357,7 +33357,7 @@
         <v>44992</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33414,7 +33414,7 @@
         <v>44992</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33471,7 +33471,7 @@
         <v>44993</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33528,7 +33528,7 @@
         <v>44998</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33585,7 +33585,7 @@
         <v>45000</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33642,7 +33642,7 @@
         <v>45000</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33699,7 +33699,7 @@
         <v>45000</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33756,7 +33756,7 @@
         <v>45000</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33813,7 +33813,7 @@
         <v>45000</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33870,7 +33870,7 @@
         <v>45000</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33927,7 +33927,7 @@
         <v>45000</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33984,7 +33984,7 @@
         <v>45000</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34041,7 +34041,7 @@
         <v>45005</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34098,7 +34098,7 @@
         <v>45005</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34155,7 +34155,7 @@
         <v>45007</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34212,7 +34212,7 @@
         <v>45007</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34269,7 +34269,7 @@
         <v>45008</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34326,7 +34326,7 @@
         <v>45008</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34383,7 +34383,7 @@
         <v>45009</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34440,7 +34440,7 @@
         <v>45009</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34497,7 +34497,7 @@
         <v>45022</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34554,7 +34554,7 @@
         <v>45029</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34611,7 +34611,7 @@
         <v>45030</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34668,7 +34668,7 @@
         <v>45030</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34725,7 +34725,7 @@
         <v>45030</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34782,7 +34782,7 @@
         <v>45030</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34839,7 +34839,7 @@
         <v>45035</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34896,7 +34896,7 @@
         <v>45036</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34953,7 +34953,7 @@
         <v>45036</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35010,7 +35010,7 @@
         <v>45037</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35067,7 +35067,7 @@
         <v>45042</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35124,7 +35124,7 @@
         <v>45048</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35181,7 +35181,7 @@
         <v>45049</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35238,7 +35238,7 @@
         <v>45056</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35295,7 +35295,7 @@
         <v>45062</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35352,7 +35352,7 @@
         <v>45062</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35409,7 +35409,7 @@
         <v>45062</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35466,7 +35466,7 @@
         <v>45071</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35523,7 +35523,7 @@
         <v>45071</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35580,7 +35580,7 @@
         <v>45071</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35637,7 +35637,7 @@
         <v>45071</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35694,7 +35694,7 @@
         <v>45076</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35751,7 +35751,7 @@
         <v>45077</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35808,7 +35808,7 @@
         <v>45078</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35865,7 +35865,7 @@
         <v>45078</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35922,7 +35922,7 @@
         <v>45078</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35979,7 +35979,7 @@
         <v>45078</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36036,7 +36036,7 @@
         <v>45078</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36093,7 +36093,7 @@
         <v>45078</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36150,7 +36150,7 @@
         <v>45078</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36212,7 +36212,7 @@
         <v>45078</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36274,7 +36274,7 @@
         <v>45078</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36331,7 +36331,7 @@
         <v>45078</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36388,7 +36388,7 @@
         <v>45082</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36445,7 +36445,7 @@
         <v>45082</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36502,7 +36502,7 @@
         <v>45082</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36559,7 +36559,7 @@
         <v>45082</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36616,7 +36616,7 @@
         <v>45082</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36673,7 +36673,7 @@
         <v>45084</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36730,7 +36730,7 @@
         <v>45085</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36787,7 +36787,7 @@
         <v>45089</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36844,7 +36844,7 @@
         <v>45089</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36901,7 +36901,7 @@
         <v>45093</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36958,7 +36958,7 @@
         <v>45093</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37015,7 +37015,7 @@
         <v>45096</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37072,7 +37072,7 @@
         <v>45096</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37129,7 +37129,7 @@
         <v>45097</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         <v>45097</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         <v>45098</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37300,7 +37300,7 @@
         <v>45098</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37357,7 +37357,7 @@
         <v>45098</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37414,7 +37414,7 @@
         <v>45098</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37471,7 +37471,7 @@
         <v>45105</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37528,7 +37528,7 @@
         <v>45110</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37585,7 +37585,7 @@
         <v>45111</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37642,7 +37642,7 @@
         <v>45111</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37699,7 +37699,7 @@
         <v>45111</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37756,7 +37756,7 @@
         <v>45114</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37813,7 +37813,7 @@
         <v>45116</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37870,7 +37870,7 @@
         <v>45120</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37927,7 +37927,7 @@
         <v>45122</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37984,7 +37984,7 @@
         <v>45128</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38041,7 +38041,7 @@
         <v>45134</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38098,7 +38098,7 @@
         <v>45139</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38155,7 +38155,7 @@
         <v>45139</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38212,7 +38212,7 @@
         <v>45141</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38269,7 +38269,7 @@
         <v>45145</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38326,7 +38326,7 @@
         <v>45145</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38383,7 +38383,7 @@
         <v>45148</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38440,7 +38440,7 @@
         <v>45152</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38497,7 +38497,7 @@
         <v>45153</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38554,7 +38554,7 @@
         <v>45159</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         <v>45160</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38668,7 +38668,7 @@
         <v>45160</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38730,7 +38730,7 @@
         <v>45161</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38787,7 +38787,7 @@
         <v>45162</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38849,7 +38849,7 @@
         <v>45163</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38906,7 +38906,7 @@
         <v>45163</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38963,7 +38963,7 @@
         <v>45167</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39020,7 +39020,7 @@
         <v>45174</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39077,7 +39077,7 @@
         <v>45182</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39134,7 +39134,7 @@
         <v>45187</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>

--- a/Översikt KINDA.xlsx
+++ b/Översikt KINDA.xlsx
@@ -572,7 +572,7 @@
         <v>43345</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>44826</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44872</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         <v>44575</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44575</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>44939</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>44088</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44484</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>44974</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44958</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43315</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43987</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>44478</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>43353</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>43474</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43475</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>43523</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43524</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>43531</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43585</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43807</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43809</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43879</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43990</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>44092</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>44235</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>44342</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>44418</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>44419</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         <v>44435</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>44483</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>44636</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         <v>44642</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44690</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44706</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>44754</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>44801</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>44866</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>44960</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>44974</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>45049</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>45093</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>45093</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>45093</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43320</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43321</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43321</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43325</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43328</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43335</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43336</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43336</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43340</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43341</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43346</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43348</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43355</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43356</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>43356</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43357</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43368</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>43375</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43376</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>43383</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>43385</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>43388</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43395</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43395</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43402</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43402</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43402</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>43402</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>43402</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>43406</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>43411</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>43412</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43414</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43419</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43423</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43423</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         <v>43424</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43426</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43438</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43440</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>43441</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43441</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43441</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>43441</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43441</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43445</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>43445</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>43446</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43446</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43454</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43454</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43467</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43467</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43468</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43468</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>43473</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>43474</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>43475</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>43475</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43481</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43481</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>43482</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>43487</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>43487</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>43487</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>43488</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>43489</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>43493</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>43494</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>43496</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>43496</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>43501</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>43506</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>43508</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>43511</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>43514</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>43515</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>43517</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>43528</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43528</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>43530</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>43533</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>43542</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>43542</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>43543</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>43557</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>43558</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>43563</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>43563</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>43573</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>43578</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>43579</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>43579</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>43580</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>43584</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>43584</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>43588</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>43589</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>43593</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>43594</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>43595</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>43599</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>43600</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10600,7 +10600,7 @@
         <v>43602</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10657,7 +10657,7 @@
         <v>43608</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10714,7 +10714,7 @@
         <v>43612</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>43612</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>43619</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>43619</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>43621</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>43621</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>43626</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>43626</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>43634</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>43634</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>43636</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>43644</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>43647</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>43647</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>43649</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>43649</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43651</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>43657</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>43657</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11797,7 +11797,7 @@
         <v>43657</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         <v>43661</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11911,7 +11911,7 @@
         <v>43672</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11968,7 +11968,7 @@
         <v>43679</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43682</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>43683</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12139,7 +12139,7 @@
         <v>43685</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         <v>43689</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         <v>43689</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>43689</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>43691</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12424,7 +12424,7 @@
         <v>43696</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12481,7 +12481,7 @@
         <v>43696</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>43696</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>43698</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>43698</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>43698</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>43699</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         <v>43702</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12880,7 +12880,7 @@
         <v>43703</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
         <v>43705</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12994,7 +12994,7 @@
         <v>43706</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>43707</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>43707</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>43710</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13222,7 +13222,7 @@
         <v>43711</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>43712</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>43714</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43714</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43717</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43719</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43719</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43721</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>43725</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13745,7 +13745,7 @@
         <v>43727</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>43727</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>43727</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>43731</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>43735</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14030,7 +14030,7 @@
         <v>43740</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14087,7 +14087,7 @@
         <v>43742</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>43748</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         <v>43748</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>43756</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>43762</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14372,7 +14372,7 @@
         <v>43762</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14429,7 +14429,7 @@
         <v>43765</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>43766</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>43767</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>43767</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>43767</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>43767</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>43773</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>43773</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14890,7 +14890,7 @@
         <v>43773</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14947,7 +14947,7 @@
         <v>43775</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         <v>43781</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>43782</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>43782</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>43787</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>43795</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>43795</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>43796</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15403,7 +15403,7 @@
         <v>43796</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15460,7 +15460,7 @@
         <v>43796</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
         <v>43803</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>43809</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15631,7 +15631,7 @@
         <v>43811</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15688,7 +15688,7 @@
         <v>43840</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>43843</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15802,7 +15802,7 @@
         <v>43850</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         <v>43852</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>43858</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>43858</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         <v>43858</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>43858</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>43860</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>43860</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>43860</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>43860</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>43865</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>43866</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>43868</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>43868</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>43868</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>43868</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>43871</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>43871</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>43871</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>43871</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>43879</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17024,7 +17024,7 @@
         <v>43882</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17081,7 +17081,7 @@
         <v>43885</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
         <v>43886</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>43892</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>43893</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>43893</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>43910</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17423,7 +17423,7 @@
         <v>43914</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17480,7 +17480,7 @@
         <v>43915</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17537,7 +17537,7 @@
         <v>43917</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17594,7 +17594,7 @@
         <v>43923</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17651,7 +17651,7 @@
         <v>43924</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17708,7 +17708,7 @@
         <v>43930</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>43936</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17827,7 +17827,7 @@
         <v>43936</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17889,7 +17889,7 @@
         <v>43937</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>43938</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>43941</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>43956</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18127,7 +18127,7 @@
         <v>43956</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18184,7 +18184,7 @@
         <v>43956</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18241,7 +18241,7 @@
         <v>43956</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>43956</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>43957</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>43957</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>43976</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>43977</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18593,7 +18593,7 @@
         <v>43977</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18650,7 +18650,7 @@
         <v>43980</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>43980</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>43980</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18821,7 +18821,7 @@
         <v>43990</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         <v>44000</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18945,7 +18945,7 @@
         <v>44007</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>44008</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>44011</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>44015</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>44026</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19240,7 +19240,7 @@
         <v>44029</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19297,7 +19297,7 @@
         <v>44034</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19354,7 +19354,7 @@
         <v>44039</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>44039</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         <v>44047</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44049</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44053</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44057</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44063</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44063</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44063</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44067</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44068</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44069</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44076</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44077</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>44078</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>44084</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>44084</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20333,7 +20333,7 @@
         <v>44088</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         <v>44089</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20457,7 +20457,7 @@
         <v>44090</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20514,7 +20514,7 @@
         <v>44092</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20571,7 +20571,7 @@
         <v>44095</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20628,7 +20628,7 @@
         <v>44099</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>44100</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20752,7 +20752,7 @@
         <v>44104</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
         <v>44105</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         <v>44112</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20923,7 +20923,7 @@
         <v>44112</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20980,7 +20980,7 @@
         <v>44112</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>44112</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>44112</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>44113</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>44120</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>44123</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         <v>44123</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21379,7 +21379,7 @@
         <v>44124</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
         <v>44125</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21493,7 +21493,7 @@
         <v>44130</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>44140</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21607,7 +21607,7 @@
         <v>44144</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         <v>44160</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>44161</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21778,7 +21778,7 @@
         <v>44164</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>44165</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21892,7 +21892,7 @@
         <v>44167</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
         <v>44168</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44168</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44171</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44171</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44187</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>44203</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>44203</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44203</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44207</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44215</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44216</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44218</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
         <v>44221</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44223</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44223</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44236</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44239</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44242</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44243</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44244</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44249</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44249</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44252</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44258</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44266</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44267</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44272</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44274</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44278</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23607,7 +23607,7 @@
         <v>44284</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23664,7 +23664,7 @@
         <v>44294</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23721,7 +23721,7 @@
         <v>44308</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23778,7 +23778,7 @@
         <v>44309</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>44309</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>44314</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>44316</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24006,7 +24006,7 @@
         <v>44319</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
         <v>44319</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24120,7 +24120,7 @@
         <v>44322</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24177,7 +24177,7 @@
         <v>44323</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24234,7 +24234,7 @@
         <v>44326</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24291,7 +24291,7 @@
         <v>44334</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>44335</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>44337</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>44337</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>44354</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>44357</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>44357</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>44362</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>44375</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>44379</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>44379</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24938,7 +24938,7 @@
         <v>44379</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24995,7 +24995,7 @@
         <v>44379</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25052,7 +25052,7 @@
         <v>44379</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25109,7 +25109,7 @@
         <v>44382</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25166,7 +25166,7 @@
         <v>44392</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25223,7 +25223,7 @@
         <v>44411</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44411</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44416</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44418</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44419</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44419</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44425</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25627,7 +25627,7 @@
         <v>44425</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25684,7 +25684,7 @@
         <v>44425</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25741,7 +25741,7 @@
         <v>44433</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25798,7 +25798,7 @@
         <v>44433</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25855,7 +25855,7 @@
         <v>44434</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25917,7 +25917,7 @@
         <v>44435</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25974,7 +25974,7 @@
         <v>44439</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26031,7 +26031,7 @@
         <v>44445</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26088,7 +26088,7 @@
         <v>44446</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26145,7 +26145,7 @@
         <v>44446</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26202,7 +26202,7 @@
         <v>44447</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26259,7 +26259,7 @@
         <v>44452</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26321,7 +26321,7 @@
         <v>44454</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26378,7 +26378,7 @@
         <v>44456</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26435,7 +26435,7 @@
         <v>44460</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26492,7 +26492,7 @@
         <v>44462</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26554,7 +26554,7 @@
         <v>44463</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26611,7 +26611,7 @@
         <v>44463</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26668,7 +26668,7 @@
         <v>44465</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26725,7 +26725,7 @@
         <v>44469</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26782,7 +26782,7 @@
         <v>44469</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26839,7 +26839,7 @@
         <v>44481</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26896,7 +26896,7 @@
         <v>44483</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26953,7 +26953,7 @@
         <v>44483</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27010,7 +27010,7 @@
         <v>44484</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27067,7 +27067,7 @@
         <v>44484</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27124,7 +27124,7 @@
         <v>44484</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27181,7 +27181,7 @@
         <v>44486</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27238,7 +27238,7 @@
         <v>44497</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27295,7 +27295,7 @@
         <v>44500</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27352,7 +27352,7 @@
         <v>44501</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27409,7 +27409,7 @@
         <v>44502</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27466,7 +27466,7 @@
         <v>44505</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         <v>44517</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27580,7 +27580,7 @@
         <v>44525</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27637,7 +27637,7 @@
         <v>44560</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27694,7 +27694,7 @@
         <v>44575</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27751,7 +27751,7 @@
         <v>44578</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27808,7 +27808,7 @@
         <v>44585</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27865,7 +27865,7 @@
         <v>44587</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27922,7 +27922,7 @@
         <v>44587</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27979,7 +27979,7 @@
         <v>44587</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28036,7 +28036,7 @@
         <v>44589</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28093,7 +28093,7 @@
         <v>44594</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28150,7 +28150,7 @@
         <v>44599</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28207,7 +28207,7 @@
         <v>44600</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28264,7 +28264,7 @@
         <v>44627</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28321,7 +28321,7 @@
         <v>44644</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28378,7 +28378,7 @@
         <v>44645</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28435,7 +28435,7 @@
         <v>44657</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28492,7 +28492,7 @@
         <v>44677</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28549,7 +28549,7 @@
         <v>44677</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28606,7 +28606,7 @@
         <v>44687</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28663,7 +28663,7 @@
         <v>44697</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28720,7 +28720,7 @@
         <v>44699</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28777,7 +28777,7 @@
         <v>44701</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28834,7 +28834,7 @@
         <v>44720</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         <v>44729</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28948,7 +28948,7 @@
         <v>44732</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29005,7 +29005,7 @@
         <v>44742</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29062,7 +29062,7 @@
         <v>44776</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29119,7 +29119,7 @@
         <v>44782</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29176,7 +29176,7 @@
         <v>44795</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29233,7 +29233,7 @@
         <v>44799</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29290,7 +29290,7 @@
         <v>44801</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29347,7 +29347,7 @@
         <v>44802</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29404,7 +29404,7 @@
         <v>44805</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29461,7 +29461,7 @@
         <v>44820</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29518,7 +29518,7 @@
         <v>44826</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29575,7 +29575,7 @@
         <v>44830</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29632,7 +29632,7 @@
         <v>44837</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29689,7 +29689,7 @@
         <v>44846</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         <v>44851</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29803,7 +29803,7 @@
         <v>44851</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29860,7 +29860,7 @@
         <v>44852</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29917,7 +29917,7 @@
         <v>44852</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29974,7 +29974,7 @@
         <v>44854</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30031,7 +30031,7 @@
         <v>44860</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30088,7 +30088,7 @@
         <v>44861</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30145,7 +30145,7 @@
         <v>44865</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30207,7 +30207,7 @@
         <v>44868</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30264,7 +30264,7 @@
         <v>44868</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30321,7 +30321,7 @@
         <v>44873</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30378,7 +30378,7 @@
         <v>44874</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30435,7 +30435,7 @@
         <v>44882</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30492,7 +30492,7 @@
         <v>44882</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30549,7 +30549,7 @@
         <v>44882</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30606,7 +30606,7 @@
         <v>44882</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30663,7 +30663,7 @@
         <v>44882</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30720,7 +30720,7 @@
         <v>44886</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30777,7 +30777,7 @@
         <v>44886</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30834,7 +30834,7 @@
         <v>44886</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30891,7 +30891,7 @@
         <v>44890</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30953,7 +30953,7 @@
         <v>44907</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31010,7 +31010,7 @@
         <v>44918</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31067,7 +31067,7 @@
         <v>44918</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31124,7 +31124,7 @@
         <v>44935</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31181,7 +31181,7 @@
         <v>44937</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31238,7 +31238,7 @@
         <v>44937</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31295,7 +31295,7 @@
         <v>44937</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31352,7 +31352,7 @@
         <v>44949</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31409,7 +31409,7 @@
         <v>44951</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31466,7 +31466,7 @@
         <v>44952</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31523,7 +31523,7 @@
         <v>44952</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31580,7 +31580,7 @@
         <v>44952</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31637,7 +31637,7 @@
         <v>44952</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31694,7 +31694,7 @@
         <v>44952</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31751,7 +31751,7 @@
         <v>44952</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31808,7 +31808,7 @@
         <v>44952</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31865,7 +31865,7 @@
         <v>44953</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31922,7 +31922,7 @@
         <v>44953</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31979,7 +31979,7 @@
         <v>44956</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32036,7 +32036,7 @@
         <v>44956</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32093,7 +32093,7 @@
         <v>44958</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32150,7 +32150,7 @@
         <v>44960</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32207,7 +32207,7 @@
         <v>44963</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32264,7 +32264,7 @@
         <v>44963</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32321,7 +32321,7 @@
         <v>44963</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32378,7 +32378,7 @@
         <v>44964</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32435,7 +32435,7 @@
         <v>44967</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32492,7 +32492,7 @@
         <v>44970</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32549,7 +32549,7 @@
         <v>44972</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32606,7 +32606,7 @@
         <v>44974</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32668,7 +32668,7 @@
         <v>44974</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32730,7 +32730,7 @@
         <v>44977</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32787,7 +32787,7 @@
         <v>44977</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32844,7 +32844,7 @@
         <v>44978</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32901,7 +32901,7 @@
         <v>44978</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32958,7 +32958,7 @@
         <v>44981</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33015,7 +33015,7 @@
         <v>44981</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33072,7 +33072,7 @@
         <v>44982</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33129,7 +33129,7 @@
         <v>44985</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         <v>44988</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33243,7 +33243,7 @@
         <v>44992</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33300,7 +33300,7 @@
         <v>44992</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33357,7 +33357,7 @@
         <v>44992</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33414,7 +33414,7 @@
         <v>44992</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33471,7 +33471,7 @@
         <v>44993</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33528,7 +33528,7 @@
         <v>44998</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33585,7 +33585,7 @@
         <v>45000</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33642,7 +33642,7 @@
         <v>45000</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33699,7 +33699,7 @@
         <v>45000</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33756,7 +33756,7 @@
         <v>45000</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33813,7 +33813,7 @@
         <v>45000</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33870,7 +33870,7 @@
         <v>45000</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33927,7 +33927,7 @@
         <v>45000</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33984,7 +33984,7 @@
         <v>45000</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34041,7 +34041,7 @@
         <v>45005</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34098,7 +34098,7 @@
         <v>45005</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34155,7 +34155,7 @@
         <v>45007</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34212,7 +34212,7 @@
         <v>45007</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34269,7 +34269,7 @@
         <v>45008</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34326,7 +34326,7 @@
         <v>45008</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34383,7 +34383,7 @@
         <v>45009</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34440,7 +34440,7 @@
         <v>45009</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34497,7 +34497,7 @@
         <v>45022</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34554,7 +34554,7 @@
         <v>45029</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34611,7 +34611,7 @@
         <v>45030</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34668,7 +34668,7 @@
         <v>45030</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34725,7 +34725,7 @@
         <v>45030</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34782,7 +34782,7 @@
         <v>45030</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34839,7 +34839,7 @@
         <v>45035</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34896,7 +34896,7 @@
         <v>45036</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34953,7 +34953,7 @@
         <v>45036</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35010,7 +35010,7 @@
         <v>45037</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35067,7 +35067,7 @@
         <v>45042</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35124,7 +35124,7 @@
         <v>45048</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35181,7 +35181,7 @@
         <v>45049</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35238,7 +35238,7 @@
         <v>45056</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35295,7 +35295,7 @@
         <v>45062</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35352,7 +35352,7 @@
         <v>45062</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35409,7 +35409,7 @@
         <v>45062</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35466,7 +35466,7 @@
         <v>45071</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35523,7 +35523,7 @@
         <v>45071</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35580,7 +35580,7 @@
         <v>45071</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35637,7 +35637,7 @@
         <v>45071</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35694,7 +35694,7 @@
         <v>45076</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35751,7 +35751,7 @@
         <v>45077</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35808,7 +35808,7 @@
         <v>45078</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35865,7 +35865,7 @@
         <v>45078</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35922,7 +35922,7 @@
         <v>45078</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35979,7 +35979,7 @@
         <v>45078</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36036,7 +36036,7 @@
         <v>45078</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36093,7 +36093,7 @@
         <v>45078</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36150,7 +36150,7 @@
         <v>45078</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36212,7 +36212,7 @@
         <v>45078</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36274,7 +36274,7 @@
         <v>45078</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36331,7 +36331,7 @@
         <v>45078</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36388,7 +36388,7 @@
         <v>45082</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36445,7 +36445,7 @@
         <v>45082</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36502,7 +36502,7 @@
         <v>45082</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36559,7 +36559,7 @@
         <v>45082</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36616,7 +36616,7 @@
         <v>45082</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36673,7 +36673,7 @@
         <v>45084</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36730,7 +36730,7 @@
         <v>45085</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36787,7 +36787,7 @@
         <v>45089</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36844,7 +36844,7 @@
         <v>45089</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36901,7 +36901,7 @@
         <v>45093</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36958,7 +36958,7 @@
         <v>45093</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37015,7 +37015,7 @@
         <v>45096</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37072,7 +37072,7 @@
         <v>45096</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37129,7 +37129,7 @@
         <v>45097</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         <v>45097</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         <v>45098</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37300,7 +37300,7 @@
         <v>45098</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37357,7 +37357,7 @@
         <v>45098</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37414,7 +37414,7 @@
         <v>45098</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37471,7 +37471,7 @@
         <v>45105</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37528,7 +37528,7 @@
         <v>45110</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37585,7 +37585,7 @@
         <v>45111</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37642,7 +37642,7 @@
         <v>45111</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37699,7 +37699,7 @@
         <v>45111</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37756,7 +37756,7 @@
         <v>45114</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37813,7 +37813,7 @@
         <v>45116</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37870,7 +37870,7 @@
         <v>45120</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37927,7 +37927,7 @@
         <v>45122</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37984,7 +37984,7 @@
         <v>45128</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38041,7 +38041,7 @@
         <v>45134</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38098,7 +38098,7 @@
         <v>45139</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38155,7 +38155,7 @@
         <v>45139</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38212,7 +38212,7 @@
         <v>45141</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38269,7 +38269,7 @@
         <v>45145</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38326,7 +38326,7 @@
         <v>45145</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38383,7 +38383,7 @@
         <v>45148</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38440,7 +38440,7 @@
         <v>45152</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38497,7 +38497,7 @@
         <v>45153</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38554,7 +38554,7 @@
         <v>45159</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         <v>45160</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38668,7 +38668,7 @@
         <v>45160</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38730,7 +38730,7 @@
         <v>45161</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38787,7 +38787,7 @@
         <v>45162</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38849,7 +38849,7 @@
         <v>45163</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38906,7 +38906,7 @@
         <v>45163</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38963,7 +38963,7 @@
         <v>45167</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39020,7 +39020,7 @@
         <v>45174</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39077,7 +39077,7 @@
         <v>45182</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39134,7 +39134,7 @@
         <v>45187</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>

--- a/Översikt KINDA.xlsx
+++ b/Översikt KINDA.xlsx
@@ -572,7 +572,7 @@
         <v>43345</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>44826</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44872</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         <v>44575</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44575</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>44939</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>44088</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44484</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>44974</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44958</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>45201</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>43315</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>43987</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>44478</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>45196</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43320</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>43353</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43474</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>43475</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43523</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43524</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43531</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43585</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>43807</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>43809</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43879</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>43990</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>44092</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>44235</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         <v>44342</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>44418</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         <v>44419</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         <v>44435</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>44483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>44636</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>44642</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>44690</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>44706</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>44754</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>44801</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>44866</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>44960</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44974</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>45049</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>45093</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>45093</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>45093</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43320</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43321</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43321</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43325</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43328</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43335</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43336</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>43336</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>43340</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>43341</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>43346</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>43348</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>43355</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>43356</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>43356</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43357</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43368</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43375</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43376</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43383</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43385</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43388</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43395</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43395</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43402</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43402</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43402</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43402</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43402</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43406</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43411</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43412</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43414</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43419</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>43419</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>43423</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>43423</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43424</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43426</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43438</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>43440</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>43441</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>43441</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>43441</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>43441</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>43441</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>43445</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>43445</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>43446</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>43446</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>43454</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         <v>43454</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7789,7 +7789,7 @@
         <v>43467</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>43467</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>43468</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>43468</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>43473</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>43474</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>43475</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>43475</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>43481</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>43481</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>43482</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>43487</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>43487</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>43487</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>43488</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>43489</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>43493</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43494</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>43496</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>43496</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>43501</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43506</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>43508</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43511</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43514</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43515</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>43517</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>43528</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9395,7 +9395,7 @@
         <v>43528</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9457,7 +9457,7 @@
         <v>43530</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9514,7 +9514,7 @@
         <v>43533</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9571,7 +9571,7 @@
         <v>43542</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         <v>43542</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>43543</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>43557</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>43558</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>43563</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>43563</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>43573</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43578</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>43579</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>43579</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>43580</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         <v>43584</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>43584</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>43588</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43589</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43593</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>43594</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>43595</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>43599</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>43600</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10773,7 +10773,7 @@
         <v>43602</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10830,7 +10830,7 @@
         <v>43608</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10887,7 +10887,7 @@
         <v>43612</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10944,7 +10944,7 @@
         <v>43612</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>43619</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>43619</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         <v>43621</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         <v>43621</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>43626</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>43626</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>43634</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>43634</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>43636</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>43644</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>43647</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>43647</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>43649</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>43649</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>43651</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>43657</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>43657</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>43657</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>43661</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>43672</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>43679</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>43682</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12255,7 +12255,7 @@
         <v>43683</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>43685</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>43689</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>43689</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>43689</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>43691</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>43696</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>43696</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>43696</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>43698</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>43698</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>43698</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12939,7 +12939,7 @@
         <v>43699</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>43702</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13053,7 +13053,7 @@
         <v>43703</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13110,7 +13110,7 @@
         <v>43705</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13167,7 +13167,7 @@
         <v>43706</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13224,7 +13224,7 @@
         <v>43707</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13281,7 +13281,7 @@
         <v>43707</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13338,7 +13338,7 @@
         <v>43710</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13395,7 +13395,7 @@
         <v>43711</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13452,7 +13452,7 @@
         <v>43712</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13514,7 +13514,7 @@
         <v>43714</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13571,7 +13571,7 @@
         <v>43714</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13628,7 +13628,7 @@
         <v>43717</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13685,7 +13685,7 @@
         <v>43719</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>43719</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13799,7 +13799,7 @@
         <v>43721</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13861,7 +13861,7 @@
         <v>43725</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13918,7 +13918,7 @@
         <v>43727</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13975,7 +13975,7 @@
         <v>43727</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14032,7 +14032,7 @@
         <v>43727</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14089,7 +14089,7 @@
         <v>43731</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         <v>43735</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>43740</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>43742</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>43748</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>43748</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>43756</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14488,7 +14488,7 @@
         <v>43762</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14545,7 +14545,7 @@
         <v>43762</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14602,7 +14602,7 @@
         <v>43765</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14659,7 +14659,7 @@
         <v>43766</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14716,7 +14716,7 @@
         <v>43767</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14773,7 +14773,7 @@
         <v>43767</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14830,7 +14830,7 @@
         <v>43767</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14887,7 +14887,7 @@
         <v>43767</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14944,7 +14944,7 @@
         <v>43773</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>43773</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>43773</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>43775</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>43781</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>43782</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>43782</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>43787</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>43795</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>43795</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15519,7 +15519,7 @@
         <v>43796</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15576,7 +15576,7 @@
         <v>43796</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>43796</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15690,7 +15690,7 @@
         <v>43803</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>43809</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>43811</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>43840</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>43843</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>43850</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>43852</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>43858</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>43858</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>43858</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>43858</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>43860</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>43860</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
         <v>43860</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>43860</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>43865</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16622,7 +16622,7 @@
         <v>43866</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16679,7 +16679,7 @@
         <v>43868</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16736,7 +16736,7 @@
         <v>43868</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>43868</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>43868</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>43871</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>43871</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17021,7 +17021,7 @@
         <v>43871</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>43871</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>43879</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>43882</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17254,7 +17254,7 @@
         <v>43885</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>43886</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>43892</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>43893</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>43893</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17539,7 +17539,7 @@
         <v>43910</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>43914</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17653,7 +17653,7 @@
         <v>43915</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         <v>43917</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17767,7 +17767,7 @@
         <v>43923</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17824,7 +17824,7 @@
         <v>43924</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
         <v>43930</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
         <v>43936</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18000,7 +18000,7 @@
         <v>43936</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18062,7 +18062,7 @@
         <v>43937</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18119,7 +18119,7 @@
         <v>43938</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18181,7 +18181,7 @@
         <v>43941</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>43956</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>43956</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         <v>43956</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>43956</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>43956</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18528,7 +18528,7 @@
         <v>43957</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         <v>43957</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18647,7 +18647,7 @@
         <v>43976</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>43977</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>43977</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>43980</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>43980</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>43980</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>43990</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>44000</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>44007</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44008</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44011</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>44015</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44026</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>44029</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44034</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>44039</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>44039</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44047</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19703,7 +19703,7 @@
         <v>44049</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19760,7 +19760,7 @@
         <v>44053</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19817,7 +19817,7 @@
         <v>44057</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19874,7 +19874,7 @@
         <v>44063</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19931,7 +19931,7 @@
         <v>44063</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
         <v>44063</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20045,7 +20045,7 @@
         <v>44067</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         <v>44068</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20159,7 +20159,7 @@
         <v>44069</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20216,7 +20216,7 @@
         <v>44076</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20273,7 +20273,7 @@
         <v>44077</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20335,7 +20335,7 @@
         <v>44078</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20392,7 +20392,7 @@
         <v>44084</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20449,7 +20449,7 @@
         <v>44084</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20506,7 +20506,7 @@
         <v>44088</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20568,7 +20568,7 @@
         <v>44089</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>44090</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20687,7 +20687,7 @@
         <v>44092</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20744,7 +20744,7 @@
         <v>44095</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20801,7 +20801,7 @@
         <v>44099</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>44100</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         <v>44104</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>44105</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>44112</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21096,7 +21096,7 @@
         <v>44112</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21153,7 +21153,7 @@
         <v>44112</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21210,7 +21210,7 @@
         <v>44112</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21267,7 +21267,7 @@
         <v>44112</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21324,7 +21324,7 @@
         <v>44113</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21381,7 +21381,7 @@
         <v>44120</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>44123</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>44123</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>44124</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>44125</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>44130</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21723,7 +21723,7 @@
         <v>44140</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21780,7 +21780,7 @@
         <v>44144</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21837,7 +21837,7 @@
         <v>44160</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21894,7 +21894,7 @@
         <v>44161</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21951,7 +21951,7 @@
         <v>44164</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22008,7 +22008,7 @@
         <v>44165</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22065,7 +22065,7 @@
         <v>44167</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22122,7 +22122,7 @@
         <v>44168</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22179,7 +22179,7 @@
         <v>44168</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22236,7 +22236,7 @@
         <v>44171</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         <v>44171</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22350,7 +22350,7 @@
         <v>44187</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22407,7 +22407,7 @@
         <v>44203</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22464,7 +22464,7 @@
         <v>44203</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22521,7 +22521,7 @@
         <v>44203</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22578,7 +22578,7 @@
         <v>44207</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22635,7 +22635,7 @@
         <v>44215</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22692,7 +22692,7 @@
         <v>44216</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22749,7 +22749,7 @@
         <v>44218</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22811,7 +22811,7 @@
         <v>44221</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22868,7 +22868,7 @@
         <v>44223</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22925,7 +22925,7 @@
         <v>44223</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22982,7 +22982,7 @@
         <v>44236</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23039,7 +23039,7 @@
         <v>44239</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23096,7 +23096,7 @@
         <v>44242</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23153,7 +23153,7 @@
         <v>44243</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23210,7 +23210,7 @@
         <v>44244</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>44249</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23324,7 +23324,7 @@
         <v>44249</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23381,7 +23381,7 @@
         <v>44252</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
         <v>44258</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23495,7 +23495,7 @@
         <v>44266</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23552,7 +23552,7 @@
         <v>44267</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23609,7 +23609,7 @@
         <v>44272</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         <v>44274</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23723,7 +23723,7 @@
         <v>44278</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23780,7 +23780,7 @@
         <v>44284</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23837,7 +23837,7 @@
         <v>44294</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23894,7 +23894,7 @@
         <v>44308</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23951,7 +23951,7 @@
         <v>44309</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24008,7 +24008,7 @@
         <v>44309</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24065,7 +24065,7 @@
         <v>44314</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24122,7 +24122,7 @@
         <v>44316</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24179,7 +24179,7 @@
         <v>44319</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24236,7 +24236,7 @@
         <v>44319</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24293,7 +24293,7 @@
         <v>44322</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24350,7 +24350,7 @@
         <v>44323</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24407,7 +24407,7 @@
         <v>44326</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24464,7 +24464,7 @@
         <v>44334</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24521,7 +24521,7 @@
         <v>44335</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>44337</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24635,7 +24635,7 @@
         <v>44337</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24692,7 +24692,7 @@
         <v>44354</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24749,7 +24749,7 @@
         <v>44357</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>44357</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24863,7 +24863,7 @@
         <v>44362</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44375</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24997,7 +24997,7 @@
         <v>44379</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25054,7 +25054,7 @@
         <v>44379</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25111,7 +25111,7 @@
         <v>44379</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25168,7 +25168,7 @@
         <v>44379</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25225,7 +25225,7 @@
         <v>44379</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25282,7 +25282,7 @@
         <v>44382</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>44392</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25396,7 +25396,7 @@
         <v>44411</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25458,7 +25458,7 @@
         <v>44411</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25515,7 +25515,7 @@
         <v>44416</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25572,7 +25572,7 @@
         <v>44418</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25629,7 +25629,7 @@
         <v>44419</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25686,7 +25686,7 @@
         <v>44419</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25743,7 +25743,7 @@
         <v>44425</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25800,7 +25800,7 @@
         <v>44425</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25857,7 +25857,7 @@
         <v>44425</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25914,7 +25914,7 @@
         <v>44433</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25971,7 +25971,7 @@
         <v>44433</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26028,7 +26028,7 @@
         <v>44434</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26090,7 +26090,7 @@
         <v>44435</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26147,7 +26147,7 @@
         <v>44439</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26204,7 +26204,7 @@
         <v>44445</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26261,7 +26261,7 @@
         <v>44446</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26318,7 +26318,7 @@
         <v>44446</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26375,7 +26375,7 @@
         <v>44447</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26432,7 +26432,7 @@
         <v>44452</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26494,7 +26494,7 @@
         <v>44454</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26551,7 +26551,7 @@
         <v>44456</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26608,7 +26608,7 @@
         <v>44460</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26665,7 +26665,7 @@
         <v>44462</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26727,7 +26727,7 @@
         <v>44463</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26784,7 +26784,7 @@
         <v>44463</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>44465</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26898,7 +26898,7 @@
         <v>44469</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
         <v>44469</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27012,7 +27012,7 @@
         <v>44481</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27069,7 +27069,7 @@
         <v>44483</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27126,7 +27126,7 @@
         <v>44483</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>44484</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27240,7 +27240,7 @@
         <v>44484</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27297,7 +27297,7 @@
         <v>44484</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27354,7 +27354,7 @@
         <v>44486</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27411,7 +27411,7 @@
         <v>44497</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27468,7 +27468,7 @@
         <v>44500</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27525,7 +27525,7 @@
         <v>44501</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27582,7 +27582,7 @@
         <v>44502</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27639,7 +27639,7 @@
         <v>44505</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27696,7 +27696,7 @@
         <v>44517</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27753,7 +27753,7 @@
         <v>44525</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27810,7 +27810,7 @@
         <v>44560</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27867,7 +27867,7 @@
         <v>44575</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27924,7 +27924,7 @@
         <v>44578</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27981,7 +27981,7 @@
         <v>44585</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28038,7 +28038,7 @@
         <v>44587</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28095,7 +28095,7 @@
         <v>44587</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28152,7 +28152,7 @@
         <v>44587</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28209,7 +28209,7 @@
         <v>44589</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28266,7 +28266,7 @@
         <v>44594</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28323,7 +28323,7 @@
         <v>44599</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28380,7 +28380,7 @@
         <v>44600</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28437,7 +28437,7 @@
         <v>44627</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28494,7 +28494,7 @@
         <v>44644</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>44645</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28608,7 +28608,7 @@
         <v>44657</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28665,7 +28665,7 @@
         <v>44677</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28722,7 +28722,7 @@
         <v>44677</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28779,7 +28779,7 @@
         <v>44687</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28836,7 +28836,7 @@
         <v>44697</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28893,7 +28893,7 @@
         <v>44699</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28950,7 +28950,7 @@
         <v>44701</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29007,7 +29007,7 @@
         <v>44720</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29064,7 +29064,7 @@
         <v>44729</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29121,7 +29121,7 @@
         <v>44732</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29178,7 +29178,7 @@
         <v>44742</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29235,7 +29235,7 @@
         <v>44776</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29292,7 +29292,7 @@
         <v>44782</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         <v>44795</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29406,7 +29406,7 @@
         <v>44799</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29463,7 +29463,7 @@
         <v>44801</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29520,7 +29520,7 @@
         <v>44802</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29577,7 +29577,7 @@
         <v>44805</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29634,7 +29634,7 @@
         <v>44820</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29691,7 +29691,7 @@
         <v>44826</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29748,7 +29748,7 @@
         <v>44830</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29805,7 +29805,7 @@
         <v>44837</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>44846</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>44851</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29976,7 +29976,7 @@
         <v>44851</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30033,7 +30033,7 @@
         <v>44852</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30090,7 +30090,7 @@
         <v>44852</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30147,7 +30147,7 @@
         <v>44854</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30204,7 +30204,7 @@
         <v>44860</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30261,7 +30261,7 @@
         <v>44861</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30318,7 +30318,7 @@
         <v>44865</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30380,7 +30380,7 @@
         <v>44868</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30437,7 +30437,7 @@
         <v>44868</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30494,7 +30494,7 @@
         <v>44873</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30551,7 +30551,7 @@
         <v>44874</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30608,7 +30608,7 @@
         <v>44882</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30665,7 +30665,7 @@
         <v>44882</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30722,7 +30722,7 @@
         <v>44882</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30779,7 +30779,7 @@
         <v>44882</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30836,7 +30836,7 @@
         <v>44882</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30893,7 +30893,7 @@
         <v>44886</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30950,7 +30950,7 @@
         <v>44886</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31007,7 +31007,7 @@
         <v>44886</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>44890</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31126,7 +31126,7 @@
         <v>44907</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31183,7 +31183,7 @@
         <v>44918</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31240,7 +31240,7 @@
         <v>44918</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31297,7 +31297,7 @@
         <v>44935</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31354,7 +31354,7 @@
         <v>44937</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         <v>44937</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31468,7 +31468,7 @@
         <v>44937</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31525,7 +31525,7 @@
         <v>44949</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31582,7 +31582,7 @@
         <v>44951</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31639,7 +31639,7 @@
         <v>44952</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31696,7 +31696,7 @@
         <v>44952</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31753,7 +31753,7 @@
         <v>44952</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31810,7 +31810,7 @@
         <v>44952</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31867,7 +31867,7 @@
         <v>44952</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31924,7 +31924,7 @@
         <v>44952</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31981,7 +31981,7 @@
         <v>44952</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32038,7 +32038,7 @@
         <v>44953</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32095,7 +32095,7 @@
         <v>44953</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32152,7 +32152,7 @@
         <v>44956</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32209,7 +32209,7 @@
         <v>44956</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32266,7 +32266,7 @@
         <v>44958</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32323,7 +32323,7 @@
         <v>44960</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32380,7 +32380,7 @@
         <v>44963</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32437,7 +32437,7 @@
         <v>44963</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32494,7 +32494,7 @@
         <v>44963</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32551,7 +32551,7 @@
         <v>44964</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32608,7 +32608,7 @@
         <v>44967</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32665,7 +32665,7 @@
         <v>44970</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32722,7 +32722,7 @@
         <v>44972</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         <v>44974</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32841,7 +32841,7 @@
         <v>44974</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32903,7 +32903,7 @@
         <v>44977</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32960,7 +32960,7 @@
         <v>44977</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33017,7 +33017,7 @@
         <v>44978</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33074,7 +33074,7 @@
         <v>44978</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33131,7 +33131,7 @@
         <v>44981</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33188,7 +33188,7 @@
         <v>44981</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33245,7 +33245,7 @@
         <v>44982</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33302,7 +33302,7 @@
         <v>44985</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33359,7 +33359,7 @@
         <v>44988</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33416,7 +33416,7 @@
         <v>44992</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33473,7 +33473,7 @@
         <v>44992</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33530,7 +33530,7 @@
         <v>44992</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33587,7 +33587,7 @@
         <v>44992</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33644,7 +33644,7 @@
         <v>44993</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33701,7 +33701,7 @@
         <v>44998</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33758,7 +33758,7 @@
         <v>45000</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33815,7 +33815,7 @@
         <v>45000</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33872,7 +33872,7 @@
         <v>45000</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33929,7 +33929,7 @@
         <v>45000</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         <v>45000</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34043,7 +34043,7 @@
         <v>45000</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34100,7 +34100,7 @@
         <v>45000</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34157,7 +34157,7 @@
         <v>45000</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34214,7 +34214,7 @@
         <v>45005</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34271,7 +34271,7 @@
         <v>45005</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34328,7 +34328,7 @@
         <v>45007</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34385,7 +34385,7 @@
         <v>45007</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34442,7 +34442,7 @@
         <v>45008</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34499,7 +34499,7 @@
         <v>45008</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34556,7 +34556,7 @@
         <v>45009</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34613,7 +34613,7 @@
         <v>45009</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34670,7 +34670,7 @@
         <v>45022</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34727,7 +34727,7 @@
         <v>45029</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34784,7 +34784,7 @@
         <v>45030</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34841,7 +34841,7 @@
         <v>45030</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34898,7 +34898,7 @@
         <v>45030</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34955,7 +34955,7 @@
         <v>45030</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35012,7 +35012,7 @@
         <v>45035</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35069,7 +35069,7 @@
         <v>45036</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35126,7 +35126,7 @@
         <v>45036</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35183,7 +35183,7 @@
         <v>45037</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35240,7 +35240,7 @@
         <v>45042</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35297,7 +35297,7 @@
         <v>45048</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35354,7 +35354,7 @@
         <v>45049</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35411,7 +35411,7 @@
         <v>45056</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35468,7 +35468,7 @@
         <v>45062</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35525,7 +35525,7 @@
         <v>45062</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35582,7 +35582,7 @@
         <v>45062</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35639,7 +35639,7 @@
         <v>45071</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35696,7 +35696,7 @@
         <v>45071</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35753,7 +35753,7 @@
         <v>45071</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35810,7 +35810,7 @@
         <v>45071</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35867,7 +35867,7 @@
         <v>45076</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35924,7 +35924,7 @@
         <v>45077</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35981,7 +35981,7 @@
         <v>45078</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36038,7 +36038,7 @@
         <v>45078</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36095,7 +36095,7 @@
         <v>45078</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36152,7 +36152,7 @@
         <v>45078</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36209,7 +36209,7 @@
         <v>45078</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36266,7 +36266,7 @@
         <v>45078</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36323,7 +36323,7 @@
         <v>45078</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36385,7 +36385,7 @@
         <v>45078</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36447,7 +36447,7 @@
         <v>45078</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36504,7 +36504,7 @@
         <v>45078</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36561,7 +36561,7 @@
         <v>45082</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36618,7 +36618,7 @@
         <v>45082</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36675,7 +36675,7 @@
         <v>45082</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36732,7 +36732,7 @@
         <v>45082</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36789,7 +36789,7 @@
         <v>45082</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36846,7 +36846,7 @@
         <v>45084</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36903,7 +36903,7 @@
         <v>45085</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36960,7 +36960,7 @@
         <v>45089</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37017,7 +37017,7 @@
         <v>45089</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37074,7 +37074,7 @@
         <v>45093</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37131,7 +37131,7 @@
         <v>45093</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37188,7 +37188,7 @@
         <v>45096</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37245,7 +37245,7 @@
         <v>45096</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37302,7 +37302,7 @@
         <v>45097</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37359,7 +37359,7 @@
         <v>45097</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37416,7 +37416,7 @@
         <v>45098</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37473,7 +37473,7 @@
         <v>45098</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37530,7 +37530,7 @@
         <v>45098</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37587,7 +37587,7 @@
         <v>45098</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37644,7 +37644,7 @@
         <v>45105</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37701,7 +37701,7 @@
         <v>45110</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37758,7 +37758,7 @@
         <v>45111</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37815,7 +37815,7 @@
         <v>45111</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37872,7 +37872,7 @@
         <v>45111</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37929,7 +37929,7 @@
         <v>45114</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         <v>45116</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38043,7 +38043,7 @@
         <v>45120</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38100,7 +38100,7 @@
         <v>45122</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38157,7 +38157,7 @@
         <v>45128</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38214,7 +38214,7 @@
         <v>45134</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38271,7 +38271,7 @@
         <v>45139</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38328,7 +38328,7 @@
         <v>45139</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38385,7 +38385,7 @@
         <v>45141</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38442,7 +38442,7 @@
         <v>45145</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38499,7 +38499,7 @@
         <v>45145</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38556,7 +38556,7 @@
         <v>45148</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38613,7 +38613,7 @@
         <v>45152</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38670,7 +38670,7 @@
         <v>45153</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38727,7 +38727,7 @@
         <v>45159</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38784,7 +38784,7 @@
         <v>45160</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38841,7 +38841,7 @@
         <v>45160</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38903,7 +38903,7 @@
         <v>45161</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38960,7 +38960,7 @@
         <v>45162</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39022,7 +39022,7 @@
         <v>45163</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39079,7 +39079,7 @@
         <v>45163</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39136,7 +39136,7 @@
         <v>45167</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39193,7 +39193,7 @@
         <v>45174</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39250,7 +39250,7 @@
         <v>45182</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39307,7 +39307,7 @@
         <v>45187</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39369,7 +39369,7 @@
         <v>45195</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         <v>45197</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>

--- a/Översikt KINDA.xlsx
+++ b/Översikt KINDA.xlsx
@@ -572,7 +572,7 @@
         <v>43345</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>44826</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44872</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         <v>44575</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44575</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>44939</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>44088</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44484</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>44974</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44958</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>45201</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>43315</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>43987</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>44478</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>45196</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43320</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>43353</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43474</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>43475</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43523</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43524</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43531</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43585</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>43807</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>43809</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43879</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>43990</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>44092</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>44235</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         <v>44342</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>44418</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         <v>44419</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         <v>44435</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>44483</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>44636</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>44642</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>44690</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>44706</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>44754</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>44801</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>44866</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>44960</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44974</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>45049</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>45093</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>45093</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>45093</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43320</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43321</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43321</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43325</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43328</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43335</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43336</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>43336</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>43340</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>43341</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>43346</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>43348</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>43355</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>43356</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>43356</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43357</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43368</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43375</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43376</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43383</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43385</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43388</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43395</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43395</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43402</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43402</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43402</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43402</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43402</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43406</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43411</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43412</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43414</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43419</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>43419</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>43423</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>43423</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43424</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43426</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43438</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>43440</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>43441</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>43441</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>43441</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>43441</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>43441</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>43445</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>43445</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>43446</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>43446</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>43454</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         <v>43454</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7789,7 +7789,7 @@
         <v>43467</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>43467</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>43468</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>43468</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>43473</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>43474</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>43475</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>43475</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>43481</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>43481</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>43482</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>43487</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>43487</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>43487</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>43488</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>43489</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>43493</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43494</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>43496</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>43496</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>43501</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43506</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>43508</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43511</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43514</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43515</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>43517</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>43528</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9395,7 +9395,7 @@
         <v>43528</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9457,7 +9457,7 @@
         <v>43530</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9514,7 +9514,7 @@
         <v>43533</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9571,7 +9571,7 @@
         <v>43542</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         <v>43542</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>43543</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>43557</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>43558</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>43563</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>43563</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>43573</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43578</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>43579</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>43579</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>43580</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         <v>43584</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>43584</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>43588</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43589</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43593</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>43594</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>43595</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>43599</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>43600</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10773,7 +10773,7 @@
         <v>43602</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10830,7 +10830,7 @@
         <v>43608</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10887,7 +10887,7 @@
         <v>43612</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10944,7 +10944,7 @@
         <v>43612</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>43619</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>43619</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         <v>43621</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         <v>43621</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>43626</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>43626</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>43634</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>43634</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>43636</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>43644</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>43647</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>43647</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>43649</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>43649</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>43651</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>43657</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>43657</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>43657</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>43661</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>43672</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>43679</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>43682</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12255,7 +12255,7 @@
         <v>43683</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>43685</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>43689</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>43689</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>43689</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>43691</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>43696</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>43696</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>43696</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>43698</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>43698</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>43698</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12939,7 +12939,7 @@
         <v>43699</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>43702</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13053,7 +13053,7 @@
         <v>43703</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13110,7 +13110,7 @@
         <v>43705</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13167,7 +13167,7 @@
         <v>43706</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13224,7 +13224,7 @@
         <v>43707</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13281,7 +13281,7 @@
         <v>43707</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13338,7 +13338,7 @@
         <v>43710</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13395,7 +13395,7 @@
         <v>43711</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13452,7 +13452,7 @@
         <v>43712</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13514,7 +13514,7 @@
         <v>43714</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13571,7 +13571,7 @@
         <v>43714</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13628,7 +13628,7 @@
         <v>43717</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13685,7 +13685,7 @@
         <v>43719</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>43719</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13799,7 +13799,7 @@
         <v>43721</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13861,7 +13861,7 @@
         <v>43725</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13918,7 +13918,7 @@
         <v>43727</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13975,7 +13975,7 @@
         <v>43727</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14032,7 +14032,7 @@
         <v>43727</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14089,7 +14089,7 @@
         <v>43731</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         <v>43735</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>43740</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>43742</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>43748</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>43748</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>43756</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14488,7 +14488,7 @@
         <v>43762</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14545,7 +14545,7 @@
         <v>43762</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14602,7 +14602,7 @@
         <v>43765</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14659,7 +14659,7 @@
         <v>43766</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14716,7 +14716,7 @@
         <v>43767</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14773,7 +14773,7 @@
         <v>43767</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14830,7 +14830,7 @@
         <v>43767</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14887,7 +14887,7 @@
         <v>43767</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14944,7 +14944,7 @@
         <v>43773</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>43773</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>43773</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>43775</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>43781</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>43782</v>
       </c>
       <c r="C232" s